--- a/data_clean/Orkla 11.12.2020.xlsx
+++ b/data_clean/Orkla 11.12.2020.xlsx
@@ -1503,7 +1503,7 @@
         <v>0.8879712902285709</v>
       </c>
       <c r="K2">
-        <v>44.94653124481533</v>
+        <v>-0.05053468755184674</v>
       </c>
       <c r="L2">
         <v>-0.0023661356002345</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.01107501774424215</v>
@@ -1604,13 +1604,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L4">
         <v>-0.01095545250269384</v>
@@ -1675,13 +1675,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9997289028310291</v>
+        <v>-0.0002710971689708908</v>
       </c>
       <c r="V4">
-        <v>0.9997289028310291</v>
+        <v>-0.0002710971689708908</v>
       </c>
       <c r="W4">
-        <v>0.99953509995351</v>
+        <v>-0.0004649000464900244</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L5">
         <v>-0.01054787345561643</v>
@@ -1746,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.9998063066553033</v>
+        <v>-0.0001936933446966549</v>
       </c>
       <c r="V5">
-        <v>0.9998063066553033</v>
+        <v>-0.0001936933446966549</v>
       </c>
       <c r="W5">
-        <v>0.9997674418604652</v>
+        <v>-0.000232558139534822</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L6">
         <v>-0.010263642321539</v>
@@ -1817,13 +1817,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.9998372660699755</v>
+        <v>-0.0001627339300245279</v>
       </c>
       <c r="V6">
-        <v>0.9998372660699755</v>
+        <v>-0.0001627339300245279</v>
       </c>
       <c r="W6">
-        <v>0.9997673877645963</v>
+        <v>-0.0002326122354037174</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L7">
         <v>-0.01180192481751192</v>
@@ -1888,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9996589781746033</v>
+        <v>-0.0003410218253967479</v>
       </c>
       <c r="V7">
-        <v>0.9996589781746033</v>
+        <v>-0.0003410218253967479</v>
       </c>
       <c r="W7">
-        <v>0.9986040018613309</v>
+        <v>-0.001395998138669086</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L8">
         <v>-0.01462884644770035</v>
@@ -1959,13 +1959,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9995569634273309</v>
+        <v>-0.0004430365726690866</v>
       </c>
       <c r="V8">
-        <v>0.9995569634273309</v>
+        <v>-0.0004430365726690866</v>
       </c>
       <c r="W8">
-        <v>0.9986020503261882</v>
+        <v>-0.001397949673811794</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2000,7 +2000,7 @@
         <v>0.2418420802145504</v>
       </c>
       <c r="K9">
-        <v>19.47446330476802</v>
+        <v>-0.3052553669523198</v>
       </c>
       <c r="L9">
         <v>-0.01616096635321827</v>
@@ -2030,13 +2030,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9997839239412274</v>
+        <v>-0.0002160760587726074</v>
       </c>
       <c r="V9">
-        <v>0.9997839239412274</v>
+        <v>-0.0002160760587726074</v>
       </c>
       <c r="W9">
-        <v>1.000933271115259</v>
+        <v>0.0009332711152589823</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2071,7 +2071,7 @@
         <v>0.2418420802145504</v>
       </c>
       <c r="K10">
-        <v>19.47446330476802</v>
+        <v>-0.3052553669523198</v>
       </c>
       <c r="L10">
         <v>-0.01684546241827401</v>
@@ -2101,13 +2101,13 @@
         <v>-0.02305555555555827</v>
       </c>
       <c r="U10">
-        <v>0.9998319045217683</v>
+        <v>-0.0001680954782317112</v>
       </c>
       <c r="V10">
-        <v>0.9998319045217683</v>
+        <v>-0.0001680954782317112</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2142,7 +2142,7 @@
         <v>0.3088343462019486</v>
       </c>
       <c r="K11">
-        <v>23.59613705876087</v>
+        <v>-0.2640386294123913</v>
       </c>
       <c r="L11">
         <v>-0.01681560311151841</v>
@@ -2172,13 +2172,13 @@
         <v>-0.04099999999999682</v>
       </c>
       <c r="U11">
-        <v>0.9998887796803061</v>
+        <v>-0.0001112203196939054</v>
       </c>
       <c r="V11">
-        <v>0.9998887796803061</v>
+        <v>-0.0001112203196939054</v>
       </c>
       <c r="W11">
-        <v>1.0002331002331</v>
+        <v>0.0002331002331001919</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2213,7 +2213,7 @@
         <v>0.5909070450963569</v>
       </c>
       <c r="K12">
-        <v>37.14277631227457</v>
+        <v>-0.1285722368772543</v>
       </c>
       <c r="L12">
         <v>-0.01580572203926006</v>
@@ -2243,13 +2243,13 @@
         <v>-0.05295454545453993</v>
       </c>
       <c r="U12">
-        <v>0.9999936505652056</v>
+        <v>-6.349434794383768E-06</v>
       </c>
       <c r="V12">
-        <v>0.9999936505652056</v>
+        <v>-6.349434794383768E-06</v>
       </c>
       <c r="W12">
-        <v>1.000932183640177</v>
+        <v>0.0009321836401772199</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2284,7 +2284,7 @@
         <v>0.4832848404101289</v>
       </c>
       <c r="K13">
-        <v>32.58206564536185</v>
+        <v>-0.1741793435463815</v>
       </c>
       <c r="L13">
         <v>-0.01477119501381531</v>
@@ -2314,13 +2314,13 @@
         <v>-0.06499999999999773</v>
       </c>
       <c r="U13">
-        <v>0.9999365052488993</v>
+        <v>-6.349475110067893E-05</v>
       </c>
       <c r="V13">
-        <v>0.9999365052488993</v>
+        <v>-6.349475110067893E-05</v>
       </c>
       <c r="W13">
-        <v>0.99930151338766</v>
+        <v>-0.0006984866123399547</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2355,7 +2355,7 @@
         <v>0.611095728421188</v>
       </c>
       <c r="K14">
-        <v>37.93044185028275</v>
+        <v>-0.1206955814971725</v>
       </c>
       <c r="L14">
         <v>-0.01349995425300092</v>
@@ -2385,13 +2385,13 @@
         <v>-0.07346153846155801</v>
       </c>
       <c r="U14">
-        <v>0.9999820900868632</v>
+        <v>-1.790991313677104E-05</v>
       </c>
       <c r="V14">
-        <v>0.9999820900868632</v>
+        <v>-1.790991313677104E-05</v>
       </c>
       <c r="W14">
-        <v>1.000465983224604</v>
+        <v>0.0004659832246038942</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2426,7 +2426,7 @@
         <v>0.5725789770953853</v>
       </c>
       <c r="K15">
-        <v>36.41018895934632</v>
+        <v>-0.1358981104065368</v>
       </c>
       <c r="L15">
         <v>-0.01227532384737198</v>
@@ -2456,13 +2456,13 @@
         <v>-0.06821428571427646</v>
       </c>
       <c r="U15">
-        <v>0.9999680174394504</v>
+        <v>-3.19825605495927E-05</v>
       </c>
       <c r="V15">
-        <v>0.9999680174394504</v>
+        <v>-3.19825605495927E-05</v>
       </c>
       <c r="W15">
-        <v>0.9997671169073126</v>
+        <v>-0.0002328830926874303</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2497,7 +2497,7 @@
         <v>0.6389252905751917</v>
       </c>
       <c r="K16">
-        <v>38.98440607692109</v>
+        <v>-0.1101559392307891</v>
       </c>
       <c r="L16">
         <v>-0.0110107490431468</v>
@@ -2527,13 +2527,13 @@
         <v>-0.04716666666666924</v>
       </c>
       <c r="U16">
-        <v>0.9999878035935049</v>
+        <v>-1.219640649507969E-05</v>
       </c>
       <c r="V16">
-        <v>0.9999878035935049</v>
+        <v>-1.219640649507969E-05</v>
       </c>
       <c r="W16">
-        <v>1.000232937339856</v>
+        <v>0.0002329373398555212</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2568,7 +2568,7 @@
         <v>0.6389252905751917</v>
       </c>
       <c r="K17">
-        <v>38.98440607692109</v>
+        <v>-0.1101559392307891</v>
       </c>
       <c r="L17">
         <v>-0.00977846304495231</v>
@@ -2598,13 +2598,13 @@
         <v>-0.03624999999999545</v>
       </c>
       <c r="U17">
-        <v>0.9999893280141569</v>
+        <v>-1.067198584314699E-05</v>
       </c>
       <c r="V17">
-        <v>0.9998292482265101</v>
+        <v>-0.0001707517734899078</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2639,7 +2639,7 @@
         <v>0.8594670528349883</v>
       </c>
       <c r="K18">
-        <v>46.22114984638335</v>
+        <v>-0.03778850153616647</v>
       </c>
       <c r="L18">
         <v>-0.008312712242887117</v>
@@ -2669,13 +2669,13 @@
         <v>-0.008750000000006253</v>
       </c>
       <c r="U18">
-        <v>1.000031673878895</v>
+        <v>3.167387889457807E-05</v>
       </c>
       <c r="V18">
-        <v>0.9999223723024373</v>
+        <v>-7.762769756269883E-05</v>
       </c>
       <c r="W18">
-        <v>1.000698649278063</v>
+        <v>0.0006986492780625131</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2710,7 +2710,7 @@
         <v>0.6975348736101068</v>
       </c>
       <c r="K19">
-        <v>41.09104822846297</v>
+        <v>-0.08908951771537033</v>
       </c>
       <c r="L19">
         <v>-0.007092352513761092</v>
@@ -2740,13 +2740,13 @@
         <v>0.008750000000020464</v>
       </c>
       <c r="U19">
-        <v>0.9999893472610286</v>
+        <v>-1.065273897138397E-05</v>
       </c>
       <c r="V19">
-        <v>0.9999068395310924</v>
+        <v>-9.316046890761598E-05</v>
       </c>
       <c r="W19">
-        <v>0.9993018384919711</v>
+        <v>-0.0006981615080289272</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2781,7 +2781,7 @@
         <v>0.5516573272694304</v>
       </c>
       <c r="K20">
-        <v>35.55278073156937</v>
+        <v>-0.1444721926843063</v>
       </c>
       <c r="L20">
         <v>-0.006454585469439287</v>
@@ -2811,13 +2811,13 @@
         <v>0.008749999999992042</v>
       </c>
       <c r="U20">
-        <v>0.9999414493598238</v>
+        <v>-5.85506401762359E-05</v>
       </c>
       <c r="V20">
-        <v>0.9998602462771162</v>
+        <v>-0.0001397537228837731</v>
       </c>
       <c r="W20">
-        <v>0.9990684676292502</v>
+        <v>-0.0009315323707498324</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2852,7 +2852,7 @@
         <v>0.6617273164176809</v>
       </c>
       <c r="K21">
-        <v>39.82165484552662</v>
+        <v>-0.1017834515447338</v>
       </c>
       <c r="L21">
         <v>-0.005975165402350088</v>
@@ -2882,13 +2882,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U21">
-        <v>0.9999705867934704</v>
+        <v>-2.941320652960489E-05</v>
       </c>
       <c r="V21">
-        <v>0.9999068178288555</v>
+        <v>-9.318217114451244E-05</v>
       </c>
       <c r="W21">
-        <v>1.000466200466201</v>
+        <v>0.0004662004662006058</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2923,7 +2923,7 @@
         <v>0.5637504627576112</v>
       </c>
       <c r="K22">
-        <v>36.05117799699703</v>
+        <v>-0.1394882200300298</v>
       </c>
       <c r="L22">
         <v>-0.005874214055242158</v>
@@ -2953,13 +2953,13 @@
         <v>0.01624999999999943</v>
       </c>
       <c r="U22">
-        <v>0.9999401213540557</v>
+        <v>-5.987864594425574E-05</v>
       </c>
       <c r="V22">
-        <v>0.9999534045725644</v>
+        <v>-4.659542743556955E-05</v>
       </c>
       <c r="W22">
-        <v>0.999301025163094</v>
+        <v>-0.0006989748369059523</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2994,7 +2994,7 @@
         <v>0.5637504627576112</v>
       </c>
       <c r="K23">
-        <v>36.05117799699703</v>
+        <v>-0.1394882200300298</v>
       </c>
       <c r="L23">
         <v>-0.005974214267829123</v>
@@ -3024,13 +3024,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U23">
-        <v>0.9999455616076262</v>
+        <v>-5.443839237384562E-05</v>
       </c>
       <c r="V23">
-        <v>1.000046597598671</v>
+        <v>4.659759867053914E-05</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3065,7 +3065,7 @@
         <v>0.5081708282117191</v>
       </c>
       <c r="K24">
-        <v>33.69451382468866</v>
+        <v>-0.1630548617531135</v>
       </c>
       <c r="L24">
         <v>-0.006340985897350711</v>
@@ -3095,13 +3095,13 @@
         <v>-0.008749999999992042</v>
       </c>
       <c r="U24">
-        <v>0.9999300415424368</v>
+        <v>-6.995845756319063E-05</v>
       </c>
       <c r="V24">
-        <v>0.9999534045725645</v>
+        <v>-4.659542743545853E-05</v>
       </c>
       <c r="W24">
-        <v>0.9995336908370249</v>
+        <v>-0.000466309162975076</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3136,7 +3136,7 @@
         <v>0.5600598130856309</v>
       </c>
       <c r="K25">
-        <v>35.89989360586712</v>
+        <v>-0.1410010639413288</v>
       </c>
       <c r="L25">
         <v>-0.006723989161675351</v>
@@ -3166,13 +3166,13 @@
         <v>-0.02124999999999488</v>
       </c>
       <c r="U25">
-        <v>0.9999455712737841</v>
+        <v>-5.442872621586048E-05</v>
       </c>
       <c r="V25">
-        <v>0.9999689349342199</v>
+        <v>-3.106506578010038E-05</v>
       </c>
       <c r="W25">
-        <v>1.000233263354327</v>
+        <v>0.0002332633543271623</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3207,7 +3207,7 @@
         <v>0.6692997812411571</v>
       </c>
       <c r="K26">
-        <v>40.09464260179317</v>
+        <v>-0.09905357398206832</v>
       </c>
       <c r="L26">
         <v>-0.006886918867759152</v>
@@ -3237,13 +3237,13 @@
         <v>-0.03874999999999318</v>
       </c>
       <c r="U26">
-        <v>0.9999685562057821</v>
+        <v>-3.144379421793353E-05</v>
       </c>
       <c r="V26">
-        <v>0.9999844669845757</v>
+        <v>-1.553301542434049E-05</v>
       </c>
       <c r="W26">
-        <v>1.000466417910448</v>
+        <v>0.0004664179104476585</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3278,7 +3278,7 @@
         <v>0.4584377707892816</v>
       </c>
       <c r="K27">
-        <v>31.43348176872729</v>
+        <v>-0.1856651823127271</v>
       </c>
       <c r="L27">
         <v>-0.007588157269378873</v>
@@ -3308,13 +3308,13 @@
         <v>-0.05750000000000455</v>
       </c>
       <c r="U27">
-        <v>0.9998993050255032</v>
+        <v>-0.0001006949744968288</v>
       </c>
       <c r="V27">
-        <v>0.9997980676628662</v>
+        <v>-0.0002019323371338366</v>
       </c>
       <c r="W27">
-        <v>0.9981351981351981</v>
+        <v>-0.001864801864801868</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3349,7 +3349,7 @@
         <v>0.4077317164180685</v>
       </c>
       <c r="K28">
-        <v>28.96373731320978</v>
+        <v>-0.2103626268679022</v>
       </c>
       <c r="L28">
         <v>-0.008795952740840845</v>
@@ -3379,13 +3379,13 @@
         <v>-0.06499999999998352</v>
       </c>
       <c r="U28">
-        <v>0.9998808714370524</v>
+        <v>-0.0001191285629476013</v>
       </c>
       <c r="V28">
-        <v>0.9997980268779617</v>
+        <v>-0.0002019731220382903</v>
       </c>
       <c r="W28">
-        <v>0.9992993928070995</v>
+        <v>-0.0007006071929005486</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3420,7 +3420,7 @@
         <v>0.5629684718394609</v>
       </c>
       <c r="K29">
-        <v>36.01918285510278</v>
+        <v>-0.1398081714489722</v>
       </c>
       <c r="L29">
         <v>-0.009843198026863514</v>
@@ -3450,13 +3450,13 @@
         <v>-0.07625000000000171</v>
       </c>
       <c r="U29">
-        <v>0.9999226496590421</v>
+        <v>-7.735034095790461E-05</v>
       </c>
       <c r="V29">
-        <v>0.9998290651417205</v>
+        <v>-0.000170934858279459</v>
       </c>
       <c r="W29">
-        <v>1.000934797849965</v>
+        <v>0.0009347978499649745</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3491,7 +3491,7 @@
         <v>0.501506211030942</v>
       </c>
       <c r="K30">
-        <v>33.40020889334885</v>
+        <v>-0.1659979110665115</v>
       </c>
       <c r="L30">
         <v>-0.010949603835238</v>
@@ -3521,13 +3521,13 @@
         <v>-0.08124999999999716</v>
       </c>
       <c r="U30">
-        <v>0.9999038758132894</v>
+        <v>-9.612418671056666E-05</v>
       </c>
       <c r="V30">
-        <v>0.9997979515394537</v>
+        <v>-0.000202048460546278</v>
       </c>
       <c r="W30">
-        <v>0.9992995563857109</v>
+        <v>-0.0007004436142891146</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3562,7 +3562,7 @@
         <v>0.501506211030942</v>
       </c>
       <c r="K31">
-        <v>33.40020889334885</v>
+        <v>-0.1659979110665115</v>
       </c>
       <c r="L31">
         <v>-0.01197827101539708</v>
@@ -3592,13 +3592,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U31">
-        <v>0.9999102754677058</v>
+        <v>-8.972453229416644E-05</v>
       </c>
       <c r="V31">
-        <v>0.9997823653774407</v>
+        <v>-0.000217634622559304</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3633,7 +3633,7 @@
         <v>0.6224760902502184</v>
       </c>
       <c r="K32">
-        <v>38.36580976390352</v>
+        <v>-0.1163419023609648</v>
       </c>
       <c r="L32">
         <v>-0.01259006232504767</v>
@@ -3663,13 +3663,13 @@
         <v>-0.08374999999999488</v>
       </c>
       <c r="U32">
-        <v>0.9998291063036472</v>
+        <v>-0.000170893696352814</v>
       </c>
       <c r="V32">
-        <v>0.9998289641446652</v>
+        <v>-0.0001710358553348446</v>
       </c>
       <c r="W32">
-        <v>1.000700934579439</v>
+        <v>0.0007009345794393163</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3704,7 +3704,7 @@
         <v>0.6224760902502186</v>
       </c>
       <c r="K33">
-        <v>38.36580976390353</v>
+        <v>-0.1163419023609646</v>
       </c>
       <c r="L33">
         <v>-0.01286529962552484</v>
@@ -3734,13 +3734,13 @@
         <v>-0.08249999999999602</v>
       </c>
       <c r="U33">
-        <v>0.9998523847629999</v>
+        <v>-0.0001476152370001316</v>
       </c>
       <c r="V33">
-        <v>0.9997822807645056</v>
+        <v>-0.0002177192354944069</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3775,7 +3775,7 @@
         <v>0.5958536192075982</v>
       </c>
       <c r="K34">
-        <v>37.33761117159743</v>
+        <v>-0.1266238882840257</v>
       </c>
       <c r="L34">
         <v>-0.01295876984816931</v>
@@ -3805,13 +3805,13 @@
         <v>-0.08374999999999488</v>
       </c>
       <c r="U34">
-        <v>0.9998601333395496</v>
+        <v>-0.0001398666604504051</v>
       </c>
       <c r="V34">
-        <v>0.9998133428735864</v>
+        <v>-0.0001866571264136363</v>
       </c>
       <c r="W34">
-        <v>0.999766518795237</v>
+        <v>-0.0002334812047629642</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3846,7 +3846,7 @@
         <v>0.5466349907732941</v>
       </c>
       <c r="K35">
-        <v>35.34350341446658</v>
+        <v>-0.1465649658553342</v>
       </c>
       <c r="L35">
         <v>-0.01306053101554572</v>
@@ -3876,13 +3876,13 @@
         <v>-0.07125000000000625</v>
       </c>
       <c r="U35">
-        <v>0.9998523423171375</v>
+        <v>-0.000147657682862512</v>
       </c>
       <c r="V35">
-        <v>0.9998444233551659</v>
+        <v>-0.0001555766448341211</v>
       </c>
       <c r="W35">
-        <v>0.9995329285380663</v>
+        <v>-0.0004670714619336991</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3917,7 +3917,7 @@
         <v>0.523860334027165</v>
       </c>
       <c r="K36">
-        <v>34.37718814051279</v>
+        <v>-0.1562281185948721</v>
       </c>
       <c r="L36">
         <v>-0.01319833895081475</v>
@@ -3947,13 +3947,13 @@
         <v>-0.05749999999999034</v>
       </c>
       <c r="U36">
-        <v>0.9998523205111266</v>
+        <v>-0.0001476794888733979</v>
       </c>
       <c r="V36">
-        <v>0.9997977188914996</v>
+        <v>-0.0002022811085004017</v>
       </c>
       <c r="W36">
-        <v>0.999766355140187</v>
+        <v>-0.0002336448598130314</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3988,7 +3988,7 @@
         <v>0.5677165146510004</v>
       </c>
       <c r="K37">
-        <v>36.2129574668277</v>
+        <v>-0.1378704253317231</v>
       </c>
       <c r="L37">
         <v>-0.01321507352692647</v>
@@ -4018,13 +4018,13 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="U37">
-        <v>0.9999067149675833</v>
+        <v>-9.328503241667896E-05</v>
       </c>
       <c r="V37">
-        <v>0.9998599308992437</v>
+        <v>-0.0001400691007562571</v>
       </c>
       <c r="W37">
-        <v>1.000233699462491</v>
+        <v>0.0002336994624911881</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4059,7 +4059,7 @@
         <v>0.5426647229581215</v>
       </c>
       <c r="K38">
-        <v>35.17710069350262</v>
+        <v>-0.1482289930649738</v>
       </c>
       <c r="L38">
         <v>-0.01319465542927396</v>
@@ -4089,13 +4089,13 @@
         <v>-0.04000000000000625</v>
       </c>
       <c r="U38">
-        <v>0.9999455786543935</v>
+        <v>-5.442134560651457E-05</v>
       </c>
       <c r="V38">
-        <v>0.9998443458634912</v>
+        <v>-0.0001556541365087538</v>
       </c>
       <c r="W38">
-        <v>0.999766355140187</v>
+        <v>-0.0002336448598130314</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4130,7 +4130,7 @@
         <v>0.5891145026714114</v>
       </c>
       <c r="K39">
-        <v>37.07187252278355</v>
+        <v>-0.1292812747721645</v>
       </c>
       <c r="L39">
         <v>-0.01301944263816941</v>
@@ -4160,13 +4160,13 @@
         <v>-0.02875000000000227</v>
       </c>
       <c r="U39">
-        <v>0.9999222509893561</v>
+        <v>-7.774901064394601E-05</v>
       </c>
       <c r="V39">
-        <v>0.9998910251420564</v>
+        <v>-0.000108974857943589</v>
       </c>
       <c r="W39">
-        <v>1.000233699462491</v>
+        <v>0.0002336994624911881</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4201,7 +4201,7 @@
         <v>0.7846925225169119</v>
       </c>
       <c r="K40">
-        <v>43.96793916132274</v>
+        <v>-0.06032060838677261</v>
       </c>
       <c r="L40">
         <v>-0.01237304958685372</v>
@@ -4231,13 +4231,13 @@
         <v>-0.02249999999999375</v>
       </c>
       <c r="U40">
-        <v>0.9999533469663864</v>
+        <v>-4.66530336136195E-05</v>
       </c>
       <c r="V40">
-        <v>0.9999377218658529</v>
+        <v>-6.227813414705352E-05</v>
       </c>
       <c r="W40">
-        <v>1.000934579439253</v>
+        <v>0.0009345794392525697</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4272,7 +4272,7 @@
         <v>0.8876283224355597</v>
       </c>
       <c r="K41">
-        <v>47.02346918011249</v>
+        <v>-0.02976530819887513</v>
       </c>
       <c r="L41">
         <v>-0.01126736282750023</v>
@@ -4302,13 +4302,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U41">
-        <v>0.9999611206581496</v>
+        <v>-3.887934185042852E-05</v>
       </c>
       <c r="V41">
-        <v>0.9999377179870454</v>
+        <v>-6.228201295455094E-05</v>
       </c>
       <c r="W41">
-        <v>1.00046685340803</v>
+        <v>0.000466853408029877</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4343,7 +4343,7 @@
         <v>0.6984339586800596</v>
       </c>
       <c r="K42">
-        <v>41.12223234295484</v>
+        <v>-0.0887776765704516</v>
       </c>
       <c r="L42">
         <v>-0.010339485171376</v>
@@ -4373,13 +4373,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U42">
-        <v>0.9998911336101649</v>
+        <v>-0.0001088663898350939</v>
       </c>
       <c r="V42">
-        <v>0.9999844285269385</v>
+        <v>-1.55714730615264E-05</v>
       </c>
       <c r="W42">
-        <v>0.9988334111059264</v>
+        <v>-0.001166588894073617</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4414,7 +4414,7 @@
         <v>0.6984339586800596</v>
       </c>
       <c r="K43">
-        <v>41.12223234295484</v>
+        <v>-0.0887776765704516</v>
       </c>
       <c r="L43">
         <v>-0.009540706371288369</v>
@@ -4444,13 +4444,13 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>0.9999144528090587</v>
+        <v>-8.554719094133745E-05</v>
       </c>
       <c r="V43">
-        <v>1.000031143431072</v>
+        <v>3.114343107180062E-05</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4485,7 +4485,7 @@
         <v>0.6669317349676427</v>
       </c>
       <c r="K44">
-        <v>40.00954094143446</v>
+        <v>-0.09990459058565543</v>
       </c>
       <c r="L44">
         <v>-0.008921400324338332</v>
@@ -4515,13 +4515,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U44">
-        <v>0.9998911124419593</v>
+        <v>-0.0001088875580407267</v>
       </c>
       <c r="V44">
-        <v>0.9999532863082169</v>
+        <v>-4.67136917831068E-05</v>
       </c>
       <c r="W44">
-        <v>0.9997664097173556</v>
+        <v>-0.0002335902826443581</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4556,7 +4556,7 @@
         <v>0.6367023898451207</v>
       </c>
       <c r="K45">
-        <v>38.90153724925954</v>
+        <v>-0.1109846275074046</v>
       </c>
       <c r="L45">
         <v>-0.008502851911336616</v>
@@ -4586,13 +4586,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U45">
-        <v>0.9998911005841676</v>
+        <v>-0.0001088994158323642</v>
       </c>
       <c r="V45">
-        <v>0.9999844280419822</v>
+        <v>-1.557195801782374E-05</v>
       </c>
       <c r="W45">
-        <v>0.999766355140187</v>
+        <v>-0.0002336448598130314</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4627,7 +4627,7 @@
         <v>0.6077076985932489</v>
       </c>
       <c r="K46">
-        <v>37.79963852415435</v>
+        <v>-0.1220036147584566</v>
       </c>
       <c r="L46">
         <v>-0.008286665973998792</v>
@@ -4657,13 +4657,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U46">
-        <v>0.9998755299700492</v>
+        <v>-0.0001244700299507517</v>
       </c>
       <c r="V46">
-        <v>0.9999688555989845</v>
+        <v>-3.114440101548155E-05</v>
       </c>
       <c r="W46">
-        <v>0.9997663005375088</v>
+        <v>-0.0002336994624911881</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4698,7 +4698,7 @@
         <v>0.655643324594234</v>
       </c>
       <c r="K47">
-        <v>39.60051750608299</v>
+        <v>-0.1039948249391701</v>
       </c>
       <c r="L47">
         <v>-0.008091491227086568</v>
@@ -4728,13 +4728,13 @@
         <v>0.002500000000011937</v>
       </c>
       <c r="U47">
-        <v>0.9998832948206241</v>
+        <v>-0.0001167051793758977</v>
       </c>
       <c r="V47">
-        <v>0.9999377092579617</v>
+        <v>-6.229074203834006E-05</v>
       </c>
       <c r="W47">
-        <v>1.000233754090696</v>
+        <v>0.0002337540906964808</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4769,7 +4769,7 @@
         <v>0.6241496366459086</v>
       </c>
       <c r="K48">
-        <v>38.42931849154386</v>
+        <v>-0.1157068150845614</v>
       </c>
       <c r="L48">
         <v>-0.00797710360437077</v>
@@ -4799,13 +4799,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U48">
-        <v>0.9998521561853185</v>
+        <v>-0.0001478438146814698</v>
       </c>
       <c r="V48">
-        <v>0.999922131721979</v>
+        <v>-7.786827802103158E-05</v>
       </c>
       <c r="W48">
-        <v>0.9997663005375088</v>
+        <v>-0.0002336994624911881</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4840,7 +4840,7 @@
         <v>0.5668286017303249</v>
       </c>
       <c r="K49">
-        <v>36.17680971003136</v>
+        <v>-0.1382319028996863</v>
       </c>
       <c r="L49">
         <v>-0.008060057105444366</v>
@@ -4870,13 +4870,13 @@
         <v>-0.02249999999999375</v>
       </c>
       <c r="U49">
-        <v>0.9998599167282772</v>
+        <v>-0.0001400832717227685</v>
       </c>
       <c r="V49">
-        <v>0.9999065507896459</v>
+        <v>-9.344921035414622E-05</v>
       </c>
       <c r="W49">
-        <v>0.9995324918186067</v>
+        <v>-0.0004675081813932946</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4911,7 +4911,7 @@
         <v>0.711836932939957</v>
       </c>
       <c r="K50">
-        <v>41.58322088059101</v>
+        <v>-0.08416779119408985</v>
       </c>
       <c r="L50">
         <v>-0.00797266449383198</v>
@@ -4941,13 +4941,13 @@
         <v>-0.02375000000002103</v>
       </c>
       <c r="U50">
-        <v>0.9999143815624586</v>
+        <v>-8.561843754140153E-05</v>
       </c>
       <c r="V50">
-        <v>0.9999844236760126</v>
+        <v>-1.55763239874096E-05</v>
       </c>
       <c r="W50">
-        <v>1.000701590271282</v>
+        <v>0.0007015902712816935</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4982,7 +4982,7 @@
         <v>0.7627170491538509</v>
       </c>
       <c r="K51">
-        <v>43.26939763361196</v>
+        <v>-0.06730602366388039</v>
       </c>
       <c r="L51">
         <v>-0.00767355605452695</v>
@@ -5012,13 +5012,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U51">
-        <v>0.9999065900705247</v>
+        <v>-9.340992947526328E-05</v>
       </c>
       <c r="V51">
-        <v>1.000015576566613</v>
+        <v>1.557656661299589E-05</v>
       </c>
       <c r="W51">
-        <v>1.000233699462491</v>
+        <v>0.0002336994624911881</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5053,7 +5053,7 @@
         <v>0.8162750662211455</v>
       </c>
       <c r="K52">
-        <v>44.94226020067809</v>
+        <v>-0.05057739799321909</v>
       </c>
       <c r="L52">
         <v>-0.007152244071849626</v>
@@ -5083,13 +5083,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U52">
-        <v>0.9999377208961963</v>
+        <v>-6.22791038037418E-05</v>
       </c>
       <c r="V52">
-        <v>1.000015576323988</v>
+        <v>1.557632398774267E-05</v>
       </c>
       <c r="W52">
-        <v>1.000233644859813</v>
+        <v>0.0002336448598132534</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5124,7 +5124,7 @@
         <v>0.7727119904599287</v>
       </c>
       <c r="K53">
-        <v>43.58925728591981</v>
+        <v>-0.06410742714080186</v>
       </c>
       <c r="L53">
         <v>-0.006588568179731977</v>
@@ -5154,13 +5154,13 @@
         <v>-0.02374999999999261</v>
       </c>
       <c r="U53">
-        <v>0.9999299316444262</v>
+        <v>-7.006835557377133E-05</v>
       </c>
       <c r="V53">
-        <v>1.000015576081369</v>
+        <v>1.557608136937283E-05</v>
       </c>
       <c r="W53">
-        <v>0.9997664097173556</v>
+        <v>-0.0002335902826443581</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5195,7 +5195,7 @@
         <v>0.7727119904599287</v>
       </c>
       <c r="K54">
-        <v>43.58925728591981</v>
+        <v>-0.06410742714080186</v>
       </c>
       <c r="L54">
         <v>-0.00601115430105863</v>
@@ -5225,13 +5225,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U54">
-        <v>0.999945498571284</v>
+        <v>-5.450142871599173E-05</v>
       </c>
       <c r="V54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5266,7 +5266,7 @@
         <v>0.7295698515252012</v>
       </c>
       <c r="K55">
-        <v>42.1821559205509</v>
+        <v>-0.07817844079449093</v>
       </c>
       <c r="L55">
         <v>-0.005525392378800206</v>
@@ -5296,13 +5296,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U55">
-        <v>0.9999299229152068</v>
+        <v>-7.007708479322972E-05</v>
       </c>
       <c r="V55">
-        <v>0.9999221208062055</v>
+        <v>-7.787919379453889E-05</v>
       </c>
       <c r="W55">
-        <v>0.999766355140187</v>
+        <v>-0.0002336448598130314</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5337,7 +5337,7 @@
         <v>0.7883404910218121</v>
       </c>
       <c r="K56">
-        <v>44.08223685475994</v>
+        <v>-0.05917763145240057</v>
       </c>
       <c r="L56">
         <v>-0.005020920462853453</v>
@@ -5367,13 +5367,13 @@
         <v>-0.008750000000006253</v>
       </c>
       <c r="U56">
-        <v>0.9999221311156278</v>
+        <v>-7.786888437222306E-05</v>
       </c>
       <c r="V56">
-        <v>0.9999065376886769</v>
+        <v>-9.346231132312255E-05</v>
       </c>
       <c r="W56">
-        <v>1.000233699462491</v>
+        <v>0.0002336994624911881</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5408,7 +5408,7 @@
         <v>0.7424120381263711</v>
       </c>
       <c r="K57">
-        <v>42.6082936688553</v>
+        <v>-0.07391706331144698</v>
       </c>
       <c r="L57">
         <v>-0.004604045503585402</v>
@@ -5438,13 +5438,13 @@
         <v>0.00750000000000739</v>
       </c>
       <c r="U57">
-        <v>0.9999766375154777</v>
+        <v>-2.33624845222824E-05</v>
       </c>
       <c r="V57">
-        <v>0.9999688429842191</v>
+        <v>-3.115701578093599E-05</v>
       </c>
       <c r="W57">
-        <v>0.999766355140187</v>
+        <v>-0.0002336448598130314</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5479,7 +5479,7 @@
         <v>0.6995136875137362</v>
       </c>
       <c r="K58">
-        <v>41.15963835143178</v>
+        <v>-0.08840361648568218</v>
       </c>
       <c r="L58">
         <v>-0.004335112092435592</v>
@@ -5509,13 +5509,13 @@
         <v>0.008749999999992042</v>
       </c>
       <c r="U58">
-        <v>0.9999922123232194</v>
+        <v>-7.787676780557362E-06</v>
       </c>
       <c r="V58">
-        <v>0.9999532630201435</v>
+        <v>-4.673697985646541E-05</v>
       </c>
       <c r="W58">
-        <v>0.9997663005375088</v>
+        <v>-0.0002336994624911881</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5550,7 +5550,7 @@
         <v>0.8211608489837376</v>
       </c>
       <c r="K59">
-        <v>45.08996827171911</v>
+        <v>-0.04910031728280889</v>
       </c>
       <c r="L59">
         <v>-0.003987019193221078</v>
@@ -5580,13 +5580,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U59">
-        <v>0.9999766367877141</v>
+        <v>-2.336321228590954E-05</v>
       </c>
       <c r="V59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>1.000467508181393</v>
+        <v>0.0004675081813931836</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5621,7 +5621,7 @@
         <v>0.8211608489837376</v>
       </c>
       <c r="K60">
-        <v>45.08996827171911</v>
+        <v>-0.04910031728280889</v>
       </c>
       <c r="L60">
         <v>-0.003598628393091025</v>
@@ -5651,13 +5651,13 @@
         <v>0.00750000000000739</v>
       </c>
       <c r="U60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>1.000015579721435</v>
+        <v>1.557972143451103E-05</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5692,7 +5692,7 @@
         <v>0.8885553982746449</v>
       </c>
       <c r="K61">
-        <v>47.04947491010407</v>
+        <v>-0.02950525089895933</v>
       </c>
       <c r="L61">
         <v>-0.003112391634132916</v>
@@ -5722,13 +5722,13 @@
         <v>0.00750000000000739</v>
       </c>
       <c r="U61">
-        <v>1.000007787919379</v>
+        <v>7.787919379387276E-06</v>
       </c>
       <c r="V61">
-        <v>1.000046738436132</v>
+        <v>4.673843613201001E-05</v>
       </c>
       <c r="W61">
-        <v>1.000233644859813</v>
+        <v>0.0002336448598132534</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5763,7 +5763,7 @@
         <v>0.8885553982746448</v>
       </c>
       <c r="K62">
-        <v>47.04947491010406</v>
+        <v>-0.02950525089895939</v>
       </c>
       <c r="L62">
         <v>-0.002586521253594543</v>
@@ -5793,13 +5793,13 @@
         <v>0.006250000000008527</v>
       </c>
       <c r="U62">
-        <v>0.9999844242825436</v>
+        <v>-1.557571745636199E-05</v>
       </c>
       <c r="V62">
-        <v>1.000031157501168</v>
+        <v>3.115750116844396E-05</v>
       </c>
       <c r="W62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5834,7 +5834,7 @@
         <v>0.8268128195267764</v>
       </c>
       <c r="K63">
-        <v>45.25985424937826</v>
+        <v>-0.04740145750621744</v>
       </c>
       <c r="L63">
         <v>-0.002145803371722624</v>
@@ -5864,13 +5864,13 @@
         <v>0.007499999999993179</v>
       </c>
       <c r="U63">
-        <v>0.9999766360599051</v>
+        <v>-2.33639400949448E-05</v>
       </c>
       <c r="V63">
-        <v>1.000031156530409</v>
+        <v>3.115653040897115E-05</v>
       </c>
       <c r="W63">
-        <v>0.9997664097173556</v>
+        <v>-0.0002335902826443581</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5905,7 +5905,7 @@
         <v>0.8268128195267764</v>
       </c>
       <c r="K64">
-        <v>45.25985424937826</v>
+        <v>-0.04740145750621744</v>
       </c>
       <c r="L64">
         <v>-0.001776944617753604</v>
@@ -5935,13 +5935,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U64">
-        <v>0.9999844236760126</v>
+        <v>-1.55763239874096E-05</v>
       </c>
       <c r="V64">
-        <v>1.000062311119419</v>
+        <v>6.231111941912282E-05</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5976,7 +5976,7 @@
         <v>0.8268128195267764</v>
       </c>
       <c r="K65">
-        <v>45.25985424937826</v>
+        <v>-0.04740145750621744</v>
       </c>
       <c r="L65">
         <v>-0.001468655237130388</v>
@@ -6006,13 +6006,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65">
-        <v>1.000015576809246</v>
+        <v>1.557680924624272E-05</v>
       </c>
       <c r="W65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6047,7 +6047,7 @@
         <v>0.8268128195267765</v>
       </c>
       <c r="K66">
-        <v>45.25985424937826</v>
+        <v>-0.04740145750621744</v>
       </c>
       <c r="L66">
         <v>-0.001211358275905721</v>
@@ -6077,13 +6077,13 @@
         <v>0.006250000000008527</v>
       </c>
       <c r="U66">
-        <v>1.000007788283306</v>
+        <v>7.7882833062759E-06</v>
       </c>
       <c r="V66">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6118,7 +6118,7 @@
         <v>0.8268128195267765</v>
       </c>
       <c r="K67">
-        <v>45.25985424937826</v>
+        <v>-0.04740145750621744</v>
       </c>
       <c r="L67">
         <v>-0.0009969390995561301</v>
@@ -6148,13 +6148,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U67">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V67">
-        <v>0.9999844234333867</v>
+        <v>-1.557656661332896E-05</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6189,7 +6189,7 @@
         <v>0.8268128195267764</v>
       </c>
       <c r="K68">
-        <v>45.25985424937826</v>
+        <v>-0.04740145750621744</v>
       </c>
       <c r="L68">
         <v>-0.0008185299911913272</v>
@@ -6219,13 +6219,13 @@
         <v>0.007499999999993179</v>
       </c>
       <c r="U68">
-        <v>1.00000778822265</v>
+        <v>7.788222649685039E-06</v>
       </c>
       <c r="V68">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6260,7 +6260,7 @@
         <v>0.8268128195267763</v>
       </c>
       <c r="K69">
-        <v>45.25985424937825</v>
+        <v>-0.04740145750621749</v>
       </c>
       <c r="L69">
         <v>-0.0006703251920633675</v>
@@ -6290,13 +6290,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6331,7 +6331,7 @@
         <v>0.8268128195267764</v>
       </c>
       <c r="K70">
-        <v>45.25985424937826</v>
+        <v>-0.04740145750621744</v>
       </c>
       <c r="L70">
         <v>-0.0005474223078875907</v>
@@ -6361,13 +6361,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U70">
-        <v>0.9999688473520251</v>
+        <v>-3.115264797493023E-05</v>
       </c>
       <c r="V70">
-        <v>1.000015576809246</v>
+        <v>1.557680924624272E-05</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6402,7 +6402,7 @@
         <v>0.8268128195267765</v>
       </c>
       <c r="K71">
-        <v>45.25985424937826</v>
+        <v>-0.04740145750621744</v>
       </c>
       <c r="L71">
         <v>-0.000445686507682516</v>
@@ -6432,13 +6432,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U71">
-        <v>0.9999532695722606</v>
+        <v>-4.673042773939429E-05</v>
       </c>
       <c r="V71">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6473,7 +6473,7 @@
         <v>0.9370651573167903</v>
       </c>
       <c r="K72">
-        <v>48.37551043532303</v>
+        <v>-0.01624489564676973</v>
       </c>
       <c r="L72">
         <v>-0.0002765562044971222</v>
@@ -6503,13 +6503,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U72">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V72">
-        <v>1.000031153133226</v>
+        <v>3.115313322621382E-05</v>
       </c>
       <c r="W72">
-        <v>1.000233644859813</v>
+        <v>0.0002336448598132534</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6544,7 +6544,7 @@
         <v>0.9370651573167903</v>
       </c>
       <c r="K73">
-        <v>48.37551043532303</v>
+        <v>-0.01624489564676973</v>
       </c>
       <c r="L73">
         <v>-7.636699847945573E-05</v>
@@ -6574,13 +6574,13 @@
         <v>0.002499999999983515</v>
       </c>
       <c r="U73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V73">
-        <v>1.000046728244108</v>
+        <v>4.672824410834053E-05</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6615,7 +6615,7 @@
         <v>0.8350524337705877</v>
       </c>
       <c r="K74">
-        <v>45.50564432945153</v>
+        <v>-0.04494355670548472</v>
       </c>
       <c r="L74">
         <v>4.508125801742893E-05</v>
@@ -6645,13 +6645,13 @@
         <v>0</v>
       </c>
       <c r="U74">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W74">
-        <v>0.9997664097173556</v>
+        <v>-0.0002335902826443581</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6686,7 +6686,7 @@
         <v>0.8350524337705879</v>
       </c>
       <c r="K75">
-        <v>45.50564432945153</v>
+        <v>-0.04494355670548467</v>
       </c>
       <c r="L75">
         <v>0.0001109227182958506</v>
@@ -6716,13 +6716,13 @@
         <v>1.4210854715202E-14</v>
       </c>
       <c r="U75">
-        <v>1.000007788768596</v>
+        <v>7.788768595862194E-06</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6757,7 +6757,7 @@
         <v>0.8350524337705878</v>
       </c>
       <c r="K76">
-        <v>45.50564432945153</v>
+        <v>-0.04494355670548472</v>
       </c>
       <c r="L76">
         <v>0.000138476645333445</v>
@@ -6787,13 +6787,13 @@
         <v>0</v>
       </c>
       <c r="U76">
-        <v>1.000015577415863</v>
+        <v>1.557741586255545E-05</v>
       </c>
       <c r="V76">
-        <v>0.9999844246464394</v>
+        <v>-1.557535356055961E-05</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6828,7 +6828,7 @@
         <v>1.088999811386025</v>
       </c>
       <c r="K77">
-        <v>52.13020151799284</v>
+        <v>0.02130201517992836</v>
       </c>
       <c r="L77">
         <v>0.0003107294933544853</v>
@@ -6858,13 +6858,13 @@
         <v>0.0037500000000108</v>
       </c>
       <c r="U77">
-        <v>1.000023365759816</v>
+        <v>2.336575981565225E-05</v>
       </c>
       <c r="V77">
-        <v>1.000015575596156</v>
+        <v>1.557559615594784E-05</v>
       </c>
       <c r="W77">
-        <v>1.000467289719626</v>
+        <v>0.0004672897196262848</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6899,7 +6899,7 @@
         <v>1.088999811386025</v>
       </c>
       <c r="K78">
-        <v>52.13020151799284</v>
+        <v>0.02130201517992836</v>
       </c>
       <c r="L78">
         <v>0.0005585346811670949</v>
@@ -6929,13 +6929,13 @@
         <v>0.007499999999993179</v>
       </c>
       <c r="U78">
-        <v>1.000031153618493</v>
+        <v>3.115361849270748E-05</v>
       </c>
       <c r="V78">
-        <v>1.000031150707121</v>
+        <v>3.115070712089718E-05</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6970,7 +6970,7 @@
         <v>0.9546842629015443</v>
       </c>
       <c r="K79">
-        <v>48.84084253507038</v>
+        <v>-0.01159157464929622</v>
       </c>
       <c r="L79">
         <v>0.0007492071192104611</v>
@@ -7000,13 +7000,13 @@
         <v>0.008750000000020464</v>
       </c>
       <c r="U79">
-        <v>1.000038940809969</v>
+        <v>3.894080996880156E-05</v>
       </c>
       <c r="V79">
-        <v>1.000015574868392</v>
+        <v>1.55748683923207E-05</v>
       </c>
       <c r="W79">
-        <v>0.9997664642690333</v>
+        <v>-0.0002335357309667385</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7041,7 +7041,7 @@
         <v>0.844980490534788</v>
       </c>
       <c r="K80">
-        <v>45.79888485920309</v>
+        <v>-0.04201115140796907</v>
       </c>
       <c r="L80">
         <v>0.0008053115497458335</v>
@@ -7071,13 +7071,13 @@
         <v>0.006250000000008527</v>
       </c>
       <c r="U80">
-        <v>1.000007787858728</v>
+        <v>7.78785872834753E-06</v>
       </c>
       <c r="V80">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W80">
-        <v>0.9997664097173556</v>
+        <v>-0.0002335902826443581</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7112,7 +7112,7 @@
         <v>0.844980490534788</v>
       </c>
       <c r="K81">
-        <v>45.79888485920309</v>
+        <v>-0.04201115140796907</v>
       </c>
       <c r="L81">
         <v>0.0007733852224246061</v>
@@ -7142,13 +7142,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V81">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7183,7 +7183,7 @@
         <v>1.226956284528695</v>
       </c>
       <c r="K82">
-        <v>55.09566097245433</v>
+        <v>0.0509566097245433</v>
       </c>
       <c r="L82">
         <v>0.0009425697160395979</v>
@@ -7213,13 +7213,13 @@
         <v>0.00750000000000739</v>
       </c>
       <c r="U82">
-        <v>1.000015575596156</v>
+        <v>1.557559615594784E-05</v>
       </c>
       <c r="V82">
-        <v>1.000046723877459</v>
+        <v>4.672387745885409E-05</v>
       </c>
       <c r="W82">
-        <v>1.000700934579439</v>
+        <v>0.0007009345794393163</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7254,7 +7254,7 @@
         <v>1.081946658574966</v>
       </c>
       <c r="K83">
-        <v>51.968029734034</v>
+        <v>0.01968029734034005</v>
       </c>
       <c r="L83">
         <v>0.001134299321901669</v>
@@ -7284,13 +7284,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U83">
-        <v>1.00001557535356</v>
+        <v>1.557535356044859E-05</v>
       </c>
       <c r="V83">
-        <v>1.000031147796293</v>
+        <v>3.114779629331821E-05</v>
       </c>
       <c r="W83">
-        <v>0.999766518795237</v>
+        <v>-0.0002334812047629642</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7325,7 +7325,7 @@
         <v>1.081946658574965</v>
       </c>
       <c r="K84">
-        <v>51.968029734034</v>
+        <v>0.01968029734034005</v>
       </c>
       <c r="L84">
         <v>0.00132333529913194</v>
@@ -7355,13 +7355,13 @@
         <v>0.01250000000000284</v>
       </c>
       <c r="U84">
-        <v>1.000015575110973</v>
+        <v>1.557511097272091E-05</v>
       </c>
       <c r="V84">
-        <v>1.000031146826139</v>
+        <v>3.114682613869491E-05</v>
       </c>
       <c r="W84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7396,7 +7396,7 @@
         <v>0.9566668050044291</v>
       </c>
       <c r="K85">
-        <v>48.89267823002004</v>
+        <v>-0.01107321769979963</v>
       </c>
       <c r="L85">
         <v>0.00140879964765263</v>
@@ -7426,13 +7426,13 @@
         <v>0.008750000000006253</v>
       </c>
       <c r="U85">
-        <v>1.000015574868393</v>
+        <v>1.557486839254274E-05</v>
       </c>
       <c r="V85">
-        <v>1.000015572928022</v>
+        <v>1.557292802178978E-05</v>
       </c>
       <c r="W85">
-        <v>0.9997664642690333</v>
+        <v>-0.0002335357309667385</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7467,7 +7467,7 @@
         <v>0.9566668050044292</v>
       </c>
       <c r="K86">
-        <v>48.89267823002004</v>
+        <v>-0.01107321769979963</v>
       </c>
       <c r="L86">
         <v>0.00142094239211597</v>
@@ -7497,13 +7497,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U86">
-        <v>1.00000778731291</v>
+        <v>7.787312909623978E-06</v>
       </c>
       <c r="V86">
-        <v>1.00001557268551</v>
+        <v>1.557268550955726E-05</v>
       </c>
       <c r="W86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7538,7 +7538,7 @@
         <v>0.8478830313135232</v>
       </c>
       <c r="K87">
-        <v>45.88402063039813</v>
+        <v>-0.04115979369601874</v>
       </c>
       <c r="L87">
         <v>0.001297649653268304</v>
@@ -7568,13 +7568,13 @@
         <v>0.002500000000011937</v>
       </c>
       <c r="U87">
-        <v>1.000007787252268</v>
+        <v>7.787252267910105E-06</v>
       </c>
       <c r="V87">
-        <v>0.9999844275569951</v>
+        <v>-1.557244300487426E-05</v>
       </c>
       <c r="W87">
-        <v>0.9997664097173556</v>
+        <v>-0.0002335902826443581</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7609,7 +7609,7 @@
         <v>0.7572439262452514</v>
       </c>
       <c r="K88">
-        <v>43.09270414513676</v>
+        <v>-0.06907295854863238</v>
       </c>
       <c r="L88">
         <v>0.001010375657555311</v>
@@ -7639,13 +7639,13 @@
         <v>0.002499999999983515</v>
       </c>
       <c r="U88">
-        <v>1.000007787191627</v>
+        <v>7.787191627084411E-06</v>
       </c>
       <c r="V88">
-        <v>0.9999688546289809</v>
+        <v>-3.114537101911452E-05</v>
       </c>
       <c r="W88">
-        <v>0.999766355140187</v>
+        <v>-0.0002336448598130314</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7680,7 +7680,7 @@
         <v>0.8697707498267833</v>
       </c>
       <c r="K89">
-        <v>46.51750755579845</v>
+        <v>-0.03482492444201546</v>
       </c>
       <c r="L89">
         <v>0.0007234574336526466</v>
@@ -7710,13 +7710,13 @@
         <v>0.0037500000000108</v>
       </c>
       <c r="U89">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W89">
-        <v>1.000233699462491</v>
+        <v>0.0002336994624911881</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7751,7 +7751,7 @@
         <v>0.7031867986030597</v>
       </c>
       <c r="K90">
-        <v>41.28653411239495</v>
+        <v>-0.08713465887605049</v>
       </c>
       <c r="L90">
         <v>0.0002822724441484606</v>
@@ -7781,13 +7781,13 @@
         <v>-0.006250000000008527</v>
       </c>
       <c r="U90">
-        <v>0.9999844257380254</v>
+        <v>-1.557426197462686E-05</v>
       </c>
       <c r="V90">
-        <v>0.9999688536589164</v>
+        <v>-3.114634108358771E-05</v>
       </c>
       <c r="W90">
-        <v>0.9995327102803739</v>
+        <v>-0.0004672897196260628</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7822,7 +7822,7 @@
         <v>0.6387942306784932</v>
       </c>
       <c r="K91">
-        <v>38.97952645427728</v>
+        <v>-0.1102047354572271</v>
       </c>
       <c r="L91">
         <v>-0.0003103498042679761</v>
@@ -7852,13 +7852,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U91">
-        <v>0.999968850990928</v>
+        <v>-3.114900907197349E-05</v>
       </c>
       <c r="V91">
-        <v>0.9999532790331874</v>
+        <v>-4.672096681257454E-05</v>
       </c>
       <c r="W91">
-        <v>0.9997662459093034</v>
+        <v>-0.0002337540906965918</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7893,7 +7893,7 @@
         <v>0.5826330125317111</v>
       </c>
       <c r="K92">
-        <v>36.81415766752414</v>
+        <v>-0.1318584233247587</v>
       </c>
       <c r="L92">
         <v>-0.001040894297131916</v>
@@ -7923,13 +7923,13 @@
         <v>-0.02499999999999147</v>
       </c>
       <c r="U92">
-        <v>0.999961062525796</v>
+        <v>-3.893747420402605E-05</v>
       </c>
       <c r="V92">
-        <v>0.9999065537004735</v>
+        <v>-9.344629952645622E-05</v>
       </c>
       <c r="W92">
-        <v>0.9997661912555529</v>
+        <v>-0.0002338087444471171</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7964,7 +7964,7 @@
         <v>0.4916362711348558</v>
       </c>
       <c r="K93">
-        <v>32.95952777823059</v>
+        <v>-0.170404722217694</v>
       </c>
       <c r="L93">
         <v>-0.001974802964116364</v>
@@ -7994,13 +7994,13 @@
         <v>-0.03249999999999886</v>
       </c>
       <c r="U93">
-        <v>0.9999532732115322</v>
+        <v>-4.672678846784351E-05</v>
       </c>
       <c r="V93">
-        <v>0.9998753932899287</v>
+        <v>-0.0001246067100713066</v>
       </c>
       <c r="W93">
-        <v>0.9995322731524791</v>
+        <v>-0.000467726847520944</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8035,7 +8035,7 @@
         <v>0.5738372806171529</v>
       </c>
       <c r="K94">
-        <v>36.46102984624513</v>
+        <v>-0.1353897015375488</v>
       </c>
       <c r="L94">
         <v>-0.002880181615290076</v>
@@ -8065,13 +8065,13 @@
         <v>-0.03874999999999318</v>
       </c>
       <c r="U94">
-        <v>0.9999610591900312</v>
+        <v>-3.894080996880156E-05</v>
       </c>
       <c r="V94">
-        <v>0.9999065333208712</v>
+        <v>-9.346667912879525E-05</v>
       </c>
       <c r="W94">
-        <v>1.000233972859148</v>
+        <v>0.0002339728591482793</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8106,7 +8106,7 @@
         <v>0.7468920374220501</v>
       </c>
       <c r="K95">
-        <v>42.75547780985166</v>
+        <v>-0.07244522190148339</v>
       </c>
       <c r="L95">
         <v>-0.003529994628460343</v>
@@ -8136,13 +8136,13 @@
         <v>-0.04125000000001933</v>
       </c>
       <c r="U95">
-        <v>0.9999766346041513</v>
+        <v>-2.336539584868458E-05</v>
       </c>
       <c r="V95">
-        <v>0.9999532622920172</v>
+        <v>-4.673770798280241E-05</v>
       </c>
       <c r="W95">
-        <v>1.00046783625731</v>
+        <v>0.0004678362573100614</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8177,7 +8177,7 @@
         <v>0.9290549393218773</v>
       </c>
       <c r="K96">
-        <v>48.16114463015082</v>
+        <v>-0.01838855369849185</v>
       </c>
       <c r="L96">
         <v>-0.003800589484757527</v>
@@ -8207,13 +8207,13 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="U96">
-        <v>0.9999922113527323</v>
+        <v>-7.788647267692461E-06</v>
       </c>
       <c r="V96">
-        <v>0.9999844200358341</v>
+        <v>-1.557996416590157E-05</v>
       </c>
       <c r="W96">
-        <v>1.000467617488894</v>
+        <v>0.0004676174888940121</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8248,7 +8248,7 @@
         <v>0.8477743903231307</v>
       </c>
       <c r="K97">
-        <v>45.88083884931837</v>
+        <v>-0.04119161150681627</v>
       </c>
       <c r="L97">
         <v>-0.003895427878222699</v>
@@ -8278,13 +8278,13 @@
         <v>-0.04250000000000398</v>
       </c>
       <c r="U97">
-        <v>0.9999844225841373</v>
+        <v>-1.557741586266648E-05</v>
       </c>
       <c r="V97">
-        <v>0.999922098965474</v>
+        <v>-7.790103452598451E-05</v>
       </c>
       <c r="W97">
-        <v>0.9997663005375088</v>
+        <v>-0.0002336994624911881</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8319,7 +8319,7 @@
         <v>0.7159144819077274</v>
       </c>
       <c r="K98">
-        <v>41.72203740082575</v>
+        <v>-0.08277962599174254</v>
       </c>
       <c r="L98">
         <v>-0.004033718389719995</v>
@@ -8349,13 +8349,13 @@
         <v>-0.03874999999999318</v>
       </c>
       <c r="U98">
-        <v>0.9999688446829557</v>
+        <v>-3.115531704434016E-05</v>
       </c>
       <c r="V98">
-        <v>0.9999065114757165</v>
+        <v>-9.348852428348042E-05</v>
       </c>
       <c r="W98">
-        <v>0.9995324918186067</v>
+        <v>-0.0004675081813932946</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8390,7 +8390,7 @@
         <v>0.7977758268478046</v>
       </c>
       <c r="K99">
-        <v>44.37571219580884</v>
+        <v>-0.05624287804191153</v>
       </c>
       <c r="L99">
         <v>-0.004089768687656218</v>
@@ -8420,13 +8420,13 @@
         <v>-0.03249999999999886</v>
       </c>
       <c r="U99">
-        <v>0.9999766327842038</v>
+        <v>-2.336721579621059E-05</v>
       </c>
       <c r="V99">
-        <v>0.9999220856123291</v>
+        <v>-7.791438767090764E-05</v>
       </c>
       <c r="W99">
-        <v>1.000233863423761</v>
+        <v>0.0002338634237606385</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8461,7 +8461,7 @@
         <v>0.7977758268478046</v>
       </c>
       <c r="K100">
-        <v>44.37571219580884</v>
+        <v>-0.05624287804191153</v>
       </c>
       <c r="L100">
         <v>-0.004077536211583125</v>
@@ -8491,13 +8491,13 @@
         <v>-0.02375000000000682</v>
       </c>
       <c r="U100">
-        <v>0.9999766322381642</v>
+        <v>-2.336776183575751E-05</v>
       </c>
       <c r="V100">
-        <v>0.9999376636329635</v>
+        <v>-6.233636703645296E-05</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8532,7 +8532,7 @@
         <v>0.6271254210437254</v>
       </c>
       <c r="K101">
-        <v>38.54192264057023</v>
+        <v>-0.1145807735942976</v>
       </c>
       <c r="L101">
         <v>-0.004265143305715237</v>
@@ -8562,13 +8562,13 @@
         <v>-0.01500000000001478</v>
       </c>
       <c r="U101">
-        <v>0.9999532633841984</v>
+        <v>-4.673661580156807E-05</v>
       </c>
       <c r="V101">
-        <v>0.9998909045570725</v>
+        <v>-0.000109095442927476</v>
       </c>
       <c r="W101">
-        <v>0.9992985737666589</v>
+        <v>-0.0007014262333411292</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8603,7 +8603,7 @@
         <v>0.6271254210437253</v>
       </c>
       <c r="K102">
-        <v>38.54192264057023</v>
+        <v>-0.1145807735942977</v>
       </c>
       <c r="L102">
         <v>-0.004546371836507012</v>
@@ -8633,13 +8633,13 @@
         <v>-0.008749999999992042</v>
       </c>
       <c r="U102">
-        <v>0.999945471399749</v>
+        <v>-5.452860025101369E-05</v>
       </c>
       <c r="V102">
-        <v>0.9999064794176784</v>
+        <v>-9.352058232159344E-05</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8674,7 +8674,7 @@
         <v>0.7061310413600931</v>
       </c>
       <c r="K103">
-        <v>41.38785499132469</v>
+        <v>-0.08612145008675315</v>
       </c>
       <c r="L103">
         <v>-0.00476478055711455</v>
@@ -8704,13 +8704,13 @@
         <v>-0.007499999999993179</v>
       </c>
       <c r="U103">
-        <v>0.9999532586510446</v>
+        <v>-4.674134895543691E-05</v>
       </c>
       <c r="V103">
-        <v>0.9999376471138409</v>
+        <v>-6.23528861590783E-05</v>
       </c>
       <c r="W103">
-        <v>1.000233972859148</v>
+        <v>0.0002339728591482793</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8745,7 +8745,7 @@
         <v>0.706131041360093</v>
       </c>
       <c r="K104">
-        <v>41.38785499132468</v>
+        <v>-0.0861214500867532</v>
       </c>
       <c r="L104">
         <v>-0.004913881392493246</v>
@@ -8775,13 +8775,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U104">
-        <v>0.9999610470551574</v>
+        <v>-3.895294484257406E-05</v>
       </c>
       <c r="V104">
-        <v>0.999922054032145</v>
+        <v>-7.794596785504204E-05</v>
       </c>
       <c r="W104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8816,7 +8816,7 @@
         <v>0.6492915085112494</v>
       </c>
       <c r="K105">
-        <v>39.36790465242493</v>
+        <v>-0.1063209534757508</v>
       </c>
       <c r="L105">
         <v>-0.005078720184853364</v>
@@ -8846,13 +8846,13 @@
         <v>-0.01499999999998636</v>
       </c>
       <c r="U105">
-        <v>0.9999532546453197</v>
+        <v>-4.674535468029983E-05</v>
       </c>
       <c r="V105">
-        <v>0.9999376383648777</v>
+        <v>-6.236163512229886E-05</v>
       </c>
       <c r="W105">
-        <v>0.9997660818713451</v>
+        <v>-0.0002339181286549197</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8887,7 +8887,7 @@
         <v>0.6492915085112494</v>
       </c>
       <c r="K106">
-        <v>39.36790465242493</v>
+        <v>-0.1063209534757508</v>
       </c>
       <c r="L106">
         <v>-0.005224122139353229</v>
@@ -8917,13 +8917,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U106">
-        <v>0.9999532524600893</v>
+        <v>-4.674753991074088E-05</v>
       </c>
       <c r="V106">
-        <v>0.9999532258567465</v>
+        <v>-4.677414325349183E-05</v>
       </c>
       <c r="W106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8958,7 +8958,7 @@
         <v>0.5961230689353264</v>
       </c>
       <c r="K107">
-        <v>37.34818953108438</v>
+        <v>-0.1265181046891562</v>
       </c>
       <c r="L107">
         <v>-0.005414597694878807</v>
@@ -8988,13 +8988,13 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="U107">
-        <v>0.999929875411982</v>
+        <v>-7.01245880180279E-05</v>
       </c>
       <c r="V107">
-        <v>0.9999532236688236</v>
+        <v>-4.677633117644575E-05</v>
       </c>
       <c r="W107">
-        <v>0.9997660271408515</v>
+        <v>-0.0002339728591485013</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9029,7 +9029,7 @@
         <v>0.5961230689353265</v>
       </c>
       <c r="K108">
-        <v>37.34818953108439</v>
+        <v>-0.1265181046891561</v>
       </c>
       <c r="L108">
         <v>-0.005600559997863599</v>
@@ -9059,13 +9059,13 @@
         <v>-0.02624999999999034</v>
       </c>
       <c r="U108">
-        <v>0.9999298704941793</v>
+        <v>-7.012950582074851E-05</v>
       </c>
       <c r="V108">
-        <v>0.9999844071602322</v>
+        <v>-1.559283976781956E-05</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9100,7 +9100,7 @@
         <v>0.6868564262175658</v>
       </c>
       <c r="K109">
-        <v>40.71813199643211</v>
+        <v>-0.09281868003567895</v>
       </c>
       <c r="L109">
         <v>-0.005666448846867941</v>
@@ -9130,13 +9130,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U109">
-        <v>0.9999454510033119</v>
+        <v>-5.454899668810853E-05</v>
       </c>
       <c r="V109">
-        <v>0.9999844069170916</v>
+        <v>-1.55930829084383E-05</v>
       </c>
       <c r="W109">
-        <v>1.000234027615259</v>
+        <v>0.0002340276152588139</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9171,7 +9171,7 @@
         <v>0.6868564262175658</v>
       </c>
       <c r="K110">
-        <v>40.71813199643211</v>
+        <v>-0.09281868003567895</v>
       </c>
       <c r="L110">
         <v>-0.005634768892564249</v>
@@ -9201,13 +9201,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U110">
-        <v>0.9999532411664771</v>
+        <v>-4.675883352289745E-05</v>
       </c>
       <c r="V110">
-        <v>0.9999532200218306</v>
+        <v>-4.677997816937562E-05</v>
       </c>
       <c r="W110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9242,7 +9242,7 @@
         <v>0.7873920021534937</v>
       </c>
       <c r="K111">
-        <v>44.05256380272623</v>
+        <v>-0.05947436197273764</v>
       </c>
       <c r="L111">
         <v>-0.005440349555305378</v>
@@ -9272,13 +9272,13 @@
         <v>-0.02249999999999375</v>
       </c>
       <c r="U111">
-        <v>0.9999610324833218</v>
+        <v>-3.896751667820109E-05</v>
       </c>
       <c r="V111">
-        <v>0.9999376237778158</v>
+        <v>-6.237622218419059E-05</v>
       </c>
       <c r="W111">
-        <v>1.000233972859148</v>
+        <v>0.0002339728591482793</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9313,7 +9313,7 @@
         <v>1.104872768267025</v>
       </c>
       <c r="K112">
-        <v>52.49119020037892</v>
+        <v>0.02491190200378923</v>
       </c>
       <c r="L112">
         <v>-0.004884486150559933</v>
@@ -9343,13 +9343,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U112">
-        <v>0.9999610309647954</v>
+        <v>-3.896903520461681E-05</v>
       </c>
       <c r="V112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W112">
-        <v>1.000701754385965</v>
+        <v>0.0007017543859648701</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9384,7 +9384,7 @@
         <v>1.216269528306835</v>
       </c>
       <c r="K113">
-        <v>54.87913418346862</v>
+        <v>0.04879134183468614</v>
       </c>
       <c r="L113">
         <v>-0.004042086724657387</v>
@@ -9414,13 +9414,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U113">
-        <v>0.9999766176676903</v>
+        <v>-2.3382332309696E-05</v>
       </c>
       <c r="V113">
-        <v>1.000046785084915</v>
+        <v>4.678508491506861E-05</v>
       </c>
       <c r="W113">
-        <v>1.000233754090696</v>
+        <v>0.0002337540906964808</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9455,7 +9455,7 @@
         <v>1.568048770537895</v>
       </c>
       <c r="K114">
-        <v>61.05992956704855</v>
+        <v>0.1105992956704855</v>
       </c>
       <c r="L114">
         <v>-0.002809570265097763</v>
@@ -9485,13 +9485,13 @@
         <v>0.009999999999990905</v>
       </c>
       <c r="U114">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V114">
-        <v>1.000077971493622</v>
+        <v>7.797149362209765E-05</v>
       </c>
       <c r="W114">
-        <v>1.000701098387474</v>
+        <v>0.0007010983874737864</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9526,7 +9526,7 @@
         <v>1.395767371181742</v>
       </c>
       <c r="K115">
-        <v>58.25972037064945</v>
+        <v>0.08259720370649459</v>
       </c>
       <c r="L115">
         <v>-0.00149412185040331</v>
@@ -9556,13 +9556,13 @@
         <v>0.02499999999999147</v>
       </c>
       <c r="U115">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V115">
-        <v>1.000062372331634</v>
+        <v>6.237233163353118E-05</v>
       </c>
       <c r="W115">
-        <v>0.9997664642690333</v>
+        <v>-0.0002335357309667385</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9597,7 +9597,7 @@
         <v>1.133567437864331</v>
       </c>
       <c r="K116">
-        <v>53.13014333397471</v>
+        <v>0.03130143333974711</v>
       </c>
       <c r="L116">
         <v>-0.0003771169040269436</v>
@@ -9627,13 +9627,13 @@
         <v>0.03750000000000853</v>
       </c>
       <c r="U116">
-        <v>0.9999844114139627</v>
+        <v>-1.558858603734059E-05</v>
       </c>
       <c r="V116">
-        <v>1.000077960551961</v>
+        <v>7.796055196074292E-05</v>
       </c>
       <c r="W116">
-        <v>0.9995328194347114</v>
+        <v>-0.0004671805652886052</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9668,7 +9668,7 @@
         <v>1.031575262805586</v>
       </c>
       <c r="K117">
-        <v>50.77711279969961</v>
+        <v>0.007771127996996086</v>
       </c>
       <c r="L117">
         <v>0.0004646860562077446</v>
@@ -9698,13 +9698,13 @@
         <v>0.04250000000000398</v>
       </c>
       <c r="U117">
-        <v>0.9999844111709548</v>
+        <v>-1.558882904517667E-05</v>
       </c>
       <c r="V117">
-        <v>1.000062363579669</v>
+        <v>6.23635796694888E-05</v>
       </c>
       <c r="W117">
-        <v>0.9997663005375088</v>
+        <v>-0.0002336994624911881</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9739,7 +9739,7 @@
         <v>1.126285273596503</v>
       </c>
       <c r="K118">
-        <v>52.96962207199267</v>
+        <v>0.02969622071992672</v>
       </c>
       <c r="L118">
         <v>0.001169561170246827</v>
@@ -9769,13 +9769,13 @@
         <v>0.04874999999999829</v>
       </c>
       <c r="U118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V118">
-        <v>1.000062359690696</v>
+        <v>6.235969069590119E-05</v>
       </c>
       <c r="W118">
-        <v>1.000233754090696</v>
+        <v>0.0002337540906964808</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9810,7 +9810,7 @@
         <v>1.325674769998505</v>
       </c>
       <c r="K119">
-        <v>57.00172642795437</v>
+        <v>0.07001726427954369</v>
       </c>
       <c r="L119">
         <v>0.001912588854388593</v>
@@ -9840,13 +9840,13 @@
         <v>0.05624999999999147</v>
       </c>
       <c r="U119">
-        <v>1.00000779453603</v>
+        <v>7.794536030392152E-06</v>
       </c>
       <c r="V119">
-        <v>1.000093533703311</v>
+        <v>9.353370331099953E-05</v>
       </c>
       <c r="W119">
-        <v>1.000467398924983</v>
+        <v>0.0004673989249825983</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9881,7 +9881,7 @@
         <v>1.430616610210047</v>
       </c>
       <c r="K120">
-        <v>58.85817632450135</v>
+        <v>0.08858176324501355</v>
       </c>
       <c r="L120">
         <v>0.002709539944461763</v>
@@ -9911,13 +9911,13 @@
         <v>0.05750000000001876</v>
       </c>
       <c r="U120">
-        <v>1.000031177901104</v>
+        <v>3.117790110351848E-05</v>
       </c>
       <c r="V120">
-        <v>1.000124699940768</v>
+        <v>0.0001246999407675808</v>
       </c>
       <c r="W120">
-        <v>1.000233590282644</v>
+        <v>0.0002335902826442471</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9952,7 +9952,7 @@
         <v>1.17174316928376</v>
       </c>
       <c r="K121">
-        <v>53.95403958701989</v>
+        <v>0.03954039587019897</v>
       </c>
       <c r="L121">
         <v>0.003308180674844969</v>
@@ -9982,13 +9982,13 @@
         <v>0.05249999999999488</v>
       </c>
       <c r="U121">
-        <v>1.000023382696804</v>
+        <v>2.338269680435268E-05</v>
       </c>
       <c r="V121">
-        <v>1.000093513294473</v>
+        <v>9.351329447349066E-05</v>
       </c>
       <c r="W121">
-        <v>0.9995329285380663</v>
+        <v>-0.0004670714619336991</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10023,7 +10023,7 @@
         <v>1.17174316928376</v>
       </c>
       <c r="K122">
-        <v>53.95403958701989</v>
+        <v>0.03954039587019897</v>
       </c>
       <c r="L122">
         <v>0.003736466819994955</v>
@@ -10053,13 +10053,13 @@
         <v>0.03999999999999204</v>
       </c>
       <c r="U122">
-        <v>1.000031176200089</v>
+        <v>3.117620008885602E-05</v>
       </c>
       <c r="V122">
-        <v>1.000109088642314</v>
+        <v>0.0001090886423136261</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10094,7 +10094,7 @@
         <v>1.17174316928376</v>
       </c>
       <c r="K123">
-        <v>53.95403958701989</v>
+        <v>0.03954039587019897</v>
       </c>
       <c r="L123">
         <v>0.004020636268557256</v>
@@ -10124,13 +10124,13 @@
         <v>0.02874999999998806</v>
       </c>
       <c r="U123">
-        <v>1.000046762842245</v>
+        <v>4.676284224536253E-05</v>
       </c>
       <c r="V123">
-        <v>1.00010907674328</v>
+        <v>0.0001090767432803119</v>
       </c>
       <c r="W123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10165,7 +10165,7 @@
         <v>1.17174316928376</v>
       </c>
       <c r="K124">
-        <v>53.95403958701988</v>
+        <v>0.03954039587019875</v>
       </c>
       <c r="L124">
         <v>0.004184737825866838</v>
@@ -10195,13 +10195,13 @@
         <v>0.02249999999999375</v>
       </c>
       <c r="U124">
-        <v>1.000038967212987</v>
+        <v>3.896721298701777E-05</v>
       </c>
       <c r="V124">
-        <v>1.000093484154436</v>
+        <v>9.348415443577451E-05</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10236,7 +10236,7 @@
         <v>1.05459742330148</v>
       </c>
       <c r="K125">
-        <v>51.32866474673538</v>
+        <v>0.01328664746735375</v>
       </c>
       <c r="L125">
         <v>0.004165265565847758</v>
@@ -10266,13 +10266,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U125">
-        <v>1.000015586277841</v>
+        <v>1.558627784126188E-05</v>
       </c>
       <c r="V125">
-        <v>1.000077896179971</v>
+        <v>7.789617997122633E-05</v>
       </c>
       <c r="W125">
-        <v>0.999766355140187</v>
+        <v>-0.0002336448598130314</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10307,7 +10307,7 @@
         <v>1.26507240586223</v>
       </c>
       <c r="K126">
-        <v>55.85130093802292</v>
+        <v>0.05851300938022919</v>
       </c>
       <c r="L126">
         <v>0.004190919370536254</v>
@@ -10337,13 +10337,13 @@
         <v>0.01499999999998636</v>
       </c>
       <c r="U126">
-        <v>1.000015586034913</v>
+        <v>1.558603491269572E-05</v>
       </c>
       <c r="V126">
-        <v>1.000093468135155</v>
+        <v>9.346813515498376E-05</v>
       </c>
       <c r="W126">
-        <v>1.000467398924983</v>
+        <v>0.0004673989249825983</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10378,7 +10378,7 @@
         <v>1.26507240586223</v>
       </c>
       <c r="K127">
-        <v>55.85130093802293</v>
+        <v>0.0585130093802293</v>
       </c>
       <c r="L127">
         <v>0.004227000273436759</v>
@@ -10408,13 +10408,13 @@
         <v>0.007499999999993179</v>
       </c>
       <c r="U127">
-        <v>1.000023378687988</v>
+        <v>2.337868798796272E-05</v>
       </c>
       <c r="V127">
-        <v>1.000046729699839</v>
+        <v>4.672969983943176E-05</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10449,7 +10449,7 @@
         <v>1.132961566052291</v>
       </c>
       <c r="K128">
-        <v>53.11682986155202</v>
+        <v>0.03116829861552017</v>
       </c>
       <c r="L128">
         <v>0.004166572261936887</v>
@@ -10479,13 +10479,13 @@
         <v>-1.4210854715202E-14</v>
       </c>
       <c r="U128">
-        <v>1.00003117085525</v>
+        <v>3.117085525028429E-05</v>
       </c>
       <c r="V128">
-        <v>1.000015575838759</v>
+        <v>1.55758387589966E-05</v>
       </c>
       <c r="W128">
-        <v>0.9997664097173556</v>
+        <v>-0.0002335902826443581</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10520,7 +10520,7 @@
         <v>1.020754369273883</v>
       </c>
       <c r="K129">
-        <v>50.51353023379433</v>
+        <v>0.005135302337943348</v>
       </c>
       <c r="L129">
         <v>0.003951239352115356</v>
@@ -10550,13 +10550,13 @@
         <v>-0.002500000000011937</v>
       </c>
       <c r="U129">
-        <v>1.000015584941829</v>
+        <v>1.558494182929415E-05</v>
       </c>
       <c r="V129">
-        <v>0.9999532732115319</v>
+        <v>-4.672678846806555E-05</v>
       </c>
       <c r="W129">
-        <v>0.999766355140187</v>
+        <v>-0.0002336448598130314</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10591,7 +10591,7 @@
         <v>0.8446437653242062</v>
       </c>
       <c r="K130">
-        <v>45.78899087194516</v>
+        <v>-0.04211009128054838</v>
       </c>
       <c r="L130">
         <v>0.003471179828371634</v>
@@ -10621,13 +10621,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U130">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V130">
-        <v>0.9999376947040499</v>
+        <v>-6.23052959500825E-05</v>
       </c>
       <c r="W130">
-        <v>0.9995326010750176</v>
+        <v>-0.0004673989249823762</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10662,7 +10662,7 @@
         <v>0.774330536068116</v>
       </c>
       <c r="K131">
-        <v>43.64071520653746</v>
+        <v>-0.06359284793462533</v>
       </c>
       <c r="L131">
         <v>0.002763613158272372</v>
@@ -10692,13 +10692,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U131">
-        <v>1.000015584698942</v>
+        <v>1.558469894247239E-05</v>
       </c>
       <c r="V131">
-        <v>0.9999532681163935</v>
+        <v>-4.673188360648783E-05</v>
       </c>
       <c r="W131">
-        <v>0.9997661912555529</v>
+        <v>-0.0002338087444471171</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10733,7 +10733,7 @@
         <v>0.6588618519877396</v>
       </c>
       <c r="K132">
-        <v>39.71770471412403</v>
+        <v>-0.1028229528587598</v>
       </c>
       <c r="L132">
         <v>0.001783050516807315</v>
@@ -10763,13 +10763,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V132">
-        <v>0.9999376879098968</v>
+        <v>-6.231209010321148E-05</v>
       </c>
       <c r="W132">
-        <v>0.9995322731524791</v>
+        <v>-0.000467726847520944</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10804,7 +10804,7 @@
         <v>0.737346412250393</v>
       </c>
       <c r="K133">
-        <v>42.44095518609353</v>
+        <v>-0.07559044813906474</v>
       </c>
       <c r="L133">
         <v>0.0007782201076652855</v>
@@ -10834,13 +10834,13 @@
         <v>-0.02249999999999375</v>
       </c>
       <c r="U133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V133">
-        <v>0.9999376840268581</v>
+        <v>-6.231597314187987E-05</v>
       </c>
       <c r="W133">
-        <v>1.000233972859148</v>
+        <v>0.0002339728591482793</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10875,7 +10875,7 @@
         <v>0.6327900920175886</v>
       </c>
       <c r="K134">
-        <v>38.75514036440957</v>
+        <v>-0.1124485963559043</v>
       </c>
       <c r="L134">
         <v>-0.0003503356865752284</v>
@@ -10905,13 +10905,13 @@
         <v>-0.0350000000000108</v>
       </c>
       <c r="U134">
-        <v>0.9999844155439365</v>
+        <v>-1.55844560635332E-05</v>
       </c>
       <c r="V134">
-        <v>0.9998753602866713</v>
+        <v>-0.0001246397133286559</v>
       </c>
       <c r="W134">
-        <v>0.9995321637426899</v>
+        <v>-0.0004678362573100614</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10946,7 +10946,7 @@
         <v>0.5888435187053249</v>
       </c>
       <c r="K135">
-        <v>37.06113986512317</v>
+        <v>-0.1293886013487683</v>
       </c>
       <c r="L135">
         <v>-0.001565783864021217</v>
@@ -10976,13 +10976,13 @@
         <v>-0.04625000000000057</v>
       </c>
       <c r="U135">
-        <v>0.9999844153010574</v>
+        <v>-1.558469894258341E-05</v>
       </c>
       <c r="V135">
-        <v>0.999844180937096</v>
+        <v>-0.0001558190629039613</v>
       </c>
       <c r="W135">
-        <v>0.9997659723847414</v>
+        <v>-0.0002340276152585918</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11017,7 +11017,7 @@
         <v>0.548729166264225</v>
       </c>
       <c r="K136">
-        <v>35.43093125751901</v>
+        <v>-0.14569068742481</v>
       </c>
       <c r="L136">
         <v>-0.002835871056083792</v>
@@ -11047,13 +11047,13 @@
         <v>-0.05499999999999261</v>
       </c>
       <c r="U136">
-        <v>0.9999766225872563</v>
+        <v>-2.337741274371918E-05</v>
       </c>
       <c r="V136">
-        <v>0.9998597409883583</v>
+        <v>-0.0001402590116417191</v>
       </c>
       <c r="W136">
-        <v>0.9997659176029963</v>
+        <v>-0.000234082397003732</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11088,7 +11088,7 @@
         <v>0.548729166264225</v>
       </c>
       <c r="K137">
-        <v>35.43093125751901</v>
+        <v>-0.14569068742481</v>
       </c>
       <c r="L137">
         <v>-0.004047865753801715</v>
@@ -11118,13 +11118,13 @@
         <v>-0.06374999999999886</v>
       </c>
       <c r="U137">
-        <v>0.9999844146938266</v>
+        <v>-1.558530617340459E-05</v>
       </c>
       <c r="V137">
-        <v>0.9998597213130085</v>
+        <v>-0.0001402786869915129</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11159,7 +11159,7 @@
         <v>0.6242127786907382</v>
       </c>
       <c r="K138">
-        <v>38.43171208109259</v>
+        <v>-0.1156828791890741</v>
       </c>
       <c r="L138">
         <v>-0.005047656816386258</v>
@@ -11189,13 +11189,13 @@
         <v>-0.06624999999999659</v>
       </c>
       <c r="U138">
-        <v>0.9999922072254604</v>
+        <v>-7.792774539550074E-06</v>
       </c>
       <c r="V138">
-        <v>0.9998752903396779</v>
+        <v>-0.0001247096603220754</v>
       </c>
       <c r="W138">
-        <v>1.000234137204402</v>
+        <v>0.0002341372044016854</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11230,7 +11230,7 @@
         <v>0.6242127786907382</v>
       </c>
       <c r="K139">
-        <v>38.43171208109259</v>
+        <v>-0.1156828791890741</v>
       </c>
       <c r="L139">
         <v>-0.005836860187701455</v>
@@ -11260,13 +11260,13 @@
         <v>-0.06624999999999659</v>
       </c>
       <c r="U139">
-        <v>0.9999844143294656</v>
+        <v>-1.558567053439042E-05</v>
       </c>
       <c r="V139">
-        <v>0.9998752747852387</v>
+        <v>-0.0001247252147612565</v>
       </c>
       <c r="W139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11301,7 +11301,7 @@
         <v>0.6242127786907382</v>
       </c>
       <c r="K140">
-        <v>38.43171208109259</v>
+        <v>-0.1156828791890741</v>
       </c>
       <c r="L140">
         <v>-0.006426990398594479</v>
@@ -11331,13 +11331,13 @@
         <v>-0.06124999999998693</v>
       </c>
       <c r="U140">
-        <v>0.9999844140865486</v>
+        <v>-1.558591345141025E-05</v>
       </c>
       <c r="V140">
-        <v>0.9998908518235542</v>
+        <v>-0.0001091481764458058</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11372,7 +11372,7 @@
         <v>0.5737036931436716</v>
       </c>
       <c r="K141">
-        <v>36.4556361939792</v>
+        <v>-0.135443638060208</v>
       </c>
       <c r="L141">
         <v>-0.006920678792600911</v>
@@ -11402,13 +11402,13 @@
         <v>-0.06125000000000114</v>
       </c>
       <c r="U141">
-        <v>0.9999688276872482</v>
+        <v>-3.117231275184817E-05</v>
       </c>
       <c r="V141">
-        <v>0.9998440570127561</v>
+        <v>-0.0001559429872438622</v>
       </c>
       <c r="W141">
-        <v>0.9997659176029963</v>
+        <v>-0.000234082397003732</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11443,7 +11443,7 @@
         <v>0.6588789094891508</v>
       </c>
       <c r="K142">
-        <v>39.71832456969698</v>
+        <v>-0.1028167543030302</v>
       </c>
       <c r="L142">
         <v>-0.007214196667685858</v>
@@ -11473,13 +11473,13 @@
         <v>-0.05249999999999488</v>
       </c>
       <c r="U142">
-        <v>0.9999532400732571</v>
+        <v>-4.675992674285645E-05</v>
       </c>
       <c r="V142">
-        <v>0.9998596294216734</v>
+        <v>-0.0001403705783266096</v>
       </c>
       <c r="W142">
-        <v>1.000234137204402</v>
+        <v>0.0002341372044016854</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11514,7 +11514,7 @@
         <v>0.7485370319580765</v>
       </c>
       <c r="K143">
-        <v>42.80933250351792</v>
+        <v>-0.07190667496482078</v>
       </c>
       <c r="L143">
         <v>-0.007256352016333796</v>
@@ -11544,13 +11544,13 @@
         <v>-0.04000000000000625</v>
       </c>
       <c r="U143">
-        <v>0.9999532378866641</v>
+        <v>-4.676211333587421E-05</v>
       </c>
       <c r="V143">
-        <v>0.999890807556117</v>
+        <v>-0.0001091924438829661</v>
       </c>
       <c r="W143">
-        <v>1.000234082397004</v>
+        <v>0.000234082397003732</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11585,7 +11585,7 @@
         <v>0.6839846339789714</v>
       </c>
       <c r="K144">
-        <v>40.61703534448714</v>
+        <v>-0.0938296465551286</v>
       </c>
       <c r="L144">
         <v>-0.007202255065254634</v>
@@ -11615,13 +11615,13 @@
         <v>-0.0274999999999892</v>
       </c>
       <c r="U144">
-        <v>0.999922059499778</v>
+        <v>-7.794050022202903E-05</v>
       </c>
       <c r="V144">
-        <v>0.9998907956318251</v>
+        <v>-0.0001092043681748534</v>
       </c>
       <c r="W144">
-        <v>0.9997659723847414</v>
+        <v>-0.0002340276152585918</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11656,7 +11656,7 @@
         <v>0.6839846339789714</v>
       </c>
       <c r="K145">
-        <v>40.61703534448714</v>
+        <v>-0.0938296465551286</v>
       </c>
       <c r="L145">
         <v>-0.007067077842917775</v>
@@ -11686,13 +11686,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U145">
-        <v>0.9999298480821245</v>
+        <v>-7.015191787551611E-05</v>
       </c>
       <c r="V145">
-        <v>0.9999219883606635</v>
+        <v>-7.801163933651711E-05</v>
       </c>
       <c r="W145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11727,7 +11727,7 @@
         <v>0.7795392955296865</v>
       </c>
       <c r="K146">
-        <v>43.80568035153468</v>
+        <v>-0.06194319648465324</v>
       </c>
       <c r="L146">
         <v>-0.006780507371388774</v>
@@ -11757,13 +11757,13 @@
         <v>-0.008750000000006253</v>
       </c>
       <c r="U146">
-        <v>0.9999532287736584</v>
+        <v>-4.677122634155761E-05</v>
       </c>
       <c r="V146">
-        <v>0.9999531893646237</v>
+        <v>-4.681063537625985E-05</v>
       </c>
       <c r="W146">
-        <v>1.000234082397004</v>
+        <v>0.000234082397003732</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11798,7 +11798,7 @@
         <v>0.6489845589381584</v>
       </c>
       <c r="K147">
-        <v>39.35661831521718</v>
+        <v>-0.1064338168478283</v>
       </c>
       <c r="L147">
         <v>-0.006566104527569139</v>
@@ -11828,13 +11828,13 @@
         <v>-0.005000000000009663</v>
       </c>
       <c r="U147">
-        <v>0.9999454310170099</v>
+        <v>-5.45689829900553E-05</v>
       </c>
       <c r="V147">
-        <v>0.9999531871732854</v>
+        <v>-4.681282671459286E-05</v>
       </c>
       <c r="W147">
-        <v>0.9995319447694829</v>
+        <v>-0.0004680552305170727</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11869,7 +11869,7 @@
         <v>1.089712945901764</v>
       </c>
       <c r="K148">
-        <v>52.14653754425228</v>
+        <v>0.0214653754425228</v>
       </c>
       <c r="L148">
         <v>-0.005959345096947418</v>
@@ -11899,13 +11899,13 @@
         <v>0.002499999999983515</v>
       </c>
       <c r="U148">
-        <v>0.9999766120167458</v>
+        <v>-2.338798325418612E-05</v>
       </c>
       <c r="V148">
-        <v>1.000015605006086</v>
+        <v>1.560500608599469E-05</v>
       </c>
       <c r="W148">
-        <v>1.001170686022009</v>
+        <v>0.001170686022008871</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11940,7 +11940,7 @@
         <v>1.739207410900801</v>
       </c>
       <c r="K149">
-        <v>63.49308942358822</v>
+        <v>0.1349308942358821</v>
       </c>
       <c r="L149">
         <v>-0.004535545565547263</v>
@@ -11970,13 +11970,13 @@
         <v>0.02249999999999375</v>
       </c>
       <c r="U149">
-        <v>1.00001559235351</v>
+        <v>1.559235350989674E-05</v>
       </c>
       <c r="V149">
-        <v>1.000156047625735</v>
+        <v>0.0001560476257351784</v>
       </c>
       <c r="W149">
-        <v>1.001637043966324</v>
+        <v>0.001637043966323581</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12011,7 +12011,7 @@
         <v>1.58445620281624</v>
       </c>
       <c r="K150">
-        <v>61.30714078612297</v>
+        <v>0.1130714078612297</v>
       </c>
       <c r="L150">
         <v>-0.002776013019144681</v>
@@ -12041,13 +12041,13 @@
         <v>0.03624999999999545</v>
       </c>
       <c r="U150">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V150">
-        <v>1.000156023278673</v>
+        <v>0.0001560232786732563</v>
       </c>
       <c r="W150">
-        <v>0.999766518795237</v>
+        <v>-0.0002334812047629642</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12082,7 +12082,7 @@
         <v>1.771778321488391</v>
       </c>
       <c r="K151">
-        <v>63.92207875184551</v>
+        <v>0.1392207875184551</v>
       </c>
       <c r="L151">
         <v>-0.0007446971288609825</v>
@@ -12112,13 +12112,13 @@
         <v>0.04874999999999829</v>
       </c>
       <c r="U151">
-        <v>1.000031184220785</v>
+        <v>3.118422078451921E-05</v>
       </c>
       <c r="V151">
-        <v>1.00020279862097</v>
+        <v>0.0002027986209696131</v>
       </c>
       <c r="W151">
-        <v>1.000467071461934</v>
+        <v>0.0004670714619336991</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12153,7 +12153,7 @@
         <v>1.771778321488391</v>
       </c>
       <c r="K152">
-        <v>63.92207875184552</v>
+        <v>0.1392207875184552</v>
       </c>
       <c r="L152">
         <v>0.00132451630883414</v>
@@ -12183,13 +12183,13 @@
         <v>0.0625</v>
       </c>
       <c r="U152">
-        <v>1.000031183248359</v>
+        <v>3.118324835882369E-05</v>
       </c>
       <c r="V152">
-        <v>1.000202757502027</v>
+        <v>0.000202757502027362</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12224,7 +12224,7 @@
         <v>1.467239384984722</v>
       </c>
       <c r="K153">
-        <v>59.46887010292305</v>
+        <v>0.09468870102923044</v>
       </c>
       <c r="L153">
         <v>0.003109554550751249</v>
@@ -12254,13 +12254,13 @@
         <v>0.07375000000000398</v>
       </c>
       <c r="U153">
-        <v>1.000015591137997</v>
+        <v>1.559113799709522E-05</v>
       </c>
       <c r="V153">
-        <v>1.000155935692121</v>
+        <v>0.000155935692120579</v>
       </c>
       <c r="W153">
-        <v>0.99953314659197</v>
+        <v>-0.000466853408029988</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12295,7 +12295,7 @@
         <v>1.648169074492107</v>
       </c>
       <c r="K154">
-        <v>62.23806064226506</v>
+        <v>0.1223806064226506</v>
       </c>
       <c r="L154">
         <v>0.004767616467796078</v>
@@ -12325,13 +12325,13 @@
         <v>0.08624999999999261</v>
       </c>
       <c r="U154">
-        <v>1.000031181789835</v>
+        <v>3.118178983485542E-05</v>
       </c>
       <c r="V154">
-        <v>1.000187093655966</v>
+        <v>0.0001870936559660308</v>
       </c>
       <c r="W154">
-        <v>1.000467071461934</v>
+        <v>0.0004670714619336991</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12366,7 +12366,7 @@
         <v>1.504866434135132</v>
       </c>
       <c r="K155">
-        <v>60.0777116746636</v>
+        <v>0.100777116746636</v>
       </c>
       <c r="L155">
         <v>0.006140435364998147</v>
@@ -12396,13 +12396,13 @@
         <v>0.1025000000000205</v>
       </c>
       <c r="U155">
-        <v>1.000031180817561</v>
+        <v>3.118081756081637E-05</v>
       </c>
       <c r="V155">
-        <v>1.000171470436938</v>
+        <v>0.0001714704369379927</v>
       </c>
       <c r="W155">
-        <v>0.999766573295985</v>
+        <v>-0.0002334267040150495</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12437,7 +12437,7 @@
         <v>1.596389134640098</v>
       </c>
       <c r="K156">
-        <v>61.48497208456327</v>
+        <v>0.1148497208456327</v>
       </c>
       <c r="L156">
         <v>0.007315672520626075</v>
@@ -12467,13 +12467,13 @@
         <v>0.1075000000000017</v>
       </c>
       <c r="U156">
-        <v>1.000023384884011</v>
+        <v>2.33848840109907E-05</v>
       </c>
       <c r="V156">
-        <v>1.000202612138026</v>
+        <v>0.0002026121380256374</v>
       </c>
       <c r="W156">
-        <v>1.000233481204763</v>
+        <v>0.0002334812047630752</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12508,7 +12508,7 @@
         <v>1.456108135879139</v>
       </c>
       <c r="K157">
-        <v>59.2851802658086</v>
+        <v>0.09285180265808601</v>
       </c>
       <c r="L157">
         <v>0.008184406890035127</v>
@@ -12538,13 +12538,13 @@
         <v>0.09250000000000114</v>
       </c>
       <c r="U157">
-        <v>1.000015589558114</v>
+        <v>1.558955811420404E-05</v>
       </c>
       <c r="V157">
-        <v>1.000171406310869</v>
+        <v>0.0001714063108688713</v>
       </c>
       <c r="W157">
-        <v>0.999766573295985</v>
+        <v>-0.0002334267040150495</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12579,7 +12579,7 @@
         <v>1.332823457011393</v>
       </c>
       <c r="K158">
-        <v>57.13349002066742</v>
+        <v>0.07133490020667421</v>
       </c>
       <c r="L158">
         <v>0.008697066595339675</v>
@@ -12609,13 +12609,13 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="U158">
-        <v>1.000015589315083</v>
+        <v>1.558931508349737E-05</v>
       </c>
       <c r="V158">
-        <v>1.000140217492911</v>
+        <v>0.0001402174929110434</v>
       </c>
       <c r="W158">
-        <v>0.999766518795237</v>
+        <v>-0.0002334812047629642</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12650,7 +12650,7 @@
         <v>1.778440588661582</v>
       </c>
       <c r="K159">
-        <v>64.00858797985975</v>
+        <v>0.1400858797985975</v>
       </c>
       <c r="L159">
         <v>0.009355391554085638</v>
@@ -12680,13 +12680,13 @@
         <v>0.07000000000000739</v>
       </c>
       <c r="U159">
-        <v>1.000062356288242</v>
+        <v>6.235628824202699E-05</v>
       </c>
       <c r="V159">
-        <v>1.000233663057871</v>
+        <v>0.0002336630578707588</v>
       </c>
       <c r="W159">
-        <v>1.001167678654834</v>
+        <v>0.001167678654834026</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12721,7 +12721,7 @@
         <v>1.966068854619596</v>
       </c>
       <c r="K160">
-        <v>66.28534100135542</v>
+        <v>0.1628534100135542</v>
       </c>
       <c r="L160">
         <v>0.0101960800356161</v>
@@ -12751,13 +12751,13 @@
         <v>0.06125000000000114</v>
       </c>
       <c r="U160">
-        <v>1.000093528600266</v>
+        <v>9.352860026634602E-05</v>
       </c>
       <c r="V160">
-        <v>1.000264756268494</v>
+        <v>0.000264756268494093</v>
       </c>
       <c r="W160">
-        <v>1.000466526708654</v>
+        <v>0.0004665267086541025</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12792,7 +12792,7 @@
         <v>1.516729823092755</v>
       </c>
       <c r="K161">
-        <v>60.26589780022071</v>
+        <v>0.102658978002207</v>
       </c>
       <c r="L161">
         <v>0.0108009537622665</v>
@@ -12822,13 +12822,13 @@
         <v>0.05374999999999375</v>
       </c>
       <c r="U161">
-        <v>1.000077933211238</v>
+        <v>7.79332112381681E-05</v>
       </c>
       <c r="V161">
-        <v>1.000202407087362</v>
+        <v>0.0002024070873620776</v>
       </c>
       <c r="W161">
-        <v>0.9993005362555374</v>
+        <v>-0.0006994637444626139</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12863,7 +12863,7 @@
         <v>1.516729823092755</v>
       </c>
       <c r="K162">
-        <v>60.2658978002207</v>
+        <v>0.102658978002207</v>
       </c>
       <c r="L162">
         <v>0.0111850071059201</v>
@@ -12893,13 +12893,13 @@
         <v>0.04250000000000398</v>
       </c>
       <c r="U162">
-        <v>1.000093512565751</v>
+        <v>9.351256575107492E-05</v>
       </c>
       <c r="V162">
-        <v>1.000233499377335</v>
+        <v>0.000233499377334967</v>
       </c>
       <c r="W162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12934,7 +12934,7 @@
         <v>1.601142360703746</v>
       </c>
       <c r="K163">
-        <v>61.55535294387165</v>
+        <v>0.1155535294387164</v>
       </c>
       <c r="L163">
         <v>0.01145513122781514</v>
@@ -12964,13 +12964,13 @@
         <v>0.03250000000001307</v>
       </c>
       <c r="U163">
-        <v>1.000093503821969</v>
+        <v>9.35038219687101E-05</v>
       </c>
       <c r="V163">
-        <v>1.000171192903276</v>
+        <v>0.0001711929032761628</v>
       </c>
       <c r="W163">
-        <v>1.000233317778815</v>
+        <v>0.0002333177788147456</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13005,7 +13005,7 @@
         <v>1.68999766345222</v>
       </c>
       <c r="K164">
-        <v>62.82524652022762</v>
+        <v>0.1282524652022762</v>
       </c>
       <c r="L164">
         <v>0.01168233314295352</v>
@@ -13035,13 +13035,13 @@
         <v>0.02750000000000341</v>
       </c>
       <c r="U164">
-        <v>1.000116868849777</v>
+        <v>0.0001168688497770187</v>
       </c>
       <c r="V164">
-        <v>1.000077801636946</v>
+        <v>7.780163694648401E-05</v>
       </c>
       <c r="W164">
-        <v>1.000233263354327</v>
+        <v>0.0002332633543271623</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13076,7 +13076,7 @@
         <v>1.783529561082127</v>
       </c>
       <c r="K165">
-        <v>64.07438907847492</v>
+        <v>0.1407438907847492</v>
       </c>
       <c r="L165">
         <v>0.01191151139548254</v>
@@ -13106,13 +13106,13 @@
         <v>0.03499999999999659</v>
       </c>
       <c r="U165">
-        <v>1.000132435885451</v>
+        <v>0.0001324358854508656</v>
       </c>
       <c r="V165">
-        <v>1.000108913818051</v>
+        <v>0.0001089138180514482</v>
       </c>
       <c r="W165">
-        <v>1.000233208955224</v>
+        <v>0.0002332089552239403</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13147,7 +13147,7 @@
         <v>2.078893448334535</v>
       </c>
       <c r="K166">
-        <v>67.5207987291366</v>
+        <v>0.175207987291366</v>
       </c>
       <c r="L166">
         <v>0.0123390479922273</v>
@@ -13177,13 +13177,13 @@
         <v>0.04749999999999943</v>
       </c>
       <c r="U166">
-        <v>1.000163575606982</v>
+        <v>0.0001635756069822136</v>
       </c>
       <c r="V166">
-        <v>1.00012445937957</v>
+        <v>0.0001244593795699522</v>
       </c>
       <c r="W166">
-        <v>1.000699463744463</v>
+        <v>0.0006994637444626139</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13218,7 +13218,7 @@
         <v>1.88367595614787</v>
       </c>
       <c r="K167">
-        <v>65.32203981282834</v>
+        <v>0.1532203981282834</v>
       </c>
       <c r="L167">
         <v>0.01272930353101331</v>
@@ -13248,13 +13248,13 @@
         <v>0.04875000000001251</v>
       </c>
       <c r="U167">
-        <v>1.000155760813695</v>
+        <v>0.0001557608136946165</v>
       </c>
       <c r="V167">
-        <v>1.00010888840494</v>
+        <v>0.0001088884049404992</v>
       </c>
       <c r="W167">
-        <v>0.9997670083876979</v>
+        <v>-0.0002329916123020581</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13289,7 +13289,7 @@
         <v>2.377910273936338</v>
       </c>
       <c r="K168">
-        <v>70.39589808776411</v>
+        <v>0.2039589808776411</v>
       </c>
       <c r="L168">
         <v>0.01345092952243176</v>
@@ -13319,13 +13319,13 @@
         <v>0.05125000000001023</v>
       </c>
       <c r="U168">
-        <v>1.00018688386725</v>
+        <v>0.0001868838672502982</v>
       </c>
       <c r="V168">
-        <v>1.000217753099093</v>
+        <v>0.0002177530990932208</v>
       </c>
       <c r="W168">
-        <v>1.001165229550222</v>
+        <v>0.00116522955022158</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13360,7 +13360,7 @@
         <v>2.153807994979356</v>
       </c>
       <c r="K169">
-        <v>68.29229929051068</v>
+        <v>0.1829229929051068</v>
       </c>
       <c r="L169">
         <v>0.01419297923151753</v>
@@ -13390,13 +13390,13 @@
         <v>0.05750000000000455</v>
       </c>
       <c r="U169">
-        <v>1.000179063575355</v>
+        <v>0.0001790635753546876</v>
       </c>
       <c r="V169">
-        <v>1.000171054473074</v>
+        <v>0.0001710544730744168</v>
       </c>
       <c r="W169">
-        <v>0.9997672253258846</v>
+        <v>-0.0002327746741154213</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13431,7 +13431,7 @@
         <v>1.797225669436552</v>
       </c>
       <c r="K170">
-        <v>64.25029231905231</v>
+        <v>0.142502923190523</v>
       </c>
       <c r="L170">
         <v>0.01467811611753785</v>
@@ -13461,13 +13461,13 @@
         <v>0.06375000000001307</v>
       </c>
       <c r="U170">
-        <v>1.000163463559302</v>
+        <v>0.0001634635593021905</v>
       </c>
       <c r="V170">
-        <v>1.000155477471314</v>
+        <v>0.0001554774713143914</v>
       </c>
       <c r="W170">
-        <v>0.99953434225844</v>
+        <v>-0.0004656577415600438</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13502,7 +13502,7 @@
         <v>1.797225669436552</v>
       </c>
       <c r="K171">
-        <v>64.25029231905231</v>
+        <v>0.142502923190523</v>
       </c>
       <c r="L171">
         <v>0.01492312968833376</v>
@@ -13532,13 +13532,13 @@
         <v>0.06624999999999659</v>
       </c>
       <c r="U171">
-        <v>1.00017121955016</v>
+        <v>0.0001712195501597513</v>
       </c>
       <c r="V171">
-        <v>1.000139907971646</v>
+        <v>0.0001399079716455365</v>
       </c>
       <c r="W171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13573,7 +13573,7 @@
         <v>1.409403786434986</v>
       </c>
       <c r="K172">
-        <v>58.49595631790616</v>
+        <v>0.08495956317906161</v>
       </c>
       <c r="L172">
         <v>0.01469758838910528</v>
@@ -13603,13 +13603,13 @@
         <v>0.06374999999999886</v>
       </c>
       <c r="U172">
-        <v>1.000140064741036</v>
+        <v>0.0001400647410358946</v>
       </c>
       <c r="V172">
-        <v>1.000108802089</v>
+        <v>0.000108802088999882</v>
       </c>
       <c r="W172">
-        <v>0.9993011879804332</v>
+        <v>-0.0006988120195667857</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13644,7 +13644,7 @@
         <v>1.409403786434986</v>
       </c>
       <c r="K173">
-        <v>58.49595631790616</v>
+        <v>0.08495956317906161</v>
       </c>
       <c r="L173">
         <v>0.01414789777338208</v>
@@ -13674,13 +13674,13 @@
         <v>0.05750000000001876</v>
       </c>
       <c r="U173">
-        <v>1.000132264840893</v>
+        <v>0.0001322648408930149</v>
       </c>
       <c r="V173">
-        <v>1.000124331717021</v>
+        <v>0.0001243317170211977</v>
       </c>
       <c r="W173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13715,7 +13715,7 @@
         <v>1.215630919082916</v>
       </c>
       <c r="K174">
-        <v>54.86612903858935</v>
+        <v>0.04866129038589351</v>
       </c>
       <c r="L174">
         <v>0.01321542884230729</v>
@@ -13745,13 +13745,13 @@
         <v>0.04000000000000625</v>
       </c>
       <c r="U174">
-        <v>1.000124468093382</v>
+        <v>0.0001244680933820685</v>
       </c>
       <c r="V174">
-        <v>1.000015539532571</v>
+        <v>1.553953257094065E-05</v>
       </c>
       <c r="W174">
-        <v>0.9995337995337996</v>
+        <v>-0.0004662004662003838</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13786,7 +13786,7 @@
         <v>1.577435394991721</v>
       </c>
       <c r="K175">
-        <v>61.20174333202977</v>
+        <v>0.1120174333202977</v>
       </c>
       <c r="L175">
         <v>0.01248738977091394</v>
@@ -13816,13 +13816,13 @@
         <v>0.03750000000000853</v>
       </c>
       <c r="U175">
-        <v>1.000163344041443</v>
+        <v>0.0001633440414425813</v>
       </c>
       <c r="V175">
-        <v>1.00006215716439</v>
+        <v>6.215716439017527E-05</v>
       </c>
       <c r="W175">
-        <v>1.001166044776119</v>
+        <v>0.001166044776119257</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13857,7 +13857,7 @@
         <v>1.209061589042303</v>
       </c>
       <c r="K176">
-        <v>54.73190946959831</v>
+        <v>0.04731909469598305</v>
       </c>
       <c r="L176">
         <v>0.01154417275439376</v>
@@ -13887,13 +13887,13 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="U176">
-        <v>1.000124432277733</v>
+        <v>0.0001244322777329554</v>
       </c>
       <c r="V176">
-        <v>1.000046614975838</v>
+        <v>4.661497583779983E-05</v>
       </c>
       <c r="W176">
-        <v>0.9990682506405777</v>
+        <v>-0.000931749359422307</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13928,7 +13928,7 @@
         <v>1.076722715360654</v>
       </c>
       <c r="K177">
-        <v>51.84720653347624</v>
+        <v>0.01847206533476242</v>
       </c>
       <c r="L177">
         <v>0.01031882876574378</v>
@@ -13958,13 +13958,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U177">
-        <v>1.000124416796267</v>
+        <v>0.0001244167962672904</v>
       </c>
       <c r="V177">
-        <v>1.000015537600994</v>
+        <v>1.553760099448631E-05</v>
       </c>
       <c r="W177">
-        <v>0.9995336908370249</v>
+        <v>-0.000466309162975076</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13999,7 +13999,7 @@
         <v>1.076722715360654</v>
       </c>
       <c r="K178">
-        <v>51.84720653347624</v>
+        <v>0.01847206533476242</v>
       </c>
       <c r="L178">
         <v>0.008963193115977689</v>
@@ -14029,13 +14029,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U178">
-        <v>1.000085525906575</v>
+        <v>8.552590657484593E-05</v>
       </c>
       <c r="V178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14070,7 +14070,7 @@
         <v>1.015162868884689</v>
       </c>
       <c r="K179">
-        <v>50.37621943910372</v>
+        <v>0.003762194391037199</v>
       </c>
       <c r="L179">
         <v>0.007497507774991534</v>
@@ -14100,13 +14100,13 @@
         <v>-0.03375000000001194</v>
       </c>
       <c r="U179">
-        <v>1.000023323252505</v>
+        <v>2.332325250531397E-05</v>
       </c>
       <c r="V179">
-        <v>0.9999689252808377</v>
+        <v>-3.107471916230509E-05</v>
       </c>
       <c r="W179">
-        <v>0.9997667366456731</v>
+        <v>-0.0002332633543269402</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14141,7 +14141,7 @@
         <v>0.9575359830797371</v>
       </c>
       <c r="K180">
-        <v>48.91537071892147</v>
+        <v>-0.01084629281078536</v>
       </c>
       <c r="L180">
         <v>0.00594638161982459</v>
@@ -14171,13 +14171,13 @@
         <v>-0.04250000000000398</v>
       </c>
       <c r="U180">
-        <v>1.000023322708544</v>
+        <v>2.332270854399354E-05</v>
       </c>
       <c r="V180">
-        <v>0.9999378486303391</v>
+        <v>-6.215136966092327E-05</v>
       </c>
       <c r="W180">
-        <v>0.9997666822211853</v>
+        <v>-0.0002333177788147456</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14212,7 +14212,7 @@
         <v>0.957535983079737</v>
       </c>
       <c r="K181">
-        <v>48.91537071892146</v>
+        <v>-0.01084629281078542</v>
       </c>
       <c r="L181">
         <v>0.004420733983644301</v>
@@ -14242,13 +14242,13 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="U181">
-        <v>1.000007774054869</v>
+        <v>7.774054869180702E-06</v>
       </c>
       <c r="V181">
-        <v>0.9998912283427861</v>
+        <v>-0.0001087716572139019</v>
       </c>
       <c r="W181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14283,7 +14283,7 @@
         <v>1.020434762186177</v>
       </c>
       <c r="K182">
-        <v>50.50570210354294</v>
+        <v>0.005057021035429488</v>
       </c>
       <c r="L182">
         <v>0.003076586832871053</v>
@@ -14313,13 +14313,13 @@
         <v>-0.04750000000001364</v>
       </c>
       <c r="U182">
-        <v>1.000015547988868</v>
+        <v>1.554798886771458E-05</v>
       </c>
       <c r="V182">
-        <v>0.9999222975073041</v>
+        <v>-7.770249269589691E-05</v>
       </c>
       <c r="W182">
-        <v>1.000233372228705</v>
+        <v>0.0002333722287046758</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14354,7 +14354,7 @@
         <v>0.9011110098513905</v>
       </c>
       <c r="K183">
-        <v>47.39917896334892</v>
+        <v>-0.02600821036651074</v>
       </c>
       <c r="L183">
         <v>0.001746987692062088</v>
@@ -14384,13 +14384,13 @@
         <v>-0.06125000000000114</v>
       </c>
       <c r="U183">
-        <v>1.000015547747132</v>
+        <v>1.554774713152796E-05</v>
       </c>
       <c r="V183">
-        <v>0.9998134995259781</v>
+        <v>-0.0001865004740219112</v>
       </c>
       <c r="W183">
-        <v>0.9995333644423706</v>
+        <v>-0.0004666355576293801</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14425,7 +14425,7 @@
         <v>0.8488679967625442</v>
       </c>
       <c r="K184">
-        <v>45.91285036297629</v>
+        <v>-0.04087149637023707</v>
       </c>
       <c r="L184">
         <v>0.0004196385249316063</v>
@@ -14455,13 +14455,13 @@
         <v>-0.06000000000001648</v>
       </c>
       <c r="U184">
-        <v>0.9999922262472986</v>
+        <v>-7.773752701445424E-06</v>
       </c>
       <c r="V184">
-        <v>0.9998134647370629</v>
+        <v>-0.0001865352629371042</v>
       </c>
       <c r="W184">
-        <v>0.999766573295985</v>
+        <v>-0.0002334267040150495</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14496,7 +14496,7 @@
         <v>0.909895600193724</v>
       </c>
       <c r="K185">
-        <v>47.64111714281302</v>
+        <v>-0.02358882857186978</v>
       </c>
       <c r="L185">
         <v>-0.0007383914956887406</v>
@@ -14526,13 +14526,13 @@
         <v>-0.05374999999999375</v>
       </c>
       <c r="U185">
-        <v>1.000007773813133</v>
+        <v>7.773813133216123E-06</v>
       </c>
       <c r="V185">
-        <v>0.999860072451375</v>
+        <v>-0.0001399275486250184</v>
       </c>
       <c r="W185">
-        <v>1.000233481204763</v>
+        <v>0.0002334812047630752</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14567,7 +14567,7 @@
         <v>0.8549725222639556</v>
       </c>
       <c r="K186">
-        <v>46.09084565956154</v>
+        <v>-0.03909154340438453</v>
       </c>
       <c r="L186">
         <v>-0.001802315811740622</v>
@@ -14597,13 +14597,13 @@
         <v>-0.05124999999999602</v>
       </c>
       <c r="U186">
-        <v>0.9999922262472986</v>
+        <v>-7.773752701445424E-06</v>
       </c>
       <c r="V186">
-        <v>0.9998445031876848</v>
+        <v>-0.0001554968123151923</v>
       </c>
       <c r="W186">
-        <v>0.999766573295985</v>
+        <v>-0.0002334267040150495</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14638,7 +14638,7 @@
         <v>0.8549725222639556</v>
       </c>
       <c r="K187">
-        <v>46.09084565956154</v>
+        <v>-0.03909154340438453</v>
       </c>
       <c r="L187">
         <v>-0.002734905653781834</v>
@@ -14668,13 +14668,13 @@
         <v>-0.04625000000000057</v>
       </c>
       <c r="U187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V187">
-        <v>0.999891135303266</v>
+        <v>-0.0001088646967339901</v>
       </c>
       <c r="W187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14709,7 +14709,7 @@
         <v>0.9218555756945996</v>
       </c>
       <c r="K188">
-        <v>47.96695377910597</v>
+        <v>-0.0203304622089403</v>
       </c>
       <c r="L188">
         <v>-0.003433654651382784</v>
@@ -14739,13 +14739,13 @@
         <v>-0.04124999999999091</v>
       </c>
       <c r="U188">
-        <v>1.000015547626266</v>
+        <v>1.554762626643225E-05</v>
       </c>
       <c r="V188">
-        <v>0.9999066772432457</v>
+        <v>-9.332275675433266E-05</v>
       </c>
       <c r="W188">
-        <v>1.000233481204763</v>
+        <v>0.0002334812047630752</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14780,7 +14780,7 @@
         <v>0.8612227275843775</v>
       </c>
       <c r="K189">
-        <v>46.27187895465533</v>
+        <v>-0.03728121045344673</v>
       </c>
       <c r="L189">
         <v>-0.004018660448433465</v>
@@ -14810,13 +14810,13 @@
         <v>-0.03750000000000853</v>
       </c>
       <c r="U189">
-        <v>0.9999689052309173</v>
+        <v>-3.109476908269571E-05</v>
       </c>
       <c r="V189">
-        <v>0.9999222237777468</v>
+        <v>-7.777622225324521E-05</v>
       </c>
       <c r="W189">
-        <v>0.999766573295985</v>
+        <v>-0.0002334267040150495</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14851,7 +14851,7 @@
         <v>0.9304570548750151</v>
       </c>
       <c r="K190">
-        <v>48.19879585123722</v>
+        <v>-0.01801204148762781</v>
       </c>
       <c r="L190">
         <v>-0.004397942229517654</v>
@@ -14881,13 +14881,13 @@
         <v>-0.03750000000000853</v>
       </c>
       <c r="U190">
-        <v>0.9999611303300036</v>
+        <v>-3.886966999644414E-05</v>
       </c>
       <c r="V190">
-        <v>0.9998599919106437</v>
+        <v>-0.0001400080893563249</v>
       </c>
       <c r="W190">
-        <v>1.000233481204763</v>
+        <v>0.0002334812047630752</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14922,7 +14922,7 @@
         <v>0.8120897174309042</v>
       </c>
       <c r="K191">
-        <v>44.81509439732636</v>
+        <v>-0.0518490560267364</v>
       </c>
       <c r="L191">
         <v>-0.004782291627899738</v>
@@ -14952,13 +14952,13 @@
         <v>-0.02875000000000227</v>
       </c>
       <c r="U191">
-        <v>0.9999689030552747</v>
+        <v>-3.109694472525071E-05</v>
       </c>
       <c r="V191">
-        <v>0.9998910895710486</v>
+        <v>-0.0001089104289514475</v>
       </c>
       <c r="W191">
-        <v>0.99953314659197</v>
+        <v>-0.000466853408029988</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14993,7 +14993,7 @@
         <v>0.7611284852303991</v>
       </c>
       <c r="K192">
-        <v>43.21822579178968</v>
+        <v>-0.06781774208210323</v>
       </c>
       <c r="L192">
         <v>-0.005212780494004515</v>
@@ -15023,13 +15023,13 @@
         <v>-0.02375000000000682</v>
       </c>
       <c r="U192">
-        <v>0.999961127610281</v>
+        <v>-3.887238971900242E-05</v>
       </c>
       <c r="V192">
-        <v>0.9999066380356644</v>
+        <v>-9.336196433562538E-05</v>
       </c>
       <c r="W192">
-        <v>0.9997664642690333</v>
+        <v>-0.0002335357309667385</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15064,7 +15064,7 @@
         <v>0.6723084630353635</v>
       </c>
       <c r="K193">
-        <v>40.20241946363615</v>
+        <v>-0.09797580536363854</v>
       </c>
       <c r="L193">
         <v>-0.005794744836932953</v>
@@ -15094,13 +15094,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U193">
-        <v>0.9999378017586553</v>
+        <v>-6.219824134467977E-05</v>
       </c>
       <c r="V193">
-        <v>0.9998755057578586</v>
+        <v>-0.0001244942421414486</v>
       </c>
       <c r="W193">
-        <v>0.9995328194347114</v>
+        <v>-0.0004671805652886052</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15135,7 +15135,7 @@
         <v>0.6723084630353634</v>
       </c>
       <c r="K194">
-        <v>40.20241946363615</v>
+        <v>-0.09797580536363854</v>
       </c>
       <c r="L194">
         <v>-0.00641036912207607</v>
@@ -15165,13 +15165,13 @@
         <v>-0.02624999999999034</v>
       </c>
       <c r="U194">
-        <v>0.9999300226260176</v>
+        <v>-6.997737398239945E-05</v>
       </c>
       <c r="V194">
-        <v>0.9998910539749736</v>
+        <v>-0.000108946025026424</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15206,7 +15206,7 @@
         <v>0.5953309066302671</v>
       </c>
       <c r="K195">
-        <v>37.31707974540235</v>
+        <v>-0.1268292025459765</v>
       </c>
       <c r="L195">
         <v>-0.007153798435703535</v>
@@ -15236,13 +15236,13 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="U195">
-        <v>0.9999066903051226</v>
+        <v>-9.330969487741925E-05</v>
       </c>
       <c r="V195">
-        <v>0.999875476690793</v>
+        <v>-0.0001245233092069808</v>
       </c>
       <c r="W195">
-        <v>0.9995326010750176</v>
+        <v>-0.0004673989249823762</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15277,7 +15277,7 @@
         <v>0.5614942639289197</v>
       </c>
       <c r="K196">
-        <v>35.95877851745213</v>
+        <v>-0.1404122148254787</v>
       </c>
       <c r="L196">
         <v>-0.007986304816336024</v>
@@ -15307,13 +15307,13 @@
         <v>-0.0387500000000216</v>
       </c>
       <c r="U196">
-        <v>0.9998755754634814</v>
+        <v>-0.0001244245365186192</v>
       </c>
       <c r="V196">
-        <v>0.9998598938306585</v>
+        <v>-0.0001401061693414585</v>
       </c>
       <c r="W196">
-        <v>0.9997661912555529</v>
+        <v>-0.0002338087444471171</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15348,7 +15348,7 @@
         <v>0.6811504693646137</v>
       </c>
       <c r="K197">
-        <v>40.51692467611496</v>
+        <v>-0.09483075323885037</v>
       </c>
       <c r="L197">
         <v>-0.008620838706993662</v>
@@ -15378,13 +15378,13 @@
         <v>-0.04250000000000398</v>
       </c>
       <c r="U197">
-        <v>0.9998988924838228</v>
+        <v>-0.0001011075161772013</v>
       </c>
       <c r="V197">
-        <v>0.9998754437317058</v>
+        <v>-0.0001245562682942181</v>
       </c>
       <c r="W197">
-        <v>1.000467726847521</v>
+        <v>0.000467726847521055</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15419,7 +15419,7 @@
         <v>0.6811504693646138</v>
       </c>
       <c r="K198">
-        <v>40.51692467611497</v>
+        <v>-0.09483075323885032</v>
       </c>
       <c r="L198">
         <v>-0.00906367733660657</v>
@@ -15449,13 +15449,13 @@
         <v>-0.04749999999999943</v>
       </c>
       <c r="U198">
-        <v>0.9998599908216207</v>
+        <v>-0.0001400091783793078</v>
       </c>
       <c r="V198">
-        <v>0.9999065711616317</v>
+        <v>-9.342883836827021E-05</v>
       </c>
       <c r="W198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15490,7 +15490,7 @@
         <v>0.6811504693646138</v>
       </c>
       <c r="K199">
-        <v>40.51692467611497</v>
+        <v>-0.09483075323885032</v>
       </c>
       <c r="L199">
         <v>-0.009329211737453016</v>
@@ -15520,13 +15520,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U199">
-        <v>0.9998677505931775</v>
+        <v>-0.0001322494068225488</v>
       </c>
       <c r="V199">
-        <v>0.9999221353598903</v>
+        <v>-7.786464010972605E-05</v>
       </c>
       <c r="W199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15561,7 +15561,7 @@
         <v>0.6811504693646138</v>
       </c>
       <c r="K200">
-        <v>40.51692467611497</v>
+        <v>-0.09483075323885032</v>
       </c>
       <c r="L200">
         <v>-0.009436478553784947</v>
@@ -15591,13 +15591,13 @@
         <v>-0.05124999999999602</v>
       </c>
       <c r="U200">
-        <v>0.9998832939126105</v>
+        <v>-0.000116706087389451</v>
       </c>
       <c r="V200">
-        <v>0.9999065551558195</v>
+        <v>-9.344484418050136E-05</v>
       </c>
       <c r="W200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15632,7 +15632,7 @@
         <v>0.6345413659698246</v>
       </c>
       <c r="K201">
-        <v>38.82075909368812</v>
+        <v>-0.1117924090631188</v>
       </c>
       <c r="L201">
         <v>-0.0094916933873173</v>
@@ -15662,13 +15662,13 @@
         <v>-0.04749999999999943</v>
       </c>
       <c r="U201">
-        <v>0.9998754989767571</v>
+        <v>-0.0001245010232429067</v>
       </c>
       <c r="V201">
-        <v>0.9999065464230642</v>
+        <v>-9.345357693579803E-05</v>
       </c>
       <c r="W201">
-        <v>0.9997662459093034</v>
+        <v>-0.0002337540906965918</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15703,7 +15703,7 @@
         <v>0.6345413659698246</v>
       </c>
       <c r="K202">
-        <v>38.82075909368812</v>
+        <v>-0.1117924090631188</v>
       </c>
       <c r="L202">
         <v>-0.00947734039556344</v>
@@ -15733,13 +15733,13 @@
         <v>-0.04500000000000171</v>
       </c>
       <c r="U202">
-        <v>0.9998988303228868</v>
+        <v>-0.0001011696771131554</v>
       </c>
       <c r="V202">
-        <v>0.9999065376886769</v>
+        <v>-9.346231132312255E-05</v>
       </c>
       <c r="W202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15774,7 +15774,7 @@
         <v>0.6345413659698246</v>
       </c>
       <c r="K203">
-        <v>38.82075909368812</v>
+        <v>-0.1117924090631188</v>
       </c>
       <c r="L203">
         <v>-0.00938728251712921</v>
@@ -15804,13 +15804,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U203">
-        <v>0.9998988200865478</v>
+        <v>-0.000101179913452154</v>
       </c>
       <c r="V203">
-        <v>0.9998909504447666</v>
+        <v>-0.000109049555233387</v>
       </c>
       <c r="W203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15845,7 +15845,7 @@
         <v>0.5471977493605296</v>
       </c>
       <c r="K204">
-        <v>35.36702076943243</v>
+        <v>-0.1463297923056757</v>
       </c>
       <c r="L204">
         <v>-0.009392991159635756</v>
@@ -15875,13 +15875,13 @@
         <v>-0.02875000000000227</v>
       </c>
       <c r="U204">
-        <v>0.9998988098481368</v>
+        <v>-0.0001011901518631619</v>
       </c>
       <c r="V204">
-        <v>0.9998753583447587</v>
+        <v>-0.0001246416552412866</v>
       </c>
       <c r="W204">
-        <v>0.9995323825111059</v>
+        <v>-0.0004676174888941231</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15916,7 +15916,7 @@
         <v>0.4495029525460209</v>
       </c>
       <c r="K205">
-        <v>31.01083386939493</v>
+        <v>-0.1898916613060507</v>
       </c>
       <c r="L205">
         <v>-0.009677320224258249</v>
@@ -15946,13 +15946,13 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="U205">
-        <v>0.9998365224431333</v>
+        <v>-0.0001634775568667424</v>
       </c>
       <c r="V205">
-        <v>0.9998130142109199</v>
+        <v>-0.0001869857890800519</v>
       </c>
       <c r="W205">
-        <v>0.999298245614035</v>
+        <v>-0.0007017543859649811</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15987,7 +15987,7 @@
         <v>0.5121473550774956</v>
       </c>
       <c r="K206">
-        <v>33.86887880720121</v>
+        <v>-0.1613112119279879</v>
       </c>
       <c r="L206">
         <v>-0.009992196736665024</v>
@@ -16017,13 +16017,13 @@
         <v>-0.02874999999998806</v>
       </c>
       <c r="U206">
-        <v>0.999875425305792</v>
+        <v>-0.0001245746942080128</v>
       </c>
       <c r="V206">
-        <v>0.9998597344305219</v>
+        <v>-0.0001402655694781041</v>
       </c>
       <c r="W206">
-        <v>1.000234082397004</v>
+        <v>0.000234082397003732</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16058,7 +16058,7 @@
         <v>0.5780888314264634</v>
       </c>
       <c r="K207">
-        <v>36.63221105898825</v>
+        <v>-0.1336778894101174</v>
       </c>
       <c r="L207">
         <v>-0.01018418154914207</v>
@@ -16088,13 +16088,13 @@
         <v>-0.02875000000001648</v>
       </c>
       <c r="U207">
-        <v>0.9998987704503158</v>
+        <v>-0.0001012295496841675</v>
       </c>
       <c r="V207">
-        <v>0.9998908892525914</v>
+        <v>-0.0001091107474086028</v>
       </c>
       <c r="W207">
-        <v>1.000234027615259</v>
+        <v>0.0002340276152588139</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16129,7 +16129,7 @@
         <v>0.5780888314264634</v>
       </c>
       <c r="K208">
-        <v>36.63221105898825</v>
+        <v>-0.1336778894101174</v>
       </c>
       <c r="L208">
         <v>-0.01025245018973237</v>
@@ -16159,13 +16159,13 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="U208">
-        <v>0.9998987602018564</v>
+        <v>-0.000101239798143582</v>
       </c>
       <c r="V208">
-        <v>0.9999220552472409</v>
+        <v>-7.794475275912927E-05</v>
       </c>
       <c r="W208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16200,7 +16200,7 @@
         <v>0.5387265860703235</v>
       </c>
       <c r="K209">
-        <v>35.01119633255641</v>
+        <v>-0.1498880366744359</v>
       </c>
       <c r="L209">
         <v>-0.01028919065757951</v>
@@ -16230,13 +16230,13 @@
         <v>-0.03249999999999886</v>
       </c>
       <c r="U209">
-        <v>0.9998987499513222</v>
+        <v>-0.0001012500486777812</v>
       </c>
       <c r="V209">
-        <v>0.9999064590056591</v>
+        <v>-9.354099434089047E-05</v>
       </c>
       <c r="W209">
-        <v>0.9997660271408515</v>
+        <v>-0.0002339728591485013</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16271,7 +16271,7 @@
         <v>0.5026963264577625</v>
       </c>
       <c r="K210">
-        <v>33.45295503867675</v>
+        <v>-0.1654704496132325</v>
       </c>
       <c r="L210">
         <v>-0.01035215668578066</v>
@@ -16301,13 +16301,13 @@
         <v>-0.03625000000000966</v>
       </c>
       <c r="U210">
-        <v>0.9998987396987116</v>
+        <v>-0.0001012603012884306</v>
       </c>
       <c r="V210">
-        <v>0.9999220418791025</v>
+        <v>-7.795812089750331E-05</v>
       </c>
       <c r="W210">
-        <v>0.9997659723847414</v>
+        <v>-0.0002340276152585918</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16342,7 +16342,7 @@
         <v>0.643497207819561</v>
       </c>
       <c r="K211">
-        <v>39.15414061903356</v>
+        <v>-0.1084585938096644</v>
       </c>
       <c r="L211">
         <v>-0.01021921427092851</v>
@@ -16372,13 +16372,13 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="U211">
-        <v>0.9999143095295595</v>
+        <v>-8.56904704404915E-05</v>
       </c>
       <c r="V211">
-        <v>0.999968814320464</v>
+        <v>-3.118567953597218E-05</v>
       </c>
       <c r="W211">
-        <v>1.000468164794007</v>
+        <v>0.000468164794007464</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16413,7 +16413,7 @@
         <v>0.6434972078195611</v>
       </c>
       <c r="K212">
-        <v>39.15414061903356</v>
+        <v>-0.1084585938096644</v>
       </c>
       <c r="L212">
         <v>-0.009938845833521255</v>
@@ -16443,13 +16443,13 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="U212">
-        <v>0.9999065114757162</v>
+        <v>-9.348852428381349E-05</v>
       </c>
       <c r="V212">
-        <v>0.9999376266957744</v>
+        <v>-6.237330422564913E-05</v>
       </c>
       <c r="W212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16484,7 +16484,7 @@
         <v>0.7215032362748235</v>
       </c>
       <c r="K213">
-        <v>41.91123322173306</v>
+        <v>-0.08088766778266943</v>
       </c>
       <c r="L213">
         <v>-0.009465734336048078</v>
@@ -16514,13 +16514,13 @@
         <v>-0.02875000000000227</v>
       </c>
       <c r="U213">
-        <v>0.9999298770510963</v>
+        <v>-7.012294890373916E-05</v>
       </c>
       <c r="V213">
-        <v>0.9999532171038268</v>
+        <v>-4.678289617321418E-05</v>
       </c>
       <c r="W213">
-        <v>1.000233972859148</v>
+        <v>0.0002339728591482793</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16555,7 +16555,7 @@
         <v>0.6667549172751873</v>
       </c>
       <c r="K214">
-        <v>40.00317685369119</v>
+        <v>-0.09996823146308814</v>
       </c>
       <c r="L214">
         <v>-0.008956608598624747</v>
@@ -16585,13 +16585,13 @@
         <v>-0.02125000000000909</v>
       </c>
       <c r="U214">
-        <v>0.9999298721335235</v>
+        <v>-7.012786647653257E-05</v>
       </c>
       <c r="V214">
-        <v>0.9999376198867802</v>
+        <v>-6.238011321979542E-05</v>
       </c>
       <c r="W214">
-        <v>0.9997660818713451</v>
+        <v>-0.0002339181286549197</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16626,7 +16626,7 @@
         <v>0.6667549172751872</v>
       </c>
       <c r="K215">
-        <v>40.00317685369118</v>
+        <v>-0.0999682314630882</v>
       </c>
       <c r="L215">
         <v>-0.008425492155716063</v>
@@ -16656,13 +16656,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U215">
-        <v>0.9999220746836229</v>
+        <v>-7.79253163770699E-05</v>
       </c>
       <c r="V215">
-        <v>0.9999376159952588</v>
+        <v>-6.238400474123384E-05</v>
       </c>
       <c r="W215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16697,7 +16697,7 @@
         <v>0.6667549172751872</v>
       </c>
       <c r="K216">
-        <v>40.00317685369118</v>
+        <v>-0.0999682314630882</v>
       </c>
       <c r="L216">
         <v>-0.007884215284538885</v>
@@ -16727,13 +16727,13 @@
         <v>-0.01124999999998977</v>
       </c>
       <c r="U216">
-        <v>0.9999298617497158</v>
+        <v>-7.013825028423515E-05</v>
       </c>
       <c r="V216">
-        <v>0.9999532090774391</v>
+        <v>-4.67909225608798E-05</v>
       </c>
       <c r="W216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16768,7 +16768,7 @@
         <v>0.6667549172751873</v>
       </c>
       <c r="K217">
-        <v>40.00317685369119</v>
+        <v>-0.09996823146308814</v>
       </c>
       <c r="L217">
         <v>-0.007342563149162674</v>
@@ -16798,13 +16798,13 @@
         <v>-0.004999999999995453</v>
       </c>
       <c r="U217">
-        <v>0.9999298568299964</v>
+        <v>-7.014317000364478E-05</v>
       </c>
       <c r="V217">
-        <v>0.9999532068879461</v>
+        <v>-4.679311205391112E-05</v>
       </c>
       <c r="W217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16839,7 +16839,7 @@
         <v>0.6667549172751872</v>
       </c>
       <c r="K218">
-        <v>40.00317685369118</v>
+        <v>-0.0999682314630882</v>
       </c>
       <c r="L218">
         <v>-0.006808460070615784</v>
@@ -16869,13 +16869,13 @@
         <v>0.0037500000000108</v>
       </c>
       <c r="U218">
-        <v>0.9999220576773187</v>
+        <v>-7.794232268132362E-05</v>
       </c>
       <c r="V218">
-        <v>0.9999532046982484</v>
+        <v>-4.679530175155655E-05</v>
       </c>
       <c r="W218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16910,7 +16910,7 @@
         <v>0.6072089139106924</v>
       </c>
       <c r="K219">
-        <v>37.7803351297511</v>
+        <v>-0.122196648702489</v>
       </c>
       <c r="L219">
         <v>-0.006373312515254711</v>
@@ -16940,13 +16940,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U219">
-        <v>0.9999220516018397</v>
+        <v>-7.794839816033239E-05</v>
       </c>
       <c r="V219">
-        <v>0.9999688016722303</v>
+        <v>-3.119832776965481E-05</v>
       </c>
       <c r="W219">
-        <v>0.9997660271408515</v>
+        <v>-0.0002339728591485013</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16981,7 +16981,7 @@
         <v>0.8892315968375616</v>
       </c>
       <c r="K220">
-        <v>47.06842709628992</v>
+        <v>-0.02931572903710078</v>
       </c>
       <c r="L220">
         <v>-0.00574721132824684</v>
@@ -17011,13 +17011,13 @@
         <v>0.009999999999990905</v>
       </c>
       <c r="U220">
-        <v>0.9999376364203306</v>
+        <v>-6.236357966937778E-05</v>
       </c>
       <c r="V220">
-        <v>1.000062398602271</v>
+        <v>6.239860227119642E-05</v>
       </c>
       <c r="W220">
-        <v>1.000702082845776</v>
+        <v>0.0007020828457757755</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17052,7 +17052,7 @@
         <v>0.7423187976160368</v>
       </c>
       <c r="K221">
-        <v>42.60522234115419</v>
+        <v>-0.07394777658845814</v>
       </c>
       <c r="L221">
         <v>-0.005194659312687786</v>
@@ -17082,13 +17082,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U221">
-        <v>0.9999376325308719</v>
+        <v>-6.236746912813285E-05</v>
       </c>
       <c r="V221">
-        <v>1.000015598677232</v>
+        <v>1.559867723210928E-05</v>
       </c>
       <c r="W221">
-        <v>0.9995322731524791</v>
+        <v>-0.000467726847520944</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17123,7 +17123,7 @@
         <v>0.7423187976160367</v>
       </c>
       <c r="K222">
-        <v>42.60522234115419</v>
+        <v>-0.07394777658845814</v>
       </c>
       <c r="L222">
         <v>-0.004702963080122672</v>
@@ -17153,13 +17153,13 @@
         <v>0.0037500000000108</v>
       </c>
       <c r="U222">
-        <v>0.9999454250608121</v>
+        <v>-5.457493918792355E-05</v>
       </c>
       <c r="V222">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17194,7 +17194,7 @@
         <v>0.7423187976160367</v>
       </c>
       <c r="K223">
-        <v>42.60522234115419</v>
+        <v>-0.07394777658845814</v>
       </c>
       <c r="L223">
         <v>-0.00426234414633042</v>
@@ -17224,13 +17224,13 @@
         <v>0.0037500000000108</v>
       </c>
       <c r="U223">
-        <v>0.9999610157730183</v>
+        <v>-3.898422698167536E-05</v>
       </c>
       <c r="V223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17265,7 +17265,7 @@
         <v>0.6770830179117107</v>
       </c>
       <c r="K224">
-        <v>40.37265959289294</v>
+        <v>-0.09627340407107066</v>
       </c>
       <c r="L224">
         <v>-0.003950391541764563</v>
@@ -17295,13 +17295,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U224">
-        <v>0.9999532171038268</v>
+        <v>-4.678289617321418E-05</v>
       </c>
       <c r="V224">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W224">
-        <v>0.9997660271408515</v>
+        <v>-0.0002339728591485013</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17336,7 +17336,7 @@
         <v>0.7695894208406937</v>
       </c>
       <c r="K225">
-        <v>43.48971641540886</v>
+        <v>-0.06510283584591142</v>
       </c>
       <c r="L225">
         <v>-0.003636727066280758</v>
@@ -17366,13 +17366,13 @@
         <v>0.001249999999984652</v>
       </c>
       <c r="U225">
-        <v>0.9999766074575426</v>
+        <v>-2.339254245742328E-05</v>
       </c>
       <c r="V225">
-        <v>1.000031196867835</v>
+        <v>3.119686783459308E-05</v>
       </c>
       <c r="W225">
-        <v>1.000234027615259</v>
+        <v>0.0002340276152588139</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17407,7 +17407,7 @@
         <v>0.8669645818185014</v>
       </c>
       <c r="K226">
-        <v>46.43711992511619</v>
+        <v>-0.03562880074883812</v>
       </c>
       <c r="L226">
         <v>-0.003243598036636969</v>
@@ -17437,13 +17437,13 @@
         <v>-1.4210854715202E-14</v>
       </c>
       <c r="U226">
-        <v>0.9999922023034397</v>
+        <v>-7.797696560341016E-06</v>
       </c>
       <c r="V226">
-        <v>1.00001559794731</v>
+        <v>1.559794731020858E-05</v>
       </c>
       <c r="W226">
-        <v>1.000233972859148</v>
+        <v>0.0002339728591482793</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17478,7 +17478,7 @@
         <v>0.8669645818185014</v>
       </c>
       <c r="K227">
-        <v>46.43711992511619</v>
+        <v>-0.03562880074883812</v>
       </c>
       <c r="L227">
         <v>-0.00281555658269456</v>
@@ -17508,13 +17508,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U227">
-        <v>0.9999766067279051</v>
+        <v>-2.339327209488484E-05</v>
       </c>
       <c r="V227">
-        <v>1.000015597704018</v>
+        <v>1.559770401771132E-05</v>
       </c>
       <c r="W227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17549,7 +17549,7 @@
         <v>1.082754412240313</v>
       </c>
       <c r="K228">
-        <v>51.98665795049974</v>
+        <v>0.01986657950499737</v>
       </c>
       <c r="L228">
         <v>-0.002213029301287433</v>
@@ -17579,13 +17579,13 @@
         <v>0.002500000000011937</v>
       </c>
       <c r="U228">
-        <v>0.9999922020602154</v>
+        <v>-7.79793978455956E-06</v>
       </c>
       <c r="V228">
-        <v>1.000031194921467</v>
+        <v>3.119492146685943E-05</v>
       </c>
       <c r="W228">
-        <v>1.00046783625731</v>
+        <v>0.0004678362573100614</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17620,7 +17620,7 @@
         <v>1.19632800719912</v>
       </c>
       <c r="K229">
-        <v>54.46946008418589</v>
+        <v>0.04469460084185894</v>
       </c>
       <c r="L229">
         <v>-0.001449935705970482</v>
@@ -17650,13 +17650,13 @@
         <v>0.008749999999992042</v>
       </c>
       <c r="U229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V229">
-        <v>1.000062387896748</v>
+        <v>6.238789674806178E-05</v>
       </c>
       <c r="W229">
-        <v>1.000233808744447</v>
+        <v>0.000233808744446895</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17691,7 +17691,7 @@
         <v>1.19632800719912</v>
       </c>
       <c r="K230">
-        <v>54.46946008418589</v>
+        <v>0.04469460084185894</v>
       </c>
       <c r="L230">
         <v>-0.0006329037176719287</v>
@@ -17721,13 +17721,13 @@
         <v>0.01375000000000171</v>
       </c>
       <c r="U230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V230">
-        <v>1.000062384004741</v>
+        <v>6.238400474112282E-05</v>
       </c>
       <c r="W230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17762,7 +17762,7 @@
         <v>1.062606126026705</v>
       </c>
       <c r="K231">
-        <v>51.5176461767644</v>
+        <v>0.01517646176764398</v>
       </c>
       <c r="L231">
         <v>8.186391689825587E-05</v>
@@ -17792,13 +17792,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U231">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V231">
-        <v>1.000046785084915</v>
+        <v>4.678508491506861E-05</v>
       </c>
       <c r="W231">
-        <v>0.9997662459093034</v>
+        <v>-0.0002337540906965918</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17833,7 +17833,7 @@
         <v>1.062606126026705</v>
       </c>
       <c r="K232">
-        <v>51.51764617676439</v>
+        <v>0.01517646176764387</v>
       </c>
       <c r="L232">
         <v>0.0006888214615255607</v>
@@ -17863,13 +17863,13 @@
         <v>0.02375000000000682</v>
       </c>
       <c r="U232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V232">
-        <v>1.000046782896173</v>
+        <v>4.678289617299214E-05</v>
       </c>
       <c r="W232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17904,7 +17904,7 @@
         <v>0.7105783351262415</v>
       </c>
       <c r="K233">
-        <v>41.54023937604707</v>
+        <v>-0.08459760623952933</v>
       </c>
       <c r="L233">
         <v>0.0008485541071971374</v>
@@ -17934,13 +17934,13 @@
         <v>0.02250000000000796</v>
       </c>
       <c r="U233">
-        <v>0.9999688079976295</v>
+        <v>-3.119200237045039E-05</v>
       </c>
       <c r="V233">
-        <v>0.9999844064307879</v>
+        <v>-1.559356921210231E-05</v>
       </c>
       <c r="W233">
-        <v>0.9990647650222116</v>
+        <v>-0.0009352349777883573</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17975,7 +17975,7 @@
         <v>0.7977591729486766</v>
       </c>
       <c r="K234">
-        <v>44.37519690917196</v>
+        <v>-0.0562480309082804</v>
       </c>
       <c r="L234">
         <v>0.0008092593748281046</v>
@@ -18005,13 +18005,13 @@
         <v>0.02000000000001023</v>
       </c>
       <c r="U234">
-        <v>0.9999922017561642</v>
+        <v>-7.798243835788199E-06</v>
       </c>
       <c r="V234">
-        <v>1.000015593812375</v>
+        <v>1.559381237536961E-05</v>
       </c>
       <c r="W234">
-        <v>1.000234027615259</v>
+        <v>0.0002340276152588139</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18046,7 +18046,7 @@
         <v>0.7307030622474631</v>
       </c>
       <c r="K235">
-        <v>42.2200132527982</v>
+        <v>-0.07779986747201806</v>
       </c>
       <c r="L235">
         <v>0.0005637723188935573</v>
@@ -18076,13 +18076,13 @@
         <v>0.01500000000001478</v>
       </c>
       <c r="U235">
-        <v>1.000007798304649</v>
+        <v>7.798304648698462E-06</v>
       </c>
       <c r="V235">
-        <v>0.9999532192923639</v>
+        <v>-4.678070763608488E-05</v>
       </c>
       <c r="W235">
-        <v>0.9997660271408515</v>
+        <v>-0.0002339728591485013</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18117,7 +18117,7 @@
         <v>0.7307030622474631</v>
       </c>
       <c r="K236">
-        <v>42.2200132527982</v>
+        <v>-0.07779986747201806</v>
       </c>
       <c r="L236">
         <v>0.0002069632985002654</v>
@@ -18147,13 +18147,13 @@
         <v>0.008749999999992042</v>
       </c>
       <c r="U236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V236">
-        <v>0.9999844057012756</v>
+        <v>-1.559429872444174E-05</v>
       </c>
       <c r="W236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18188,7 +18188,7 @@
         <v>0.6684463870511783</v>
       </c>
       <c r="K237">
-        <v>40.06400159088086</v>
+        <v>-0.09935998409119134</v>
       </c>
       <c r="L237">
         <v>-0.0002804802537000295</v>
@@ -18218,13 +18218,13 @@
         <v>-0.003749999999982379</v>
       </c>
       <c r="U237">
-        <v>0.999984403512329</v>
+        <v>-1.559648767102129E-05</v>
       </c>
       <c r="V237">
-        <v>0.9999688109161792</v>
+        <v>-3.118908382082619E-05</v>
       </c>
       <c r="W237">
-        <v>0.9997659723847414</v>
+        <v>-0.0002340276152585918</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18259,7 +18259,7 @@
         <v>0.6684463870511783</v>
       </c>
       <c r="K238">
-        <v>40.06400159088086</v>
+        <v>-0.09935998409119134</v>
       </c>
       <c r="L238">
         <v>-0.0008149868039170927</v>
@@ -18289,13 +18289,13 @@
         <v>-0.01625000000001364</v>
       </c>
       <c r="U238">
-        <v>0.9999844032690748</v>
+        <v>-1.559673092521585E-05</v>
       </c>
       <c r="V238">
-        <v>0.9999688099433903</v>
+        <v>-3.119005660967566E-05</v>
       </c>
       <c r="W238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18330,7 +18330,7 @@
         <v>0.6107848710061157</v>
       </c>
       <c r="K239">
-        <v>37.91846335287543</v>
+        <v>-0.1208153664712457</v>
       </c>
       <c r="L239">
         <v>-0.001426163982514044</v>
@@ -18360,13 +18360,13 @@
         <v>-0.02750000000000341</v>
       </c>
       <c r="U239">
-        <v>0.9999844030258129</v>
+        <v>-1.559697418707096E-05</v>
       </c>
       <c r="V239">
-        <v>0.9999688089705401</v>
+        <v>-3.119102945992047E-05</v>
       </c>
       <c r="W239">
-        <v>0.9997659176029963</v>
+        <v>-0.000234082397003732</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18401,7 +18401,7 @@
         <v>0.4800234622186715</v>
       </c>
       <c r="K240">
-        <v>32.43350355399627</v>
+        <v>-0.1756649644600373</v>
       </c>
       <c r="L240">
         <v>-0.002295204091337608</v>
@@ -18431,13 +18431,13 @@
         <v>-0.04375000000000284</v>
       </c>
       <c r="U240">
-        <v>0.9999688055650873</v>
+        <v>-3.119443491272911E-05</v>
       </c>
       <c r="V240">
-        <v>0.9999064239928881</v>
+        <v>-9.357600711190628E-05</v>
       </c>
       <c r="W240">
-        <v>0.9992975883867946</v>
+        <v>-0.0007024116132053893</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18472,7 +18472,7 @@
         <v>0.4800234622186715</v>
       </c>
       <c r="K241">
-        <v>32.43350355399627</v>
+        <v>-0.1756649644600373</v>
       </c>
       <c r="L241">
         <v>-0.003256770765974389</v>
@@ -18502,13 +18502,13 @@
         <v>-0.04875000000001251</v>
       </c>
       <c r="U241">
-        <v>0.9999532068879459</v>
+        <v>-4.679311205413317E-05</v>
       </c>
       <c r="V241">
-        <v>0.9998908177748664</v>
+        <v>-0.0001091822251335639</v>
       </c>
       <c r="W241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18543,7 +18543,7 @@
         <v>0.3879867658621693</v>
       </c>
       <c r="K242">
-        <v>27.95320354666102</v>
+        <v>-0.2204679645333898</v>
       </c>
       <c r="L242">
         <v>-0.004456865840224955</v>
@@ -18573,13 +18573,13 @@
         <v>-0.05875000000000341</v>
       </c>
       <c r="U242">
-        <v>0.9999298070473724</v>
+        <v>-7.019295262755687E-05</v>
       </c>
       <c r="V242">
-        <v>0.9998440083611518</v>
+        <v>-0.000155991638848163</v>
       </c>
       <c r="W242">
-        <v>0.9992970946579194</v>
+        <v>-0.0007029053420806175</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18614,7 +18614,7 @@
         <v>0.4552617642959529</v>
       </c>
       <c r="K243">
-        <v>31.28384016302427</v>
+        <v>-0.1871615983697573</v>
       </c>
       <c r="L243">
         <v>-0.005623681214600297</v>
@@ -18644,13 +18644,13 @@
         <v>-0.06500000000001194</v>
       </c>
       <c r="U243">
-        <v>0.9999298021199762</v>
+        <v>-7.019788002382565E-05</v>
       </c>
       <c r="V243">
-        <v>0.9998283824263604</v>
+        <v>-0.0001716175736395931</v>
       </c>
       <c r="W243">
-        <v>1.000234466588511</v>
+        <v>0.0002344665885110064</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18685,7 +18685,7 @@
         <v>0.39878168579624</v>
       </c>
       <c r="K244">
-        <v>28.50921554418538</v>
+        <v>-0.2149078445581462</v>
       </c>
       <c r="L244">
         <v>-0.006845989173040404</v>
@@ -18715,13 +18715,13 @@
         <v>-0.07124999999999204</v>
       </c>
       <c r="U244">
-        <v>0.9999219968798753</v>
+        <v>-7.800312012473665E-05</v>
       </c>
       <c r="V244">
-        <v>0.9997815401419986</v>
+        <v>-0.0002184598580013963</v>
       </c>
       <c r="W244">
-        <v>0.9995311767463667</v>
+        <v>-0.0004688232536332881</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18756,7 +18756,7 @@
         <v>0.4640767741089667</v>
       </c>
       <c r="K245">
-        <v>31.69757094134647</v>
+        <v>-0.1830242905865353</v>
       </c>
       <c r="L245">
         <v>-0.007914040549536929</v>
@@ -18786,13 +18786,13 @@
         <v>-0.07249999999999091</v>
       </c>
       <c r="U245">
-        <v>0.9999297917154224</v>
+        <v>-7.020828457759976E-05</v>
       </c>
       <c r="V245">
-        <v>0.9997971000920854</v>
+        <v>-0.0002028999079145555</v>
       </c>
       <c r="W245">
-        <v>1.000234521575985</v>
+        <v>0.000234521575984914</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18827,7 +18827,7 @@
         <v>0.5328084460171001</v>
       </c>
       <c r="K246">
-        <v>34.76027597587729</v>
+        <v>-0.1523972402412271</v>
       </c>
       <c r="L246">
         <v>-0.00870667110812084</v>
@@ -18857,13 +18857,13 @@
         <v>-0.07250000000000512</v>
       </c>
       <c r="U246">
-        <v>0.9999375882541094</v>
+        <v>-6.241174589061149E-05</v>
       </c>
       <c r="V246">
-        <v>0.9998282806206876</v>
+        <v>-0.0001717193793123739</v>
       </c>
       <c r="W246">
-        <v>1.000234466588511</v>
+        <v>0.0002344665885110064</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18898,7 +18898,7 @@
         <v>0.4968609867288881</v>
       </c>
       <c r="K247">
-        <v>33.19352906743102</v>
+        <v>-0.1680647093256898</v>
       </c>
       <c r="L247">
         <v>-0.009335516063527453</v>
@@ -18928,13 +18928,13 @@
         <v>-0.07250000000000512</v>
       </c>
       <c r="U247">
-        <v>0.9999297824034703</v>
+        <v>-7.021759652969806E-05</v>
       </c>
       <c r="V247">
-        <v>0.9998126375942669</v>
+        <v>-0.000187362405733138</v>
       </c>
       <c r="W247">
-        <v>0.9997655883731834</v>
+        <v>-0.0002344116268165886</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18969,7 +18969,7 @@
         <v>0.4968609867288881</v>
       </c>
       <c r="K248">
-        <v>33.19352906743102</v>
+        <v>-0.1680647093256898</v>
       </c>
       <c r="L248">
         <v>-0.009791152321234788</v>
@@ -18999,13 +18999,13 @@
         <v>-0.06499999999999773</v>
       </c>
       <c r="U248">
-        <v>0.9999297774726134</v>
+        <v>-7.022252738664303E-05</v>
       </c>
       <c r="V248">
-        <v>0.9998750683220112</v>
+        <v>-0.000124931677988771</v>
       </c>
       <c r="W248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19040,7 +19040,7 @@
         <v>0.7211309665977765</v>
       </c>
       <c r="K249">
-        <v>41.89866899107991</v>
+        <v>-0.08101331008920093</v>
       </c>
       <c r="L249">
         <v>-0.009821547789143271</v>
@@ -19070,13 +19070,13 @@
         <v>-0.05875000000000341</v>
       </c>
       <c r="U249">
-        <v>0.9999609847450351</v>
+        <v>-3.901525496485814E-05</v>
       </c>
       <c r="V249">
-        <v>0.9999062895341029</v>
+        <v>-9.371046589712329E-05</v>
       </c>
       <c r="W249">
-        <v>1.000703399765533</v>
+        <v>0.0007033997655334634</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19111,7 +19111,7 @@
         <v>0.6685239970015092</v>
       </c>
       <c r="K250">
-        <v>40.06678946199805</v>
+        <v>-0.09933210538001952</v>
       </c>
       <c r="L250">
         <v>-0.009641818868499347</v>
@@ -19141,13 +19141,13 @@
         <v>-0.04500000000000171</v>
       </c>
       <c r="U250">
-        <v>0.9999297698010144</v>
+        <v>-7.023019898555471E-05</v>
       </c>
       <c r="V250">
-        <v>0.9999062807516282</v>
+        <v>-9.371924837175971E-05</v>
       </c>
       <c r="W250">
-        <v>0.9997656982193065</v>
+        <v>-0.0002343017806935022</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19182,7 +19182,7 @@
         <v>0.6208489137430265</v>
       </c>
       <c r="K251">
-        <v>38.30393496142094</v>
+        <v>-0.1169606503857906</v>
       </c>
       <c r="L251">
         <v>-0.009396369171044151</v>
@@ -19212,13 +19212,13 @@
         <v>-0.03624999999999545</v>
       </c>
       <c r="U251">
-        <v>0.9999375687718998</v>
+        <v>-6.243122810023483E-05</v>
       </c>
       <c r="V251">
-        <v>0.9998906506287589</v>
+        <v>-0.0001093493712410742</v>
       </c>
       <c r="W251">
-        <v>0.9997656433091163</v>
+        <v>-0.0002343566908836747</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19253,7 +19253,7 @@
         <v>0.6208489137430264</v>
       </c>
       <c r="K252">
-        <v>38.30393496142093</v>
+        <v>-0.1169606503857907</v>
       </c>
       <c r="L252">
         <v>-0.00909254532234526</v>
@@ -19283,13 +19283,13 @@
         <v>-0.02249999999997954</v>
       </c>
       <c r="U252">
-        <v>0.999937564873998</v>
+        <v>-6.243512600201395E-05</v>
       </c>
       <c r="V252">
-        <v>0.9999062617172854</v>
+        <v>-9.373828271463935E-05</v>
       </c>
       <c r="W252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19324,7 +19324,7 @@
         <v>0.9369217982146449</v>
       </c>
       <c r="K253">
-        <v>48.37168950642464</v>
+        <v>-0.01628310493575358</v>
       </c>
       <c r="L253">
         <v>-0.008398575632466094</v>
@@ -19354,13 +19354,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U253">
-        <v>0.9999687804878048</v>
+        <v>-3.121951219520192E-05</v>
       </c>
       <c r="V253">
-        <v>0.9999687509765319</v>
+        <v>-3.124902346807179E-05</v>
       </c>
       <c r="W253">
-        <v>1.000937646507267</v>
+        <v>0.0009376465072667983</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19395,7 +19395,7 @@
         <v>0.9369217982146449</v>
       </c>
       <c r="K254">
-        <v>48.37168950642464</v>
+        <v>-0.01628310493575358</v>
       </c>
       <c r="L254">
         <v>-0.007481790486341629</v>
@@ -19425,13 +19425,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U254">
-        <v>0.9999765846348374</v>
+        <v>-2.341536516259346E-05</v>
       </c>
       <c r="V254">
-        <v>0.9999843750000001</v>
+        <v>-1.562499999985256E-05</v>
       </c>
       <c r="W254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19466,7 +19466,7 @@
         <v>0.8614938619536019</v>
       </c>
       <c r="K255">
-        <v>46.27970468027655</v>
+        <v>-0.03720295319723449</v>
       </c>
       <c r="L255">
         <v>-0.006546400977097454</v>
@@ -19496,13 +19496,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U255">
-        <v>0.9999609734775754</v>
+        <v>-3.902652242460114E-05</v>
       </c>
       <c r="V255">
-        <v>1.000015625244144</v>
+        <v>1.562524414433497E-05</v>
       </c>
       <c r="W255">
-        <v>0.9997658079625291</v>
+        <v>-0.0002341920374708817</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19537,7 +19537,7 @@
         <v>0.7941914706322796</v>
       </c>
       <c r="K256">
-        <v>44.26458845846611</v>
+        <v>-0.05735411541533886</v>
       </c>
       <c r="L256">
         <v>-0.00572076343615448</v>
@@ -19567,13 +19567,13 @@
         <v>0.02499999999999147</v>
       </c>
       <c r="U256">
-        <v>0.9999453607362249</v>
+        <v>-5.463926377513584E-05</v>
       </c>
       <c r="V256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W256">
-        <v>0.9997657531037715</v>
+        <v>-0.0002342468962285293</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19608,7 +19608,7 @@
         <v>0.7338440798226282</v>
       </c>
       <c r="K257">
-        <v>42.32468699825075</v>
+        <v>-0.07675313001749251</v>
       </c>
       <c r="L257">
         <v>-0.005078683459120016</v>
@@ -19638,13 +19638,13 @@
         <v>0.02375000000000682</v>
       </c>
       <c r="U257">
-        <v>0.9999375517149861</v>
+        <v>-6.24482850138941E-05</v>
       </c>
       <c r="V257">
-        <v>1.00003125</v>
+        <v>3.125000000014921E-05</v>
       </c>
       <c r="W257">
-        <v>0.9997656982193065</v>
+        <v>-0.0002343017806935022</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19679,7 +19679,7 @@
         <v>0.6326403422111766</v>
       </c>
       <c r="K258">
-        <v>38.74952283454886</v>
+        <v>-0.1125047716545114</v>
       </c>
       <c r="L258">
         <v>-0.004740823667141627</v>
@@ -19709,13 +19709,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U258">
-        <v>0.9999063217224313</v>
+        <v>-9.367827756867619E-05</v>
       </c>
       <c r="V258">
-        <v>0.999984375488266</v>
+        <v>-1.562451173398038E-05</v>
       </c>
       <c r="W258">
-        <v>0.9995312866182329</v>
+        <v>-0.0004687133817671274</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19750,7 +19750,7 @@
         <v>0.7052240510986477</v>
       </c>
       <c r="K259">
-        <v>41.35667982423093</v>
+        <v>-0.0864332017576907</v>
       </c>
       <c r="L259">
         <v>-0.004506279808682383</v>
@@ -19780,13 +19780,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U259">
-        <v>0.9999063129459893</v>
+        <v>-9.368705401069377E-05</v>
       </c>
       <c r="V259">
-        <v>1.000031249511727</v>
+        <v>3.124951172650547E-05</v>
       </c>
       <c r="W259">
-        <v>1.000234466588511</v>
+        <v>0.0002344665885110064</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19821,7 +19821,7 @@
         <v>0.7816279551907768</v>
       </c>
       <c r="K260">
-        <v>43.87155875689434</v>
+        <v>-0.06128441243105665</v>
       </c>
       <c r="L260">
         <v>-0.004247582089903724</v>
@@ -19851,13 +19851,13 @@
         <v>0.01749999999998408</v>
       </c>
       <c r="U260">
-        <v>0.9999141121539111</v>
+        <v>-8.588784608887234E-05</v>
       </c>
       <c r="V260">
-        <v>1.000031248535225</v>
+        <v>3.124853522495918E-05</v>
       </c>
       <c r="W260">
-        <v>1.000234411626817</v>
+        <v>0.0002344116268166996</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19892,7 +19892,7 @@
         <v>0.8620531173929609</v>
       </c>
       <c r="K261">
-        <v>46.29583921858854</v>
+        <v>-0.03704160781411459</v>
       </c>
       <c r="L261">
         <v>-0.003889967169247421</v>
@@ -19922,13 +19922,13 @@
         <v>0.008749999999992042</v>
       </c>
       <c r="U261">
-        <v>0.9999297220899087</v>
+        <v>-7.027791009128759E-05</v>
       </c>
       <c r="V261">
-        <v>1.000031247558784</v>
+        <v>3.124755878425312E-05</v>
       </c>
       <c r="W261">
-        <v>1.000234356690884</v>
+        <v>0.0002343566908835637</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19963,7 +19963,7 @@
         <v>0.862053117392961</v>
       </c>
       <c r="K262">
-        <v>46.29583921858855</v>
+        <v>-0.03704160781411453</v>
       </c>
       <c r="L262">
         <v>-0.003481036225372315</v>
@@ -19993,13 +19993,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U262">
-        <v>0.9999297171505769</v>
+        <v>-7.028284942312002E-05</v>
       </c>
       <c r="V262">
-        <v>1.000046869873608</v>
+        <v>4.68698736075801E-05</v>
       </c>
       <c r="W262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20034,7 +20034,7 @@
         <v>1.129394376790866</v>
       </c>
       <c r="K263">
-        <v>53.03829056282829</v>
+        <v>0.03038290562828294</v>
       </c>
       <c r="L263">
         <v>-0.002798469405849961</v>
@@ -20064,13 +20064,13 @@
         <v>-0.001249999999984652</v>
       </c>
       <c r="U263">
-        <v>0.9999843804912337</v>
+        <v>-1.56195087662736E-05</v>
       </c>
       <c r="V263">
-        <v>1.000093735353851</v>
+        <v>9.373535385082121E-05</v>
       </c>
       <c r="W263">
-        <v>1.000702905342081</v>
+        <v>0.0007029053420806175</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20105,7 +20105,7 @@
         <v>1.032538213180972</v>
       </c>
       <c r="K264">
-        <v>50.8004329997331</v>
+        <v>0.008004329997331028</v>
       </c>
       <c r="L264">
         <v>-0.002068710317394295</v>
@@ -20135,13 +20135,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U264">
-        <v>0.9999687604945215</v>
+        <v>-3.123950547845311E-05</v>
       </c>
       <c r="V264">
-        <v>1.000031242189453</v>
+        <v>3.124218945282919E-05</v>
       </c>
       <c r="W264">
-        <v>0.9997658627955983</v>
+        <v>-0.0002341372044016854</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20176,7 +20176,7 @@
         <v>0.9470455394543534</v>
       </c>
       <c r="K265">
-        <v>48.64013297397022</v>
+        <v>-0.01359867026029776</v>
       </c>
       <c r="L265">
         <v>-0.001434633910442311</v>
@@ -20206,13 +20206,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U265">
-        <v>0.9999687595185841</v>
+        <v>-3.124048141589508E-05</v>
       </c>
       <c r="V265">
-        <v>1.000031241213408</v>
+        <v>3.124121340847275E-05</v>
       </c>
       <c r="W265">
-        <v>0.9997658079625291</v>
+        <v>-0.0002341920374708817</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20247,7 +20247,7 @@
         <v>0.8711217271730144</v>
       </c>
       <c r="K266">
-        <v>46.55612270021305</v>
+        <v>-0.03443877299786946</v>
       </c>
       <c r="L266">
         <v>-0.0009790217431060468</v>
@@ -20277,13 +20277,13 @@
         <v>0.00750000000000739</v>
       </c>
       <c r="U266">
-        <v>0.9999609481782323</v>
+        <v>-3.905182176766608E-05</v>
       </c>
       <c r="V266">
-        <v>1.000031240237426</v>
+        <v>3.124023742606674E-05</v>
       </c>
       <c r="W266">
-        <v>0.9997657531037715</v>
+        <v>-0.0002342468962285293</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20318,7 +20318,7 @@
         <v>0.8033298811722173</v>
       </c>
       <c r="K267">
-        <v>44.5470287804486</v>
+        <v>-0.054529712195514</v>
       </c>
       <c r="L267">
         <v>-0.000742315305390249</v>
@@ -20348,13 +20348,13 @@
         <v>0.008750000000006253</v>
       </c>
       <c r="U267">
-        <v>0.9999609466531282</v>
+        <v>-3.905334687182016E-05</v>
       </c>
       <c r="V267">
-        <v>1.000015619630752</v>
+        <v>1.561963075191741E-05</v>
       </c>
       <c r="W267">
-        <v>0.9997656982193065</v>
+        <v>-0.0002343017806935022</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20389,7 +20389,7 @@
         <v>0.8033298811722174</v>
       </c>
       <c r="K268">
-        <v>44.54702878044861</v>
+        <v>-0.05452971219551395</v>
       </c>
       <c r="L268">
         <v>-0.0006506135894751506</v>
@@ -20419,13 +20419,13 @@
         <v>0.007499999999993179</v>
       </c>
       <c r="U268">
-        <v>0.9999609451279048</v>
+        <v>-3.905487209521219E-05</v>
       </c>
       <c r="V268">
-        <v>0.9999531418396513</v>
+        <v>-4.685816034866175E-05</v>
       </c>
       <c r="W268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20460,7 +20460,7 @@
         <v>0.6851677506811802</v>
       </c>
       <c r="K269">
-        <v>40.65872672938472</v>
+        <v>-0.0934127327061528</v>
       </c>
       <c r="L269">
         <v>-0.0008208652326835485</v>
@@ -20490,13 +20490,13 @@
         <v>0.006250000000008527</v>
       </c>
       <c r="U269">
-        <v>0.9999531323230745</v>
+        <v>-4.686767692552163E-05</v>
       </c>
       <c r="V269">
-        <v>0.9999218994064354</v>
+        <v>-7.810059356461174E-05</v>
       </c>
       <c r="W269">
-        <v>0.9995312866182329</v>
+        <v>-0.0004687133817671274</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20531,7 +20531,7 @@
         <v>0.6851677506811802</v>
       </c>
       <c r="K270">
-        <v>40.65872672938472</v>
+        <v>-0.0934127327061528</v>
       </c>
       <c r="L270">
         <v>-0.001135983531730411</v>
@@ -20561,13 +20561,13 @@
         <v>0.005000000000009663</v>
       </c>
       <c r="U270">
-        <v>0.9999765650631963</v>
+        <v>-2.343493680367903E-05</v>
       </c>
       <c r="V270">
-        <v>0.9999375146450051</v>
+        <v>-6.248535499486785E-05</v>
       </c>
       <c r="W270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20602,7 +20602,7 @@
         <v>0.6335402175134703</v>
       </c>
       <c r="K271">
-        <v>38.78326414747399</v>
+        <v>-0.1121673585252602</v>
       </c>
       <c r="L271">
         <v>-0.001599973519261199</v>
@@ -20632,13 +20632,13 @@
         <v>-0.006250000000008527</v>
       </c>
       <c r="U271">
-        <v>0.9999687526853163</v>
+        <v>-3.124731468373554E-05</v>
       </c>
       <c r="V271">
-        <v>0.9999375107403414</v>
+        <v>-6.248925965857133E-05</v>
       </c>
       <c r="W271">
-        <v>0.9997655334114889</v>
+        <v>-0.0002344665885111175</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20673,7 +20673,7 @@
         <v>0.5468001981911402</v>
       </c>
       <c r="K272">
-        <v>35.35040911105257</v>
+        <v>-0.1464959088894743</v>
       </c>
       <c r="L272">
         <v>-0.002289411534861155</v>
@@ -20703,13 +20703,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U272">
-        <v>0.9999765637816681</v>
+        <v>-2.343621833189591E-05</v>
       </c>
       <c r="V272">
-        <v>0.9999218835439875</v>
+        <v>-7.811645601252248E-05</v>
       </c>
       <c r="W272">
-        <v>0.99953095684803</v>
+        <v>-0.00046904315197005</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20744,7 +20744,7 @@
         <v>0.7629789370615834</v>
       </c>
       <c r="K273">
-        <v>43.27782488049836</v>
+        <v>-0.06722175119501644</v>
       </c>
       <c r="L273">
         <v>-0.002807238119291068</v>
@@ -20774,13 +20774,13 @@
         <v>-0.02624999999999034</v>
       </c>
       <c r="U273">
-        <v>0.9999921877441331</v>
+        <v>-7.81225586687917E-06</v>
       </c>
       <c r="V273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W273">
-        <v>1.00070389488503</v>
+        <v>0.0007038948850304205</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20815,7 +20815,7 @@
         <v>0.9146833152162982</v>
       </c>
       <c r="K274">
-        <v>47.77204188009379</v>
+        <v>-0.02227958119906215</v>
       </c>
       <c r="L274">
         <v>-0.003007249229787665</v>
@@ -20845,13 +20845,13 @@
         <v>-0.03125000000001421</v>
       </c>
       <c r="U274">
-        <v>1.000023436950696</v>
+        <v>2.343695069639828E-05</v>
       </c>
       <c r="V274">
-        <v>1.000015624511734</v>
+        <v>1.562451173420243E-05</v>
       </c>
       <c r="W274">
-        <v>1.000468933177022</v>
+        <v>0.000468933177022457</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20886,7 +20886,7 @@
         <v>1.074372134326468</v>
       </c>
       <c r="K275">
-        <v>51.79264205047316</v>
+        <v>0.01792642050473159</v>
       </c>
       <c r="L275">
         <v>-0.002820366474786049</v>
@@ -20916,13 +20916,13 @@
         <v>-0.03000000000001535</v>
       </c>
       <c r="U275">
-        <v>1.000031248535225</v>
+        <v>3.124853522473714E-05</v>
       </c>
       <c r="V275">
-        <v>1.000031248535225</v>
+        <v>3.124853522451509E-05</v>
       </c>
       <c r="W275">
-        <v>1.000468713381767</v>
+        <v>0.0004687133817669054</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20957,7 +20957,7 @@
         <v>1.74674610952736</v>
       </c>
       <c r="K276">
-        <v>63.59328601462649</v>
+        <v>0.1359328601462649</v>
       </c>
       <c r="L276">
         <v>-0.001718091017490394</v>
@@ -20987,13 +20987,13 @@
         <v>-0.01749999999998408</v>
       </c>
       <c r="U276">
-        <v>1.000085930786657</v>
+        <v>8.593078665741771E-05</v>
       </c>
       <c r="V276">
-        <v>1.00014061401453</v>
+        <v>0.0001406140145303603</v>
       </c>
       <c r="W276">
-        <v>1.001873975169829</v>
+        <v>0.001873975169829123</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21028,7 +21028,7 @@
         <v>1.835216369422191</v>
       </c>
       <c r="K277">
-        <v>64.72932327899204</v>
+        <v>0.1472932327899205</v>
       </c>
       <c r="L277">
         <v>-3.984050300515156E-05</v>
@@ -21058,13 +21058,13 @@
         <v>0.002499999999983515</v>
       </c>
       <c r="U277">
-        <v>1.000101545840135</v>
+        <v>0.0001015458401354419</v>
       </c>
       <c r="V277">
-        <v>1.000156215827788</v>
+        <v>0.0001562158277876868</v>
       </c>
       <c r="W277">
-        <v>1.000233808744447</v>
+        <v>0.000233808744446895</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21099,7 +21099,7 @@
         <v>2.114596137511196</v>
       </c>
       <c r="K278">
-        <v>67.89310858135599</v>
+        <v>0.1789310858135599</v>
       </c>
       <c r="L278">
         <v>0.002136523408307758</v>
@@ -21129,13 +21129,13 @@
         <v>0.02625000000000455</v>
       </c>
       <c r="U278">
-        <v>1.000124966805692</v>
+        <v>0.0001249668056921838</v>
       </c>
       <c r="V278">
-        <v>1.000156191428214</v>
+        <v>0.0001561914282144361</v>
       </c>
       <c r="W278">
-        <v>1.00070126227209</v>
+        <v>0.0007012622720898865</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21170,7 +21170,7 @@
         <v>2.114596137511196</v>
       </c>
       <c r="K279">
-        <v>67.89310858135599</v>
+        <v>0.1789310858135599</v>
       </c>
       <c r="L279">
         <v>0.004468078917893801</v>
@@ -21200,13 +21200,13 @@
         <v>0.05624999999999147</v>
       </c>
       <c r="U279">
-        <v>1.00010152284264</v>
+        <v>0.0001015228426397563</v>
       </c>
       <c r="V279">
-        <v>1.000171783739888</v>
+        <v>0.0001717837398882427</v>
       </c>
       <c r="W279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21241,7 +21241,7 @@
         <v>1.916805993826232</v>
       </c>
       <c r="K280">
-        <v>65.71592344103038</v>
+        <v>0.1571592344103039</v>
       </c>
       <c r="L280">
         <v>0.006643284846662979</v>
@@ -21271,13 +21271,13 @@
         <v>0.08875000000000455</v>
       </c>
       <c r="U280">
-        <v>1.000101512536798</v>
+        <v>0.0001015125367982428</v>
       </c>
       <c r="V280">
-        <v>1.000171754235303</v>
+        <v>0.0001717542353032453</v>
       </c>
       <c r="W280">
-        <v>0.9997664097173556</v>
+        <v>-0.0002335902826443581</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21312,7 +21312,7 @@
         <v>1.744996136992229</v>
       </c>
       <c r="K281">
-        <v>63.57007623712984</v>
+        <v>0.1357007623712984</v>
       </c>
       <c r="L281">
         <v>0.008475426219119049</v>
@@ -21342,13 +21342,13 @@
         <v>0.1112499999999983</v>
       </c>
       <c r="U281">
-        <v>1.000101502233049</v>
+        <v>0.0001015022330490556</v>
       </c>
       <c r="V281">
-        <v>1.000171724740852</v>
+        <v>0.0001717247408516975</v>
       </c>
       <c r="W281">
-        <v>0.999766355140187</v>
+        <v>-0.0002336448598130314</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21383,7 +21383,7 @@
         <v>1.467984626712457</v>
       </c>
       <c r="K282">
-        <v>59.4811090321873</v>
+        <v>0.09481109032187296</v>
       </c>
       <c r="L282">
         <v>0.009781302643252819</v>
@@ -21413,13 +21413,13 @@
         <v>0.1250000000000142</v>
       </c>
       <c r="U282">
-        <v>1.000085877788101</v>
+        <v>8.587778810054125E-05</v>
       </c>
       <c r="V282">
-        <v>1.000156086596844</v>
+        <v>0.0001560865968439629</v>
       </c>
       <c r="W282">
-        <v>0.9995326010750176</v>
+        <v>-0.0004673989249823762</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21454,7 +21454,7 @@
         <v>1.100271204529339</v>
       </c>
       <c r="K283">
-        <v>52.38710134941381</v>
+        <v>0.02387101349413812</v>
       </c>
       <c r="L283">
         <v>0.01030820983810459</v>
@@ -21484,13 +21484,13 @@
         <v>0.1274999999999977</v>
       </c>
       <c r="U283">
-        <v>1.000023419203747</v>
+        <v>2.341920374693274E-05</v>
       </c>
       <c r="V283">
-        <v>1.000093637342572</v>
+        <v>9.36373425721726E-05</v>
       </c>
       <c r="W283">
-        <v>0.9990647650222116</v>
+        <v>-0.0009352349777883573</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21525,7 +21525,7 @@
         <v>1.298025366842781</v>
       </c>
       <c r="K284">
-        <v>56.48437939682609</v>
+        <v>0.0648437939682609</v>
       </c>
       <c r="L284">
         <v>0.01054801944347388</v>
@@ -21555,13 +21555,13 @@
         <v>0.1137500000000102</v>
       </c>
       <c r="U284">
-        <v>1.000046837310602</v>
+        <v>4.683731060151075E-05</v>
       </c>
       <c r="V284">
-        <v>1.000171652388309</v>
+        <v>0.0001716523883088517</v>
       </c>
       <c r="W284">
-        <v>1.000702082845776</v>
+        <v>0.0007020828457757755</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21596,7 +21596,7 @@
         <v>1.213802721113805</v>
       </c>
       <c r="K285">
-        <v>54.82885667893292</v>
+        <v>0.04828856678932925</v>
       </c>
       <c r="L285">
         <v>0.01047490200981933</v>
@@ -21626,13 +21626,13 @@
         <v>0.09375000000001421</v>
       </c>
       <c r="U285">
-        <v>1.000046835116971</v>
+        <v>4.683511697067821E-05</v>
       </c>
       <c r="V285">
-        <v>1.000156020844385</v>
+        <v>0.0001560208443849298</v>
       </c>
       <c r="W285">
-        <v>0.9997661365762395</v>
+        <v>-0.0002338634237605275</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21667,7 +21667,7 @@
         <v>1.136200011718552</v>
       </c>
       <c r="K286">
-        <v>53.18790401112722</v>
+        <v>0.03187904011127218</v>
       </c>
       <c r="L286">
         <v>0.01009346839349181</v>
@@ -21697,13 +21697,13 @@
         <v>0.06499999999999773</v>
       </c>
       <c r="U286">
-        <v>1.000046832923545</v>
+        <v>4.683292354523694E-05</v>
       </c>
       <c r="V286">
-        <v>1.000155996505678</v>
+        <v>0.0001559965056783241</v>
       </c>
       <c r="W286">
-        <v>0.9997660818713451</v>
+        <v>-0.0002339181286549197</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21738,7 +21738,7 @@
         <v>1.203498478842074</v>
       </c>
       <c r="K287">
-        <v>54.61762240355645</v>
+        <v>0.04617622403556443</v>
       </c>
       <c r="L287">
         <v>0.009598120471181797</v>
@@ -21768,13 +21768,13 @@
         <v>0.03625000000000966</v>
       </c>
       <c r="U287">
-        <v>1.000062440973767</v>
+        <v>6.244097376684188E-05</v>
       </c>
       <c r="V287">
-        <v>1.000202763826933</v>
+        <v>0.0002027638269332943</v>
       </c>
       <c r="W287">
-        <v>1.000233972859148</v>
+        <v>0.0002339728591482793</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21809,7 +21809,7 @@
         <v>1.345179462260067</v>
       </c>
       <c r="K288">
-        <v>57.35934003804158</v>
+        <v>0.07359340038041584</v>
       </c>
       <c r="L288">
         <v>0.009200907403466671</v>
@@ -21839,13 +21839,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U288">
-        <v>1.000093655612703</v>
+        <v>9.365561270269218E-05</v>
       </c>
       <c r="V288">
-        <v>1.000187128666552</v>
+        <v>0.0001871286665522387</v>
       </c>
       <c r="W288">
-        <v>1.00046783625731</v>
+        <v>0.0004678362573100614</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21880,7 +21880,7 @@
         <v>1.17059883661797</v>
       </c>
       <c r="K289">
-        <v>53.92976430605164</v>
+        <v>0.03929764306051642</v>
       </c>
       <c r="L289">
         <v>0.008684415145750976</v>
@@ -21910,13 +21910,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U289">
-        <v>1.000070235131613</v>
+        <v>7.023513161308337E-05</v>
       </c>
       <c r="V289">
-        <v>1.000124729103977</v>
+        <v>0.0001247291039772058</v>
       </c>
       <c r="W289">
-        <v>0.9995323825111059</v>
+        <v>-0.0004676174888941231</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21951,7 +21951,7 @@
         <v>1.238905365515772</v>
       </c>
       <c r="K290">
-        <v>55.335316293298</v>
+        <v>0.05335316293297998</v>
       </c>
       <c r="L290">
         <v>0.008182214806322788</v>
@@ -21981,13 +21981,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U290">
-        <v>1.000070230198985</v>
+        <v>7.023019898544369E-05</v>
       </c>
       <c r="V290">
-        <v>1.000109124354997</v>
+        <v>0.0001091243549971033</v>
       </c>
       <c r="W290">
-        <v>1.000233918128655</v>
+        <v>0.0002339181286550307</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22022,7 +22022,7 @@
         <v>1.238905365515772</v>
       </c>
       <c r="K291">
-        <v>55.335316293298</v>
+        <v>0.05335316293297998</v>
       </c>
       <c r="L291">
         <v>0.007690874292449544</v>
@@ -22052,13 +22052,13 @@
         <v>-0.02750000000001762</v>
       </c>
       <c r="U291">
-        <v>1.000062422459601</v>
+        <v>6.242245960108583E-05</v>
       </c>
       <c r="V291">
-        <v>0.9999844125074043</v>
+        <v>-1.558749259567005E-05</v>
       </c>
       <c r="W291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22093,7 +22093,7 @@
         <v>1.009655333726267</v>
       </c>
       <c r="K292">
-        <v>50.24022362352961</v>
+        <v>0.002402236235296118</v>
       </c>
       <c r="L292">
         <v>0.00695372681427186</v>
@@ -22123,13 +22123,13 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="U292">
-        <v>1.000039011602051</v>
+        <v>3.901160205055376E-05</v>
       </c>
       <c r="V292">
-        <v>0.9999220613221513</v>
+        <v>-7.793867784866571E-05</v>
       </c>
       <c r="W292">
-        <v>0.9992984097287184</v>
+        <v>-0.0007015902712815825</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22164,7 +22164,7 @@
         <v>1.269363976159864</v>
       </c>
       <c r="K293">
-        <v>55.93479007751925</v>
+        <v>0.05934790077519247</v>
       </c>
       <c r="L293">
         <v>0.006430268316999977</v>
@@ -22194,13 +22194,13 @@
         <v>-0.02375000000000682</v>
       </c>
       <c r="U293">
-        <v>1.000046812096246</v>
+        <v>4.681209624557425E-05</v>
       </c>
       <c r="V293">
-        <v>0.9999376441977929</v>
+        <v>-6.235580220714798E-05</v>
       </c>
       <c r="W293">
-        <v>1.000936110461035</v>
+        <v>0.0009361104610345894</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22235,7 +22235,7 @@
         <v>1.053385118904316</v>
       </c>
       <c r="K294">
-        <v>51.29992952643978</v>
+        <v>0.0129992952643978</v>
       </c>
       <c r="L294">
         <v>0.005790524569438681</v>
@@ -22265,13 +22265,13 @@
         <v>-0.01500000000001478</v>
       </c>
       <c r="U294">
-        <v>1.000031206603317</v>
+        <v>3.120660331723535E-05</v>
       </c>
       <c r="V294">
-        <v>0.999890870541282</v>
+        <v>-0.0001091294587179936</v>
       </c>
       <c r="W294">
-        <v>0.9992985737666589</v>
+        <v>-0.0007014262333411292</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22306,7 +22306,7 @@
         <v>0.9940401204103455</v>
       </c>
       <c r="K295">
-        <v>49.85055768114565</v>
+        <v>-0.001494423188543481</v>
       </c>
       <c r="L295">
         <v>0.005014829820632764</v>
@@ -22336,13 +22336,13 @@
         <v>-0.009999999999990905</v>
       </c>
       <c r="U295">
-        <v>1.000031205629495</v>
+        <v>3.120562949532335E-05</v>
       </c>
       <c r="V295">
-        <v>0.9998908586307436</v>
+        <v>-0.000109141369256438</v>
       </c>
       <c r="W295">
-        <v>0.9997660271408515</v>
+        <v>-0.0002339728591485013</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22377,7 +22377,7 @@
         <v>0.9940401204103456</v>
       </c>
       <c r="K296">
-        <v>49.85055768114566</v>
+        <v>-0.001494423188543426</v>
       </c>
       <c r="L296">
         <v>0.004187975665318432</v>
@@ -22407,13 +22407,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U296">
-        <v>1.000039005819668</v>
+        <v>3.900581966842509E-05</v>
       </c>
       <c r="V296">
-        <v>0.9999064400436614</v>
+        <v>-9.355995633864023E-05</v>
       </c>
       <c r="W296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22448,7 +22448,7 @@
         <v>0.9940401204103455</v>
       </c>
       <c r="K297">
-        <v>49.85055768114565</v>
+        <v>-0.001494423188543481</v>
       </c>
       <c r="L297">
         <v>0.003367587933651267</v>
@@ -22478,13 +22478,13 @@
         <v>-0.008750000000006253</v>
       </c>
       <c r="U297">
-        <v>1.000046805157929</v>
+        <v>4.680515792854223E-05</v>
       </c>
       <c r="V297">
-        <v>0.9999376208595846</v>
+        <v>-6.237914041540282E-05</v>
       </c>
       <c r="W297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22519,7 +22519,7 @@
         <v>0.9940401204103455</v>
       </c>
       <c r="K298">
-        <v>49.85055768114565</v>
+        <v>-0.001494423188543481</v>
       </c>
       <c r="L298">
         <v>0.002591142895452148</v>
@@ -22549,13 +22549,13 @@
         <v>-0.01125000000001819</v>
       </c>
       <c r="U298">
-        <v>1.000046802967308</v>
+        <v>4.68029673079684E-05</v>
       </c>
       <c r="V298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22590,7 +22590,7 @@
         <v>1.063207691190821</v>
       </c>
       <c r="K299">
-        <v>51.53178207556844</v>
+        <v>0.01531782075568433</v>
       </c>
       <c r="L299">
         <v>0.001966564808041654</v>
@@ -22620,13 +22620,13 @@
         <v>-0.01750000000001251</v>
       </c>
       <c r="U299">
-        <v>1.00007020116534</v>
+        <v>7.020116533951182E-05</v>
       </c>
       <c r="V299">
-        <v>0.9999688084840923</v>
+        <v>-3.119151590769143E-05</v>
       </c>
       <c r="W299">
-        <v>1.000234027615259</v>
+        <v>0.0002340276152588139</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22661,7 +22661,7 @@
         <v>0.9910512614307267</v>
       </c>
       <c r="K300">
-        <v>49.77527603777406</v>
+        <v>-0.002247239622259367</v>
       </c>
       <c r="L300">
         <v>0.001381426637399204</v>
@@ -22691,13 +22691,13 @@
         <v>-0.01375000000001592</v>
       </c>
       <c r="U300">
-        <v>1.000062396655539</v>
+        <v>6.239665553908758E-05</v>
       </c>
       <c r="V300">
-        <v>0.9999688075111515</v>
+        <v>-3.119248884853043E-05</v>
       </c>
       <c r="W300">
-        <v>0.9997660271408515</v>
+        <v>-0.0002339728591485013</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22732,7 +22732,7 @@
         <v>0.9910512614307266</v>
       </c>
       <c r="K301">
-        <v>49.77527603777406</v>
+        <v>-0.002247239622259423</v>
       </c>
       <c r="L301">
         <v>0.0008524386283803653</v>
@@ -22762,13 +22762,13 @@
         <v>-0.02124999999999488</v>
       </c>
       <c r="U301">
-        <v>1.000070191857745</v>
+        <v>7.01918577445948E-05</v>
       </c>
       <c r="V301">
-        <v>0.9999844032690746</v>
+        <v>-1.55967309254379E-05</v>
       </c>
       <c r="W301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22803,7 +22803,7 @@
         <v>0.9910512614307265</v>
       </c>
       <c r="K302">
-        <v>49.77527603777406</v>
+        <v>-0.002247239622259423</v>
       </c>
       <c r="L302">
         <v>0.0003880704789371488</v>
@@ -22833,13 +22833,13 @@
         <v>-0.02250000000000796</v>
       </c>
       <c r="U302">
-        <v>1.000085784027014</v>
+        <v>8.578402701409082E-05</v>
       </c>
       <c r="V302">
-        <v>0.999968806051626</v>
+        <v>-3.119394837403089E-05</v>
       </c>
       <c r="W302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22874,7 +22874,7 @@
         <v>0.8008694098272259</v>
       </c>
       <c r="K303">
-        <v>44.47126512655134</v>
+        <v>-0.05528734873448665</v>
       </c>
       <c r="L303">
         <v>-0.0002645619477909045</v>
@@ -22904,13 +22904,13 @@
         <v>-0.02375000000002103</v>
       </c>
       <c r="U303">
-        <v>1.000038989394884</v>
+        <v>3.898939488444775E-05</v>
       </c>
       <c r="V303">
-        <v>0.9998908177748664</v>
+        <v>-0.0001091822251335639</v>
       </c>
       <c r="W303">
-        <v>0.9992979171542243</v>
+        <v>-0.0007020828457756645</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -22945,7 +22945,7 @@
         <v>0.800869409827226</v>
       </c>
       <c r="K304">
-        <v>44.47126512655134</v>
+        <v>-0.05528734873448665</v>
       </c>
       <c r="L304">
         <v>-0.0009887043574301378</v>
@@ -22975,13 +22975,13 @@
         <v>-0.02249999999999375</v>
       </c>
       <c r="U304">
-        <v>1.000023392724863</v>
+        <v>2.339272486273636E-05</v>
       </c>
       <c r="V304">
-        <v>0.9999220041805759</v>
+        <v>-7.799581942413703E-05</v>
       </c>
       <c r="W304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23016,7 +23016,7 @@
         <v>0.9426231358029238</v>
       </c>
       <c r="K305">
-        <v>48.52321165285203</v>
+        <v>-0.01476788347147973</v>
       </c>
       <c r="L305">
         <v>-0.001536046271420854</v>
@@ -23046,13 +23046,13 @@
         <v>-0.02125000000000909</v>
       </c>
       <c r="U305">
-        <v>1.000023392177656</v>
+        <v>2.339217765578994E-05</v>
       </c>
       <c r="V305">
-        <v>0.9999375984774028</v>
+        <v>-6.240152259717746E-05</v>
       </c>
       <c r="W305">
-        <v>1.000468384074941</v>
+        <v>0.0004683840749413193</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23087,7 +23087,7 @@
         <v>1.01723036000066</v>
       </c>
       <c r="K306">
-        <v>50.42707963211137</v>
+        <v>0.004270796321113712</v>
       </c>
       <c r="L306">
         <v>-0.001850618674587883</v>
@@ -23117,13 +23117,13 @@
         <v>-0.01750000000001251</v>
       </c>
       <c r="U306">
-        <v>0.9999688111593673</v>
+        <v>-3.11888406326899E-05</v>
       </c>
       <c r="V306">
-        <v>0.9999531959374073</v>
+        <v>-4.680406259272019E-05</v>
       </c>
       <c r="W306">
-        <v>1.000234082397004</v>
+        <v>0.000234082397003732</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23158,7 +23158,7 @@
         <v>0.8791449597585255</v>
       </c>
       <c r="K307">
-        <v>46.78430768169677</v>
+        <v>-0.03215692318303232</v>
       </c>
       <c r="L307">
         <v>-0.002167789972460556</v>
@@ -23188,13 +23188,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U307">
-        <v>0.9999454178265379</v>
+        <v>-5.458217346210326E-05</v>
       </c>
       <c r="V307">
-        <v>0.9999687958311232</v>
+        <v>-3.120416887680832E-05</v>
       </c>
       <c r="W307">
-        <v>0.9995319447694829</v>
+        <v>-0.0004680552305170727</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23229,7 +23229,7 @@
         <v>0.9505904546051216</v>
       </c>
       <c r="K308">
-        <v>48.73347208076846</v>
+        <v>-0.01266527919231536</v>
       </c>
       <c r="L308">
         <v>-0.002373240508565467</v>
@@ -23259,13 +23259,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U308">
-        <v>0.9999298190892075</v>
+        <v>-7.018091079247224E-05</v>
       </c>
       <c r="V308">
-        <v>0.999921987143481</v>
+        <v>-7.801285651898304E-05</v>
       </c>
       <c r="W308">
-        <v>1.000234137204402</v>
+        <v>0.0002341372044016854</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23300,7 +23300,7 @@
         <v>0.9505904546051216</v>
       </c>
       <c r="K309">
-        <v>48.73347208076846</v>
+        <v>-0.01266527919231536</v>
       </c>
       <c r="L309">
         <v>-0.002489277151286081</v>
@@ -23330,13 +23330,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U309">
-        <v>0.999929814163502</v>
+        <v>-7.018583649798238E-05</v>
       </c>
       <c r="V309">
-        <v>0.9999687924228003</v>
+        <v>-3.12075771996545E-05</v>
       </c>
       <c r="W309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23371,7 +23371,7 @@
         <v>1.029754437814647</v>
       </c>
       <c r="K310">
-        <v>50.73295658973117</v>
+        <v>0.007329565897311707</v>
       </c>
       <c r="L310">
         <v>-0.00244948196136758</v>
@@ -23401,13 +23401,13 @@
         <v>-0.01499999999998636</v>
       </c>
       <c r="U310">
-        <v>0.9999454071844144</v>
+        <v>-5.459281558561901E-05</v>
       </c>
       <c r="V310">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W310">
-        <v>1.000234082397004</v>
+        <v>0.000234082397003732</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23442,7 +23442,7 @@
         <v>1.113084946456311</v>
       </c>
       <c r="K311">
-        <v>52.67582584992518</v>
+        <v>0.02675825849925184</v>
       </c>
       <c r="L311">
         <v>-0.002223681764091119</v>
@@ -23472,13 +23472,13 @@
         <v>-0.006250000000008527</v>
       </c>
       <c r="U311">
-        <v>0.9999610030027688</v>
+        <v>-3.899699723119987E-05</v>
       </c>
       <c r="V311">
-        <v>1.000015604275571</v>
+        <v>1.560427557145694E-05</v>
       </c>
       <c r="W311">
-        <v>1.000234027615259</v>
+        <v>0.0002340276152588139</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23513,7 +23513,7 @@
         <v>1.02332282874674</v>
       </c>
       <c r="K312">
-        <v>50.57634966638483</v>
+        <v>0.005763496663848233</v>
       </c>
       <c r="L312">
         <v>-0.001976683892407093</v>
@@ -23543,13 +23543,13 @@
         <v>0.001249999999984652</v>
       </c>
       <c r="U312">
-        <v>0.9999688011855549</v>
+        <v>-3.119881444513251E-05</v>
       </c>
       <c r="V312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W312">
-        <v>0.9997660271408515</v>
+        <v>-0.0002339728591485013</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23584,7 +23584,7 @@
         <v>0.8748038784714471</v>
       </c>
       <c r="K313">
-        <v>46.66108751517447</v>
+        <v>-0.03338912484825529</v>
       </c>
       <c r="L313">
         <v>-0.001895805853525224</v>
@@ -23614,13 +23614,13 @@
         <v>0.001250000000013074</v>
       </c>
       <c r="U313">
-        <v>0.9999844001060793</v>
+        <v>-1.559989392074801E-05</v>
       </c>
       <c r="V313">
-        <v>0.999968791935836</v>
+        <v>-3.120806416401223E-05</v>
       </c>
       <c r="W313">
-        <v>0.9995319447694829</v>
+        <v>-0.0004680552305170727</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23655,7 +23655,7 @@
         <v>0.9511902018975312</v>
       </c>
       <c r="K314">
-        <v>48.74923013515029</v>
+        <v>-0.0125076986484971</v>
       </c>
       <c r="L314">
         <v>-0.001828613965235865</v>
@@ -23685,13 +23685,13 @@
         <v>0</v>
       </c>
       <c r="U314">
-        <v>0.9999687997254377</v>
+        <v>-3.120027456227081E-05</v>
       </c>
       <c r="V314">
-        <v>0.9999687909618625</v>
+        <v>-3.120903813746967E-05</v>
       </c>
       <c r="W314">
-        <v>1.000234137204402</v>
+        <v>0.0002341372044016854</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23726,7 +23726,7 @@
         <v>0.8804001682196327</v>
       </c>
       <c r="K315">
-        <v>46.81983032649894</v>
+        <v>-0.03180169673501054</v>
       </c>
       <c r="L315">
         <v>-0.001852552743433422</v>
@@ -23756,13 +23756,13 @@
         <v>0.0037500000000108</v>
       </c>
       <c r="U315">
-        <v>0.99996879875195</v>
+        <v>-3.120124805000568E-05</v>
       </c>
       <c r="V315">
-        <v>0.9999687899878282</v>
+        <v>-3.121001217176733E-05</v>
       </c>
       <c r="W315">
-        <v>0.9997659176029963</v>
+        <v>-0.000234082397003732</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23797,7 +23797,7 @@
         <v>0.9587397314063136</v>
       </c>
       <c r="K316">
-        <v>48.9467649036745</v>
+        <v>-0.010532350963255</v>
       </c>
       <c r="L316">
         <v>-0.001838220011538134</v>
@@ -23827,13 +23827,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U316">
-        <v>0.9999843988892009</v>
+        <v>-1.560111079912385E-05</v>
       </c>
       <c r="V316">
-        <v>0.9999843945068666</v>
+        <v>-1.56054931333971E-05</v>
       </c>
       <c r="W316">
-        <v>1.000234137204402</v>
+        <v>0.0002341372044016854</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -23868,7 +23868,7 @@
         <v>1.041202429497557</v>
       </c>
       <c r="K317">
-        <v>51.00926857870973</v>
+        <v>0.01009268578709732</v>
       </c>
       <c r="L317">
         <v>-0.001709703432836368</v>
@@ -23898,13 +23898,13 @@
         <v>0.00750000000000739</v>
       </c>
       <c r="U317">
-        <v>0.9999843986458026</v>
+        <v>-1.560135419742537E-05</v>
       </c>
       <c r="V317">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W317">
-        <v>1.000234082397004</v>
+        <v>0.000234082397003732</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -23939,7 +23939,7 @@
         <v>1.388413789881862</v>
       </c>
       <c r="K318">
-        <v>58.13120807473387</v>
+        <v>0.08131208074733864</v>
       </c>
       <c r="L318">
         <v>-0.001173092939337195</v>
@@ -23969,13 +23969,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V318">
-        <v>1.000109240156682</v>
+        <v>0.0001092401566817891</v>
       </c>
       <c r="W318">
-        <v>1.000936110461035</v>
+        <v>0.0009361104610345894</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24010,7 +24010,7 @@
         <v>1.388413789881862</v>
       </c>
       <c r="K319">
-        <v>58.13120807473387</v>
+        <v>0.08131208074733864</v>
       </c>
       <c r="L319">
         <v>-0.0004191530844970192</v>
@@ -24040,13 +24040,13 @@
         <v>0.01125000000000398</v>
       </c>
       <c r="U319">
-        <v>1.000015601597603</v>
+        <v>1.560159760338742E-05</v>
       </c>
       <c r="V319">
-        <v>1.000109228224573</v>
+        <v>0.0001092282245731546</v>
       </c>
       <c r="W319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Orkla 11.12.2020.xlsx
+++ b/data_clean/Orkla 11.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1394,13 +1397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W319"/>
+  <dimension ref="A1:X319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1470,10 +1473,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>86.09999999999999</v>
@@ -1530,7 +1536,7 @@
         <v>86.09999999999999</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1541,10 +1547,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>86.04000000000001</v>
@@ -1601,7 +1610,7 @@
         <v>86.06999999999999</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>86.06999999999999</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1612,10 +1621,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>86</v>
@@ -1672,21 +1684,24 @@
         <v>86.04666666666667</v>
       </c>
       <c r="T4">
+        <v>86.04666666666667</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>-0.0002710971689708908</v>
       </c>
       <c r="V4">
         <v>-0.0002710971689708908</v>
       </c>
       <c r="W4">
+        <v>-0.0002710971689708908</v>
+      </c>
+      <c r="X4">
         <v>-0.0004649000464900244</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>85.98</v>
@@ -1743,21 +1758,24 @@
         <v>86.03</v>
       </c>
       <c r="T5">
+        <v>86.00666666666666</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>-0.0001936933446966549</v>
       </c>
       <c r="V5">
         <v>-0.0001936933446966549</v>
       </c>
       <c r="W5">
+        <v>-0.0001936933446966549</v>
+      </c>
+      <c r="X5">
         <v>-0.000232558139534822</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>85.95999999999999</v>
@@ -1814,21 +1832,24 @@
         <v>86.01599999999999</v>
       </c>
       <c r="T6">
+        <v>85.98</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>-0.0001627339300245279</v>
       </c>
       <c r="V6">
         <v>-0.0001627339300245279</v>
       </c>
       <c r="W6">
+        <v>-0.0001627339300245279</v>
+      </c>
+      <c r="X6">
         <v>-0.0002326122354037174</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>85.84</v>
@@ -1885,21 +1906,24 @@
         <v>85.98666666666666</v>
       </c>
       <c r="T7">
+        <v>85.92666666666666</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>-0.0003410218253967479</v>
       </c>
       <c r="V7">
         <v>-0.0003410218253967479</v>
       </c>
       <c r="W7">
+        <v>-0.0003410218253967479</v>
+      </c>
+      <c r="X7">
         <v>-0.001395998138669086</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>85.72</v>
@@ -1956,21 +1980,24 @@
         <v>85.94857142857143</v>
       </c>
       <c r="T8">
+        <v>85.83999999999999</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>-0.0004430365726690866</v>
       </c>
       <c r="V8">
         <v>-0.0004430365726690866</v>
       </c>
       <c r="W8">
+        <v>-0.0004430365726690866</v>
+      </c>
+      <c r="X8">
         <v>-0.001397949673811794</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>85.8</v>
@@ -2027,21 +2054,24 @@
         <v>85.93000000000001</v>
       </c>
       <c r="T9">
+        <v>85.78666666666668</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>-0.0002160760587726074</v>
       </c>
       <c r="V9">
         <v>-0.0002160760587726074</v>
       </c>
       <c r="W9">
+        <v>-0.0002160760587726074</v>
+      </c>
+      <c r="X9">
         <v>0.0009332711152589823</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>85.8</v>
@@ -2098,21 +2128,24 @@
         <v>85.91555555555556</v>
       </c>
       <c r="T10">
+        <v>85.77333333333333</v>
+      </c>
+      <c r="U10">
         <v>-0.02305555555555827</v>
-      </c>
-      <c r="U10">
-        <v>-0.0001680954782317112</v>
       </c>
       <c r="V10">
         <v>-0.0001680954782317112</v>
       </c>
       <c r="W10">
+        <v>-0.0001680954782317112</v>
+      </c>
+      <c r="X10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>85.81999999999999</v>
@@ -2169,21 +2202,24 @@
         <v>85.90599999999999</v>
       </c>
       <c r="T11">
+        <v>85.80666666666667</v>
+      </c>
+      <c r="U11">
         <v>-0.04099999999999682</v>
-      </c>
-      <c r="U11">
-        <v>-0.0001112203196939054</v>
       </c>
       <c r="V11">
         <v>-0.0001112203196939054</v>
       </c>
       <c r="W11">
+        <v>-0.0001112203196939054</v>
+      </c>
+      <c r="X11">
         <v>0.0002331002331001919</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>85.90000000000001</v>
@@ -2240,21 +2276,24 @@
         <v>85.90545454545455</v>
       </c>
       <c r="T12">
+        <v>85.83999999999999</v>
+      </c>
+      <c r="U12">
         <v>-0.05295454545453993</v>
-      </c>
-      <c r="U12">
-        <v>-6.349434794383768E-06</v>
       </c>
       <c r="V12">
         <v>-6.349434794383768E-06</v>
       </c>
       <c r="W12">
+        <v>-6.349434794383768E-06</v>
+      </c>
+      <c r="X12">
         <v>0.0009321836401772199</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>85.84</v>
@@ -2311,21 +2350,24 @@
         <v>85.89999999999999</v>
       </c>
       <c r="T13">
+        <v>85.85333333333334</v>
+      </c>
+      <c r="U13">
         <v>-0.06499999999999773</v>
-      </c>
-      <c r="U13">
-        <v>-6.349475110067893E-05</v>
       </c>
       <c r="V13">
         <v>-6.349475110067893E-05</v>
       </c>
       <c r="W13">
+        <v>-6.349475110067893E-05</v>
+      </c>
+      <c r="X13">
         <v>-0.0006984866123399547</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>85.88</v>
@@ -2382,21 +2424,24 @@
         <v>85.89846153846155</v>
       </c>
       <c r="T14">
+        <v>85.87333333333333</v>
+      </c>
+      <c r="U14">
         <v>-0.07346153846155801</v>
-      </c>
-      <c r="U14">
-        <v>-1.790991313677104E-05</v>
       </c>
       <c r="V14">
         <v>-1.790991313677104E-05</v>
       </c>
       <c r="W14">
+        <v>-1.790991313677104E-05</v>
+      </c>
+      <c r="X14">
         <v>0.0004659832246038942</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>85.86</v>
@@ -2453,21 +2498,24 @@
         <v>85.89571428571428</v>
       </c>
       <c r="T15">
+        <v>85.86000000000001</v>
+      </c>
+      <c r="U15">
         <v>-0.06821428571427646</v>
-      </c>
-      <c r="U15">
-        <v>-3.19825605495927E-05</v>
       </c>
       <c r="V15">
         <v>-3.19825605495927E-05</v>
       </c>
       <c r="W15">
+        <v>-3.19825605495927E-05</v>
+      </c>
+      <c r="X15">
         <v>-0.0002328830926874303</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>85.88</v>
@@ -2524,21 +2572,24 @@
         <v>85.89466666666667</v>
       </c>
       <c r="T16">
+        <v>85.87333333333333</v>
+      </c>
+      <c r="U16">
         <v>-0.04716666666666924</v>
-      </c>
-      <c r="U16">
-        <v>-1.219640649507969E-05</v>
       </c>
       <c r="V16">
         <v>-1.219640649507969E-05</v>
       </c>
       <c r="W16">
+        <v>-1.219640649507969E-05</v>
+      </c>
+      <c r="X16">
         <v>0.0002329373398555212</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>85.88</v>
@@ -2595,21 +2646,24 @@
         <v>85.88000000000001</v>
       </c>
       <c r="T17">
+        <v>85.87333333333333</v>
+      </c>
+      <c r="U17">
         <v>-0.03624999999999545</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-1.067198584314699E-05</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-0.0001707517734899078</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>85.94</v>
@@ -2666,21 +2720,24 @@
         <v>85.87333333333332</v>
       </c>
       <c r="T18">
+        <v>85.89999999999999</v>
+      </c>
+      <c r="U18">
         <v>-0.008750000000006253</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>3.167387889457807E-05</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-7.762769756269883E-05</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.0006986492780625131</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>85.88</v>
@@ -2737,21 +2794,24 @@
         <v>85.86533333333333</v>
       </c>
       <c r="T19">
+        <v>85.89999999999999</v>
+      </c>
+      <c r="U19">
         <v>0.008750000000020464</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-1.065273897138397E-05</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-9.316046890761598E-05</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-0.0006981615080289272</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>85.8</v>
@@ -2808,21 +2868,24 @@
         <v>85.85333333333334</v>
       </c>
       <c r="T20">
+        <v>85.87333333333333</v>
+      </c>
+      <c r="U20">
         <v>0.008749999999992042</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-5.85506401762359E-05</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-0.0001397537228837731</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-0.0009315323707498324</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>85.84</v>
@@ -2879,21 +2942,24 @@
         <v>85.84533333333334</v>
       </c>
       <c r="T21">
+        <v>85.83999999999999</v>
+      </c>
+      <c r="U21">
         <v>0.01749999999999829</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-2.941320652960489E-05</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-9.318217114451244E-05</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.0004662004662006058</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>85.78</v>
@@ -2950,21 +3016,24 @@
         <v>85.84133333333332</v>
       </c>
       <c r="T22">
+        <v>85.80666666666667</v>
+      </c>
+      <c r="U22">
         <v>0.01624999999999943</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-5.987864594425574E-05</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-4.659542743556955E-05</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-0.0006989748369059523</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>85.78</v>
@@ -3021,21 +3090,24 @@
         <v>85.84533333333333</v>
       </c>
       <c r="T23">
+        <v>85.8</v>
+      </c>
+      <c r="U23">
         <v>0.01000000000000512</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-5.443839237384562E-05</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>4.659759867053914E-05</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>85.73999999999999</v>
@@ -3092,21 +3164,24 @@
         <v>85.84133333333332</v>
       </c>
       <c r="T24">
+        <v>85.76666666666667</v>
+      </c>
+      <c r="U24">
         <v>-0.008749999999992042</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-6.995845756319063E-05</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-4.659542743545853E-05</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-0.000466309162975076</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>85.76000000000001</v>
@@ -3163,21 +3238,24 @@
         <v>85.83866666666667</v>
       </c>
       <c r="T25">
+        <v>85.75999999999999</v>
+      </c>
+      <c r="U25">
         <v>-0.02124999999999488</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-5.442872621586048E-05</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-3.106506578010038E-05</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.0002332633543271623</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>85.8</v>
@@ -3234,21 +3312,24 @@
         <v>85.83733333333333</v>
       </c>
       <c r="T26">
+        <v>85.76666666666667</v>
+      </c>
+      <c r="U26">
         <v>-0.03874999999999318</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-3.144379421793353E-05</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-1.553301542434049E-05</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.0004664179104476585</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>85.64</v>
@@ -3305,21 +3386,24 @@
         <v>85.81999999999999</v>
       </c>
       <c r="T27">
+        <v>85.73333333333333</v>
+      </c>
+      <c r="U27">
         <v>-0.05750000000000455</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-0.0001006949744968288</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-0.0002019323371338366</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-0.001864801864801868</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>85.58</v>
@@ -3376,21 +3460,24 @@
         <v>85.80266666666667</v>
       </c>
       <c r="T28">
+        <v>85.67333333333333</v>
+      </c>
+      <c r="U28">
         <v>-0.06499999999998352</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-0.0001191285629476013</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-0.0002019731220382903</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-0.0007006071929005486</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>85.66</v>
@@ -3447,21 +3534,24 @@
         <v>85.788</v>
       </c>
       <c r="T29">
+        <v>85.62666666666667</v>
+      </c>
+      <c r="U29">
         <v>-0.07625000000000171</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-7.735034095790461E-05</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-0.000170934858279459</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.0009347978499649745</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>85.59999999999999</v>
@@ -3518,21 +3608,24 @@
         <v>85.77066666666666</v>
       </c>
       <c r="T30">
+        <v>85.61333333333334</v>
+      </c>
+      <c r="U30">
         <v>-0.08124999999999716</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-9.612418671056666E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-0.000202048460546278</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-0.0007004436142891146</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>85.59999999999999</v>
@@ -3589,21 +3682,24 @@
         <v>85.752</v>
       </c>
       <c r="T31">
+        <v>85.62</v>
+      </c>
+      <c r="U31">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-8.972453229416644E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-0.000217634622559304</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>85.66</v>
@@ -3660,21 +3756,24 @@
         <v>85.73733333333332</v>
       </c>
       <c r="T32">
+        <v>85.62</v>
+      </c>
+      <c r="U32">
         <v>-0.08374999999999488</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-0.000170893696352814</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-0.0001710358553348446</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.0007009345794393163</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>85.66</v>
@@ -3731,21 +3830,24 @@
         <v>85.71866666666666</v>
       </c>
       <c r="T33">
+        <v>85.63999999999999</v>
+      </c>
+      <c r="U33">
         <v>-0.08249999999999602</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-0.0001476152370001316</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-0.0002177192354944069</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>85.64</v>
@@ -3802,21 +3904,24 @@
         <v>85.70266666666666</v>
       </c>
       <c r="T34">
+        <v>85.65333333333332</v>
+      </c>
+      <c r="U34">
         <v>-0.08374999999999488</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-0.0001398666604504051</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-0.0001866571264136363</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-0.0002334812047629642</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>85.59999999999999</v>
@@ -3873,21 +3978,24 @@
         <v>85.68933333333332</v>
       </c>
       <c r="T35">
+        <v>85.63333333333333</v>
+      </c>
+      <c r="U35">
         <v>-0.07125000000000625</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-0.000147657682862512</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-0.0001555766448341211</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.0004670714619336991</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>85.58</v>
@@ -3944,21 +4052,24 @@
         <v>85.672</v>
       </c>
       <c r="T36">
+        <v>85.60666666666667</v>
+      </c>
+      <c r="U36">
         <v>-0.05749999999999034</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-0.0001476794888733979</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-0.0002022811085004017</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>-0.0002336448598130314</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>85.59999999999999</v>
@@ -4015,21 +4126,24 @@
         <v>85.66000000000001</v>
       </c>
       <c r="T37">
+        <v>85.59333333333332</v>
+      </c>
+      <c r="U37">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>-9.328503241667896E-05</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-0.0001400691007562571</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.0002336994624911881</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>85.58</v>
@@ -4086,21 +4200,24 @@
         <v>85.64666666666668</v>
       </c>
       <c r="T38">
+        <v>85.58666666666666</v>
+      </c>
+      <c r="U38">
         <v>-0.04000000000000625</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>-5.442134560651457E-05</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-0.0001556541365087538</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>-0.0002336448598130314</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>85.59999999999999</v>
@@ -4157,21 +4274,24 @@
         <v>85.63733333333333</v>
       </c>
       <c r="T39">
+        <v>85.59333333333332</v>
+      </c>
+      <c r="U39">
         <v>-0.02875000000000227</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>-7.774901064394601E-05</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-0.000108974857943589</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.0002336994624911881</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>85.68000000000001</v>
@@ -4228,21 +4348,24 @@
         <v>85.63200000000001</v>
       </c>
       <c r="T40">
+        <v>85.62</v>
+      </c>
+      <c r="U40">
         <v>-0.02249999999999375</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>-4.66530336136195E-05</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>-6.227813414705352E-05</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>0.0009345794392525697</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>85.72</v>
@@ -4299,21 +4422,24 @@
         <v>85.62666666666668</v>
       </c>
       <c r="T41">
+        <v>85.66666666666667</v>
+      </c>
+      <c r="U41">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>-3.887934185042852E-05</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>-6.228201295455094E-05</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0.000466853408029877</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>85.62</v>
@@ -4370,21 +4496,24 @@
         <v>85.62533333333333</v>
       </c>
       <c r="T42">
+        <v>85.67333333333333</v>
+      </c>
+      <c r="U42">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>-0.0001088663898350939</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>-1.55714730615264E-05</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>-0.001166588894073617</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>85.62</v>
@@ -4441,21 +4570,24 @@
         <v>85.628</v>
       </c>
       <c r="T43">
+        <v>85.65333333333332</v>
+      </c>
+      <c r="U43">
         <v>0</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>-8.554719094133745E-05</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>3.114343107180062E-05</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>85.59999999999999</v>
@@ -4512,21 +4644,24 @@
         <v>85.624</v>
       </c>
       <c r="T44">
+        <v>85.61333333333334</v>
+      </c>
+      <c r="U44">
         <v>0.001249999999998863</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>-0.0001088875580407267</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>-4.67136917831068E-05</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>-0.0002335902826443581</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>85.58</v>
@@ -4583,21 +4718,24 @@
         <v>85.62266666666667</v>
       </c>
       <c r="T45">
+        <v>85.60000000000001</v>
+      </c>
+      <c r="U45">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>-0.0001088994158323642</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>-1.557195801782374E-05</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>-0.0002336448598130314</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>85.56</v>
@@ -4654,21 +4792,24 @@
         <v>85.61999999999999</v>
       </c>
       <c r="T46">
+        <v>85.58</v>
+      </c>
+      <c r="U46">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>-0.0001244700299507517</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>-3.114440101548155E-05</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>-0.0002336994624911881</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>85.58</v>
@@ -4725,21 +4866,24 @@
         <v>85.61466666666666</v>
       </c>
       <c r="T47">
+        <v>85.57333333333332</v>
+      </c>
+      <c r="U47">
         <v>0.002500000000011937</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>-0.0001167051793758977</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>-6.229074203834006E-05</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.0002337540906964808</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>85.56</v>
@@ -4796,21 +4940,24 @@
         <v>85.60799999999999</v>
       </c>
       <c r="T48">
+        <v>85.56666666666666</v>
+      </c>
+      <c r="U48">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>-0.0001478438146814698</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>-7.786827802103158E-05</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.0002336994624911881</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>85.52</v>
@@ -4867,21 +5014,24 @@
         <v>85.59999999999999</v>
       </c>
       <c r="T49">
+        <v>85.55333333333333</v>
+      </c>
+      <c r="U49">
         <v>-0.02249999999999375</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>-0.0001400832717227685</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>-9.344921035414622E-05</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>-0.0004675081813932946</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>85.58</v>
@@ -4938,21 +5088,24 @@
         <v>85.59866666666667</v>
       </c>
       <c r="T50">
+        <v>85.55333333333334</v>
+      </c>
+      <c r="U50">
         <v>-0.02375000000002103</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>-8.561843754140153E-05</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>-1.55763239874096E-05</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0.0007015902712816935</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>85.59999999999999</v>
@@ -5009,21 +5162,24 @@
         <v>85.59999999999999</v>
       </c>
       <c r="T51">
+        <v>85.56666666666666</v>
+      </c>
+      <c r="U51">
         <v>-0.02625000000000455</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>-9.340992947526328E-05</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>1.557656661299589E-05</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0.0002336994624911881</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>85.62</v>
@@ -5080,21 +5236,24 @@
         <v>85.60133333333334</v>
       </c>
       <c r="T52">
+        <v>85.60000000000001</v>
+      </c>
+      <c r="U52">
         <v>-0.02625000000000455</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>-6.22791038037418E-05</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>1.557632398774267E-05</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0.0002336448598132534</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>85.59999999999999</v>
@@ -5151,21 +5310,24 @@
         <v>85.60266666666666</v>
       </c>
       <c r="T53">
+        <v>85.60666666666667</v>
+      </c>
+      <c r="U53">
         <v>-0.02374999999999261</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>-7.006835557377133E-05</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>1.557608136937283E-05</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>-0.0002335902826443581</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>85.59999999999999</v>
@@ -5222,21 +5384,24 @@
         <v>85.60266666666666</v>
       </c>
       <c r="T54">
+        <v>85.60666666666667</v>
+      </c>
+      <c r="U54">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>-5.450142871599173E-05</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>85.58</v>
@@ -5293,21 +5458,24 @@
         <v>85.596</v>
       </c>
       <c r="T55">
+        <v>85.59333333333332</v>
+      </c>
+      <c r="U55">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>-7.007708479322972E-05</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>-7.787919379453889E-05</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>-0.0002336448598130314</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>85.59999999999999</v>
@@ -5364,21 +5532,24 @@
         <v>85.58799999999999</v>
       </c>
       <c r="T56">
+        <v>85.59333333333332</v>
+      </c>
+      <c r="U56">
         <v>-0.008750000000006253</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>-7.786888437222306E-05</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>-9.346231132312255E-05</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>0.0002336994624911881</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>85.58</v>
@@ -5435,21 +5606,24 @@
         <v>85.58533333333334</v>
       </c>
       <c r="T57">
+        <v>85.58666666666666</v>
+      </c>
+      <c r="U57">
         <v>0.00750000000000739</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>-2.33624845222824E-05</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-3.115701578093599E-05</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>-0.0002336448598130314</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>85.56</v>
@@ -5506,21 +5680,24 @@
         <v>85.58133333333333</v>
       </c>
       <c r="T58">
+        <v>85.58</v>
+      </c>
+      <c r="U58">
         <v>0.008749999999992042</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>-7.787676780557362E-06</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>-4.673697985646541E-05</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>-0.0002336994624911881</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>85.59999999999999</v>
@@ -5577,21 +5754,24 @@
         <v>85.58133333333333</v>
       </c>
       <c r="T59">
+        <v>85.58</v>
+      </c>
+      <c r="U59">
         <v>0.01000000000000512</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>-2.336321228590954E-05</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>0</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0.0004675081813931836</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>85.59999999999999</v>
@@ -5648,21 +5828,24 @@
         <v>85.58266666666665</v>
       </c>
       <c r="T60">
+        <v>85.58666666666666</v>
+      </c>
+      <c r="U60">
         <v>0.00750000000000739</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>0</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>1.557972143451103E-05</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>85.62</v>
@@ -5719,21 +5902,24 @@
         <v>85.58666666666666</v>
       </c>
       <c r="T61">
+        <v>85.60666666666667</v>
+      </c>
+      <c r="U61">
         <v>0.00750000000000739</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>7.787919379387276E-06</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>4.673843613201001E-05</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0.0002336448598132534</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>85.62</v>
@@ -5790,21 +5976,24 @@
         <v>85.58933333333333</v>
       </c>
       <c r="T62">
+        <v>85.61333333333333</v>
+      </c>
+      <c r="U62">
         <v>0.006250000000008527</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>-1.557571745636199E-05</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>3.115750116844396E-05</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>85.59999999999999</v>
@@ -5861,21 +6050,24 @@
         <v>85.59200000000001</v>
       </c>
       <c r="T63">
+        <v>85.61333333333334</v>
+      </c>
+      <c r="U63">
         <v>0.007499999999993179</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>-2.33639400949448E-05</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>3.115653040897115E-05</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>-0.0002335902826443581</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>85.59999999999999</v>
@@ -5932,21 +6124,24 @@
         <v>85.59733333333334</v>
       </c>
       <c r="T64">
+        <v>85.60666666666667</v>
+      </c>
+      <c r="U64">
         <v>0.004999999999995453</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>-1.55763239874096E-05</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>6.231111941912282E-05</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>85.59999999999999</v>
@@ -6003,21 +6198,24 @@
         <v>85.59866666666666</v>
       </c>
       <c r="T65">
+        <v>85.60000000000001</v>
+      </c>
+      <c r="U65">
         <v>0.002499999999997726</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>0</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>1.557680924624272E-05</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>85.59999999999999</v>
@@ -6074,21 +6272,24 @@
         <v>85.59866666666667</v>
       </c>
       <c r="T66">
+        <v>85.59999999999998</v>
+      </c>
+      <c r="U66">
         <v>0.006250000000008527</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>7.7882833062759E-06</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>85.59999999999999</v>
@@ -6145,21 +6346,24 @@
         <v>85.59733333333332</v>
       </c>
       <c r="T67">
+        <v>85.60000000000001</v>
+      </c>
+      <c r="U67">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>-1.557656661332896E-05</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>85.59999999999999</v>
@@ -6216,21 +6420,24 @@
         <v>85.59733333333334</v>
       </c>
       <c r="T68">
+        <v>85.59999999999998</v>
+      </c>
+      <c r="U68">
         <v>0.007499999999993179</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>7.788222649685039E-06</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>85.59999999999999</v>
@@ -6287,10 +6494,10 @@
         <v>85.59733333333334</v>
       </c>
       <c r="T69">
+        <v>85.60000000000001</v>
+      </c>
+      <c r="U69">
         <v>0.004999999999995453</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
       </c>
       <c r="V69">
         <v>0</v>
@@ -6298,10 +6505,13 @@
       <c r="W69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>85.59999999999999</v>
@@ -6358,21 +6568,24 @@
         <v>85.59866666666666</v>
       </c>
       <c r="T70">
+        <v>85.59999999999998</v>
+      </c>
+      <c r="U70">
         <v>0.002499999999997726</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>-3.115264797493023E-05</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>1.557680924624272E-05</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>85.59999999999999</v>
@@ -6429,21 +6642,24 @@
         <v>85.59866666666667</v>
       </c>
       <c r="T71">
+        <v>85.60000000000001</v>
+      </c>
+      <c r="U71">
         <v>0.001249999999998863</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>-4.673042773939429E-05</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>85.62</v>
@@ -6500,21 +6716,24 @@
         <v>85.60133333333333</v>
       </c>
       <c r="T72">
+        <v>85.60666666666667</v>
+      </c>
+      <c r="U72">
         <v>0.002499999999997726</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>3.115313322621382E-05</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>0.0002336448598132534</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>85.62</v>
@@ -6571,21 +6790,24 @@
         <v>85.60533333333333</v>
       </c>
       <c r="T73">
+        <v>85.61333333333334</v>
+      </c>
+      <c r="U73">
         <v>0.002499999999983515</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>0</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>4.672824410834053E-05</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>85.59999999999999</v>
@@ -6642,21 +6864,24 @@
         <v>85.60533333333333</v>
       </c>
       <c r="T74">
+        <v>85.61333333333333</v>
+      </c>
+      <c r="U74">
         <v>0</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>0</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>-0.0002335902826443581</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>85.59999999999999</v>
@@ -6713,21 +6938,24 @@
         <v>85.60533333333333</v>
       </c>
       <c r="T75">
+        <v>85.60666666666667</v>
+      </c>
+      <c r="U75">
         <v>1.4210854715202E-14</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>7.788768595862194E-06</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
       </c>
       <c r="W75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>85.59999999999999</v>
@@ -6784,21 +7012,24 @@
         <v>85.604</v>
       </c>
       <c r="T76">
+        <v>85.59999999999998</v>
+      </c>
+      <c r="U76">
         <v>0</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>1.557741586255545E-05</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>-1.557535356055961E-05</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>85.64</v>
@@ -6855,21 +7086,24 @@
         <v>85.60533333333333</v>
       </c>
       <c r="T77">
+        <v>85.61333333333334</v>
+      </c>
+      <c r="U77">
         <v>0.0037500000000108</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>2.336575981565225E-05</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>1.557559615594784E-05</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>0.0004672897196262848</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>85.64</v>
@@ -6926,21 +7160,24 @@
         <v>85.60799999999999</v>
       </c>
       <c r="T78">
+        <v>85.62666666666667</v>
+      </c>
+      <c r="U78">
         <v>0.007499999999993179</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>3.115361849270748E-05</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>3.115070712089718E-05</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>85.62</v>
@@ -6997,21 +7234,24 @@
         <v>85.60933333333332</v>
       </c>
       <c r="T79">
+        <v>85.63333333333334</v>
+      </c>
+      <c r="U79">
         <v>0.008750000000020464</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>3.894080996880156E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>1.55748683923207E-05</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>-0.0002335357309667385</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>85.59999999999999</v>
@@ -7068,21 +7308,24 @@
         <v>85.60933333333334</v>
       </c>
       <c r="T80">
+        <v>85.62</v>
+      </c>
+      <c r="U80">
         <v>0.006250000000008527</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>7.78785872834753E-06</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>-0.0002335902826443581</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>85.59999999999999</v>
@@ -7139,21 +7382,24 @@
         <v>85.60933333333332</v>
       </c>
       <c r="T81">
+        <v>85.60666666666667</v>
+      </c>
+      <c r="U81">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>0</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>85.66</v>
@@ -7210,21 +7456,24 @@
         <v>85.61333333333333</v>
       </c>
       <c r="T82">
+        <v>85.62</v>
+      </c>
+      <c r="U82">
         <v>0.00750000000000739</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>1.557559615594784E-05</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>4.672387745885409E-05</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>0.0007009345794393163</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>85.64</v>
@@ -7281,21 +7530,24 @@
         <v>85.61599999999999</v>
       </c>
       <c r="T83">
+        <v>85.63333333333333</v>
+      </c>
+      <c r="U83">
         <v>0.01000000000000512</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>1.557535356044859E-05</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>3.114779629331821E-05</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>-0.0002334812047629642</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>85.64</v>
@@ -7352,21 +7604,24 @@
         <v>85.61866666666667</v>
       </c>
       <c r="T84">
+        <v>85.64666666666666</v>
+      </c>
+      <c r="U84">
         <v>0.01250000000000284</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>1.557511097272091E-05</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>3.114682613869491E-05</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>85.62</v>
@@ -7423,21 +7678,24 @@
         <v>85.61999999999999</v>
       </c>
       <c r="T85">
+        <v>85.63333333333333</v>
+      </c>
+      <c r="U85">
         <v>0.008750000000006253</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>1.557486839254274E-05</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>1.557292802178978E-05</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>-0.0002335357309667385</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>85.62</v>
@@ -7494,21 +7752,24 @@
         <v>85.62133333333333</v>
       </c>
       <c r="T86">
+        <v>85.62666666666667</v>
+      </c>
+      <c r="U86">
         <v>0.004999999999995453</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>7.787312909623978E-06</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>1.557268550955726E-05</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>85.59999999999999</v>
@@ -7565,21 +7826,24 @@
         <v>85.61999999999999</v>
       </c>
       <c r="T87">
+        <v>85.61333333333334</v>
+      </c>
+      <c r="U87">
         <v>0.002500000000011937</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>7.787252267910105E-06</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>-1.557244300487426E-05</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>-0.0002335902826443581</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>85.58</v>
@@ -7636,21 +7900,24 @@
         <v>85.61733333333333</v>
       </c>
       <c r="T88">
+        <v>85.60000000000001</v>
+      </c>
+      <c r="U88">
         <v>0.002499999999983515</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>7.787191627084411E-06</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>-3.114537101911452E-05</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>-0.0002336448598130314</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>85.59999999999999</v>
@@ -7707,21 +7974,24 @@
         <v>85.61733333333333</v>
       </c>
       <c r="T89">
+        <v>85.59333333333332</v>
+      </c>
+      <c r="U89">
         <v>0.0037500000000108</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>0</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0.0002336994624911881</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>85.56</v>
@@ -7778,21 +8048,24 @@
         <v>85.61466666666666</v>
       </c>
       <c r="T90">
+        <v>85.58</v>
+      </c>
+      <c r="U90">
         <v>-0.006250000000008527</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>-1.557426197462686E-05</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>-3.114634108358771E-05</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>-0.0004672897196260628</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>85.54000000000001</v>
@@ -7849,21 +8122,24 @@
         <v>85.61066666666666</v>
       </c>
       <c r="T91">
+        <v>85.56666666666666</v>
+      </c>
+      <c r="U91">
         <v>-0.01500000000000057</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>-3.114900907197349E-05</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>-4.672096681257454E-05</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>-0.0002337540906965918</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>85.52</v>
@@ -7920,21 +8196,24 @@
         <v>85.60266666666666</v>
       </c>
       <c r="T92">
+        <v>85.54000000000001</v>
+      </c>
+      <c r="U92">
         <v>-0.02499999999999147</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>-3.893747420402605E-05</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>-9.344629952645622E-05</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>-0.0002338087444471171</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>85.48</v>
@@ -7991,21 +8270,24 @@
         <v>85.592</v>
       </c>
       <c r="T93">
+        <v>85.51333333333334</v>
+      </c>
+      <c r="U93">
         <v>-0.03249999999999886</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>-4.672678846784351E-05</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>-0.0001246067100713066</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>-0.000467726847520944</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>85.5</v>
@@ -8062,21 +8344,24 @@
         <v>85.584</v>
       </c>
       <c r="T94">
+        <v>85.5</v>
+      </c>
+      <c r="U94">
         <v>-0.03874999999999318</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>-3.894080996880156E-05</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>-9.346667912879525E-05</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>0.0002339728591482793</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>85.54000000000001</v>
@@ -8133,21 +8418,24 @@
         <v>85.58</v>
       </c>
       <c r="T95">
+        <v>85.50666666666666</v>
+      </c>
+      <c r="U95">
         <v>-0.04125000000001933</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>-2.336539584868458E-05</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>-4.673770798280241E-05</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0.0004678362573100614</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>85.58</v>
@@ -8204,21 +8492,24 @@
         <v>85.57866666666668</v>
       </c>
       <c r="T96">
+        <v>85.54000000000001</v>
+      </c>
+      <c r="U96">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>-7.788647267692461E-06</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>-1.557996416590157E-05</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>0.0004676174888940121</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>85.56</v>
@@ -8275,21 +8566,24 @@
         <v>85.57199999999999</v>
       </c>
       <c r="T97">
+        <v>85.56</v>
+      </c>
+      <c r="U97">
         <v>-0.04250000000000398</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>-1.557741586266648E-05</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>-7.790103452598451E-05</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>-0.0002336994624911881</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>85.52</v>
@@ -8346,21 +8640,24 @@
         <v>85.56400000000001</v>
       </c>
       <c r="T98">
+        <v>85.55333333333333</v>
+      </c>
+      <c r="U98">
         <v>-0.03874999999999318</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>-3.115531704434016E-05</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>-9.348852428348042E-05</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>-0.0004675081813932946</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>85.54000000000001</v>
@@ -8417,21 +8714,24 @@
         <v>85.55733333333333</v>
       </c>
       <c r="T99">
+        <v>85.54000000000001</v>
+      </c>
+      <c r="U99">
         <v>-0.03249999999999886</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>-2.336721579621059E-05</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>-7.791438767090764E-05</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>0.0002338634237606385</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>85.54000000000001</v>
@@ -8488,21 +8788,24 @@
         <v>85.55200000000001</v>
       </c>
       <c r="T100">
+        <v>85.53333333333335</v>
+      </c>
+      <c r="U100">
         <v>-0.02375000000000682</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>-2.336776183575751E-05</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>-6.233636703645296E-05</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>85.48</v>
@@ -8559,21 +8862,24 @@
         <v>85.54266666666668</v>
       </c>
       <c r="T101">
+        <v>85.52</v>
+      </c>
+      <c r="U101">
         <v>-0.01500000000001478</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>-4.673661580156807E-05</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>-0.000109095442927476</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.0007014262333411292</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>85.48</v>
@@ -8630,21 +8936,24 @@
         <v>85.53466666666667</v>
       </c>
       <c r="T102">
+        <v>85.5</v>
+      </c>
+      <c r="U102">
         <v>-0.008749999999992042</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>-5.452860025101369E-05</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>-9.352058232159344E-05</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>85.5</v>
@@ -8701,21 +9010,24 @@
         <v>85.52933333333334</v>
       </c>
       <c r="T103">
+        <v>85.48666666666668</v>
+      </c>
+      <c r="U103">
         <v>-0.007499999999993179</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>-4.674134895543691E-05</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>-6.23528861590783E-05</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>0.0002339728591482793</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>85.5</v>
@@ -8772,21 +9084,24 @@
         <v>85.52266666666668</v>
       </c>
       <c r="T104">
+        <v>85.49333333333334</v>
+      </c>
+      <c r="U104">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>-3.895294484257406E-05</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>-7.794596785504204E-05</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>85.48</v>
@@ -8843,21 +9158,24 @@
         <v>85.51733333333333</v>
       </c>
       <c r="T105">
+        <v>85.49333333333334</v>
+      </c>
+      <c r="U105">
         <v>-0.01499999999998636</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>-4.674535468029983E-05</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>-6.236163512229886E-05</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>-0.0002339181286549197</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>85.48</v>
@@ -8914,21 +9232,24 @@
         <v>85.51333333333334</v>
       </c>
       <c r="T106">
+        <v>85.48666666666668</v>
+      </c>
+      <c r="U106">
         <v>-0.01500000000000057</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>-4.674753991074088E-05</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>-4.677414325349183E-05</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>85.45999999999999</v>
@@ -8985,21 +9306,24 @@
         <v>85.50933333333333</v>
       </c>
       <c r="T107">
+        <v>85.47333333333334</v>
+      </c>
+      <c r="U107">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>-7.01245880180279E-05</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>-4.677633117644575E-05</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>-0.0002339728591485013</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>85.45999999999999</v>
@@ -9056,21 +9380,24 @@
         <v>85.50800000000001</v>
       </c>
       <c r="T108">
+        <v>85.46666666666665</v>
+      </c>
+      <c r="U108">
         <v>-0.02624999999999034</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>-7.012950582074851E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>-1.559283976781956E-05</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>85.48</v>
@@ -9127,21 +9454,24 @@
         <v>85.50666666666667</v>
       </c>
       <c r="T109">
+        <v>85.46666666666665</v>
+      </c>
+      <c r="U109">
         <v>-0.02625000000000455</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>-5.454899668810853E-05</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>-1.55930829084383E-05</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>0.0002340276152588139</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>85.48</v>
@@ -9198,21 +9528,24 @@
         <v>85.50266666666667</v>
       </c>
       <c r="T110">
+        <v>85.47333333333334</v>
+      </c>
+      <c r="U110">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>-4.675883352289745E-05</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>-4.677997816937562E-05</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>85.5</v>
@@ -9269,21 +9602,24 @@
         <v>85.49733333333333</v>
       </c>
       <c r="T111">
+        <v>85.48666666666668</v>
+      </c>
+      <c r="U111">
         <v>-0.02249999999999375</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>-3.896751667820109E-05</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>-6.237622218419059E-05</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>0.0002339728591482793</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>85.56</v>
@@ -9340,21 +9676,24 @@
         <v>85.49733333333333</v>
       </c>
       <c r="T112">
+        <v>85.51333333333332</v>
+      </c>
+      <c r="U112">
         <v>-0.01375000000000171</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>-3.896903520461681E-05</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>0</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>0.0007017543859648701</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>85.58</v>
@@ -9411,21 +9750,24 @@
         <v>85.50133333333333</v>
       </c>
       <c r="T113">
+        <v>85.54666666666667</v>
+      </c>
+      <c r="U113">
         <v>-0.002499999999997726</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>-2.3382332309696E-05</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>4.678508491506861E-05</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>0.0002337540906964808</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>85.64</v>
@@ -9482,21 +9824,24 @@
         <v>85.50800000000001</v>
       </c>
       <c r="T114">
+        <v>85.59333333333332</v>
+      </c>
+      <c r="U114">
         <v>0.009999999999990905</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>7.797149362209765E-05</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>0.0007010983874737864</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>85.62</v>
@@ -9553,21 +9898,24 @@
         <v>85.51333333333332</v>
       </c>
       <c r="T115">
+        <v>85.61333333333334</v>
+      </c>
+      <c r="U115">
         <v>0.02499999999999147</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>6.237233163353118E-05</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>-0.0002335357309667385</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>85.58</v>
@@ -9624,21 +9972,24 @@
         <v>85.52</v>
       </c>
       <c r="T116">
+        <v>85.61333333333334</v>
+      </c>
+      <c r="U116">
         <v>0.03750000000000853</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>-1.558858603734059E-05</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>7.796055196074292E-05</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>-0.0004671805652886052</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>85.56</v>
@@ -9695,21 +10046,24 @@
         <v>85.52533333333334</v>
       </c>
       <c r="T117">
+        <v>85.58666666666666</v>
+      </c>
+      <c r="U117">
         <v>0.04250000000000398</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>-1.558882904517667E-05</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>6.23635796694888E-05</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>-0.0002336994624911881</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>85.58</v>
@@ -9766,21 +10120,24 @@
         <v>85.53066666666668</v>
       </c>
       <c r="T118">
+        <v>85.57333333333334</v>
+      </c>
+      <c r="U118">
         <v>0.04874999999999829</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>0</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>6.235969069590119E-05</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>0.0002337540906964808</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>85.62</v>
@@ -9837,21 +10194,24 @@
         <v>85.53866666666667</v>
       </c>
       <c r="T119">
+        <v>85.58666666666666</v>
+      </c>
+      <c r="U119">
         <v>0.05624999999999147</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>7.794536030392152E-06</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>9.353370331099953E-05</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>0.0004673989249825983</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>85.64</v>
@@ -9908,21 +10268,24 @@
         <v>85.54933333333334</v>
       </c>
       <c r="T120">
+        <v>85.61333333333334</v>
+      </c>
+      <c r="U120">
         <v>0.05750000000001876</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>3.117790110351848E-05</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>0.0001246999407675808</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>0.0002335902826442471</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>85.59999999999999</v>
@@ -9979,21 +10342,24 @@
         <v>85.55733333333335</v>
       </c>
       <c r="T121">
+        <v>85.62</v>
+      </c>
+      <c r="U121">
         <v>0.05249999999999488</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>2.338269680435268E-05</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>9.351329447349066E-05</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>-0.0004670714619336991</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>85.59999999999999</v>
@@ -10050,21 +10416,24 @@
         <v>85.56666666666666</v>
       </c>
       <c r="T122">
+        <v>85.61333333333333</v>
+      </c>
+      <c r="U122">
         <v>0.03999999999999204</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>3.117620008885602E-05</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>0.0001090886423136261</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>85.59999999999999</v>
@@ -10121,21 +10490,24 @@
         <v>85.57600000000001</v>
       </c>
       <c r="T123">
+        <v>85.60000000000001</v>
+      </c>
+      <c r="U123">
         <v>0.02874999999998806</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>4.676284224536253E-05</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>0.0001090767432803119</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>85.59999999999999</v>
@@ -10192,21 +10564,24 @@
         <v>85.584</v>
       </c>
       <c r="T124">
+        <v>85.59999999999998</v>
+      </c>
+      <c r="U124">
         <v>0.02249999999999375</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>3.896721298701777E-05</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>9.348415443577451E-05</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>85.58</v>
@@ -10263,21 +10638,24 @@
         <v>85.59066666666666</v>
       </c>
       <c r="T125">
+        <v>85.59333333333332</v>
+      </c>
+      <c r="U125">
         <v>0.01874999999999716</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>1.558627784126188E-05</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>7.789617997122633E-05</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>-0.0002336448598130314</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>85.62</v>
@@ -10334,21 +10712,24 @@
         <v>85.59866666666667</v>
       </c>
       <c r="T126">
+        <v>85.59999999999998</v>
+      </c>
+      <c r="U126">
         <v>0.01499999999998636</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>1.558603491269572E-05</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>9.346813515498376E-05</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>0.0004673989249825983</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>85.62</v>
@@ -10405,21 +10786,24 @@
         <v>85.60266666666666</v>
       </c>
       <c r="T127">
+        <v>85.60666666666668</v>
+      </c>
+      <c r="U127">
         <v>0.007499999999993179</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>2.337868798796272E-05</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>4.672969983943176E-05</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>85.59999999999999</v>
@@ -10476,21 +10860,24 @@
         <v>85.60400000000001</v>
       </c>
       <c r="T128">
+        <v>85.61333333333334</v>
+      </c>
+      <c r="U128">
         <v>-1.4210854715202E-14</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>3.117085525028429E-05</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>1.55758387589966E-05</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>-0.0002335902826443581</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>85.58</v>
@@ -10547,21 +10934,24 @@
         <v>85.59999999999999</v>
       </c>
       <c r="T129">
+        <v>85.60000000000001</v>
+      </c>
+      <c r="U129">
         <v>-0.002500000000011937</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>1.558494182929415E-05</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>-4.672678846806555E-05</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>-0.0002336448598130314</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>85.54000000000001</v>
@@ -10618,21 +11008,24 @@
         <v>85.59466666666667</v>
       </c>
       <c r="T130">
+        <v>85.57333333333334</v>
+      </c>
+      <c r="U130">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>-6.23052959500825E-05</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>-0.0004673989249823762</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>85.52</v>
@@ -10689,21 +11082,24 @@
         <v>85.59066666666666</v>
       </c>
       <c r="T131">
+        <v>85.54666666666667</v>
+      </c>
+      <c r="U131">
         <v>-0.00750000000000739</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>1.558469894247239E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>-4.673188360648783E-05</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>-0.0002338087444471171</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>85.48</v>
@@ -10760,21 +11156,24 @@
         <v>85.58533333333334</v>
       </c>
       <c r="T132">
+        <v>85.51333333333334</v>
+      </c>
+      <c r="U132">
         <v>-0.01624999999999943</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>0</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>-6.231209010321148E-05</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>-0.000467726847520944</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>85.5</v>
@@ -10831,21 +11230,24 @@
         <v>85.58</v>
       </c>
       <c r="T133">
+        <v>85.5</v>
+      </c>
+      <c r="U133">
         <v>-0.02249999999999375</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>0</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>-6.231597314187987E-05</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>0.0002339728591482793</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>85.45999999999999</v>
@@ -10902,21 +11304,24 @@
         <v>85.56933333333333</v>
       </c>
       <c r="T134">
+        <v>85.48</v>
+      </c>
+      <c r="U134">
         <v>-0.0350000000000108</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>-1.55844560635332E-05</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>-0.0001246397133286559</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>-0.0004678362573100614</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>85.44</v>
@@ -10973,21 +11378,24 @@
         <v>85.55600000000001</v>
       </c>
       <c r="T135">
+        <v>85.46666666666665</v>
+      </c>
+      <c r="U135">
         <v>-0.04625000000000057</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>-1.558469894258341E-05</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>-0.0001558190629039613</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>-0.0002340276152585918</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>85.42</v>
@@ -11044,21 +11452,24 @@
         <v>85.544</v>
       </c>
       <c r="T136">
+        <v>85.44</v>
+      </c>
+      <c r="U136">
         <v>-0.05499999999999261</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>-2.337741274371918E-05</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>-0.0001402590116417191</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>-0.000234082397003732</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>85.42</v>
@@ -11115,21 +11526,24 @@
         <v>85.532</v>
       </c>
       <c r="T137">
+        <v>85.42666666666668</v>
+      </c>
+      <c r="U137">
         <v>-0.06374999999999886</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>-1.558530617340459E-05</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>-0.0001402786869915129</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>85.44</v>
@@ -11186,21 +11600,24 @@
         <v>85.52133333333333</v>
       </c>
       <c r="T138">
+        <v>85.42666666666668</v>
+      </c>
+      <c r="U138">
         <v>-0.06624999999999659</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>-7.792774539550074E-06</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>-0.0001247096603220754</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>0.0002341372044016854</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>85.44</v>
@@ -11257,21 +11674,24 @@
         <v>85.51066666666667</v>
       </c>
       <c r="T139">
+        <v>85.43333333333334</v>
+      </c>
+      <c r="U139">
         <v>-0.06624999999999659</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>-1.558567053439042E-05</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>-0.0001247252147612565</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>85.44</v>
@@ -11328,21 +11748,24 @@
         <v>85.50133333333333</v>
       </c>
       <c r="T140">
+        <v>85.44</v>
+      </c>
+      <c r="U140">
         <v>-0.06124999999998693</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>-1.558591345141025E-05</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>-0.0001091481764458058</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>85.42</v>
@@ -11399,21 +11822,24 @@
         <v>85.488</v>
       </c>
       <c r="T141">
+        <v>85.43333333333332</v>
+      </c>
+      <c r="U141">
         <v>-0.06125000000000114</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>-3.117231275184817E-05</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>-0.0001559429872438622</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>-0.000234082397003732</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>85.44</v>
@@ -11470,21 +11896,24 @@
         <v>85.47600000000001</v>
       </c>
       <c r="T142">
+        <v>85.43333333333332</v>
+      </c>
+      <c r="U142">
         <v>-0.05249999999999488</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>-4.675992674285645E-05</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>-0.0001403705783266096</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>0.0002341372044016854</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>85.45999999999999</v>
@@ -11541,21 +11970,24 @@
         <v>85.46666666666667</v>
       </c>
       <c r="T143">
+        <v>85.44</v>
+      </c>
+      <c r="U143">
         <v>-0.04000000000000625</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>-4.676211333587421E-05</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>-0.0001091924438829661</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>0.000234082397003732</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>85.44</v>
@@ -11612,21 +12044,24 @@
         <v>85.45733333333332</v>
       </c>
       <c r="T144">
+        <v>85.44666666666666</v>
+      </c>
+      <c r="U144">
         <v>-0.0274999999999892</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>-7.794050022202903E-05</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>-0.0001092043681748534</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>-0.0002340276152585918</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>85.44</v>
@@ -11683,21 +12118,24 @@
         <v>85.45066666666666</v>
       </c>
       <c r="T145">
+        <v>85.44666666666666</v>
+      </c>
+      <c r="U145">
         <v>-0.01624999999999943</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>-7.015191787551611E-05</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>-7.801163933651711E-05</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>85.45999999999999</v>
@@ -11754,21 +12192,24 @@
         <v>85.44666666666667</v>
       </c>
       <c r="T146">
+        <v>85.44666666666667</v>
+      </c>
+      <c r="U146">
         <v>-0.008750000000006253</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>-4.677122634155761E-05</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>-4.681063537625985E-05</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>0.000234082397003732</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>85.42</v>
@@ -11825,21 +12266,24 @@
         <v>85.44266666666667</v>
       </c>
       <c r="T147">
+        <v>85.44</v>
+      </c>
+      <c r="U147">
         <v>-0.005000000000009663</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>-5.45689829900553E-05</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>-4.681282671459286E-05</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>-0.0004680552305170727</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>85.52</v>
@@ -11896,21 +12340,24 @@
         <v>85.444</v>
       </c>
       <c r="T148">
+        <v>85.46666666666665</v>
+      </c>
+      <c r="U148">
         <v>0.002499999999983515</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>-2.338798325418612E-05</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>1.560500608599469E-05</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>0.001170686022008871</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>85.66</v>
@@ -11967,21 +12414,24 @@
         <v>85.45733333333332</v>
       </c>
       <c r="T149">
+        <v>85.53333333333335</v>
+      </c>
+      <c r="U149">
         <v>0.02249999999999375</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>1.559235350989674E-05</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>0.0001560476257351784</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>0.001637043966323581</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>85.64</v>
@@ -12038,21 +12488,24 @@
         <v>85.47066666666666</v>
       </c>
       <c r="T150">
+        <v>85.60666666666667</v>
+      </c>
+      <c r="U150">
         <v>0.03624999999999545</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>0.0001560232786732563</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>-0.0002334812047629642</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>85.68000000000001</v>
@@ -12109,21 +12562,24 @@
         <v>85.48800000000001</v>
       </c>
       <c r="T151">
+        <v>85.66000000000001</v>
+      </c>
+      <c r="U151">
         <v>0.04874999999999829</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>3.118422078451921E-05</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>0.0002027986209696131</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>0.0004670714619336991</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>85.68000000000001</v>
@@ -12180,21 +12636,24 @@
         <v>85.50533333333333</v>
       </c>
       <c r="T152">
+        <v>85.66666666666667</v>
+      </c>
+      <c r="U152">
         <v>0.0625</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>3.118324835882369E-05</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>0.000202757502027362</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>85.64</v>
@@ -12251,21 +12710,24 @@
         <v>85.51866666666666</v>
       </c>
       <c r="T153">
+        <v>85.66666666666667</v>
+      </c>
+      <c r="U153">
         <v>0.07375000000000398</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>1.559113799709522E-05</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>0.000155935692120579</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>-0.000466853408029988</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>85.68000000000001</v>
@@ -12322,21 +12784,24 @@
         <v>85.53466666666667</v>
       </c>
       <c r="T154">
+        <v>85.66666666666667</v>
+      </c>
+      <c r="U154">
         <v>0.08624999999999261</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>3.118178983485542E-05</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>0.0001870936559660308</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>0.0004670714619336991</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>85.66</v>
@@ -12393,21 +12858,24 @@
         <v>85.54933333333334</v>
       </c>
       <c r="T155">
+        <v>85.66000000000001</v>
+      </c>
+      <c r="U155">
         <v>0.1025000000000205</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>3.118081756081637E-05</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>0.0001714704369379927</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>-0.0002334267040150495</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>85.68000000000001</v>
@@ -12464,21 +12932,24 @@
         <v>85.56666666666666</v>
       </c>
       <c r="T156">
+        <v>85.67333333333333</v>
+      </c>
+      <c r="U156">
         <v>0.1075000000000017</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>2.33848840109907E-05</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>0.0002026121380256374</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>0.0002334812047630752</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>85.66</v>
@@ -12535,21 +13006,24 @@
         <v>85.58133333333333</v>
       </c>
       <c r="T157">
+        <v>85.66666666666667</v>
+      </c>
+      <c r="U157">
         <v>0.09250000000000114</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>1.558955811420404E-05</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>0.0001714063108688713</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>-0.0002334267040150495</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>85.64</v>
@@ -12606,21 +13080,24 @@
         <v>85.59333333333332</v>
       </c>
       <c r="T158">
+        <v>85.66000000000001</v>
+      </c>
+      <c r="U158">
         <v>0.07999999999999829</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>1.558931508349737E-05</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>0.0001402174929110434</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>-0.0002334812047629642</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>85.73999999999999</v>
@@ -12677,21 +13154,24 @@
         <v>85.61333333333333</v>
       </c>
       <c r="T159">
+        <v>85.67999999999999</v>
+      </c>
+      <c r="U159">
         <v>0.07000000000000739</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>6.235628824202699E-05</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>0.0002336630578707588</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>0.001167678654834026</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>85.78</v>
@@ -12748,21 +13228,24 @@
         <v>85.636</v>
       </c>
       <c r="T160">
+        <v>85.71999999999998</v>
+      </c>
+      <c r="U160">
         <v>0.06125000000000114</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>9.352860026634602E-05</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>0.000264756268494093</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>0.0004665267086541025</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>85.72</v>
@@ -12819,21 +13302,24 @@
         <v>85.65333333333334</v>
       </c>
       <c r="T161">
+        <v>85.74666666666667</v>
+      </c>
+      <c r="U161">
         <v>0.05374999999999375</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>7.79332112381681E-05</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>0.0002024070873620776</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>-0.0006994637444626139</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>85.72</v>
@@ -12890,21 +13376,24 @@
         <v>85.67333333333333</v>
       </c>
       <c r="T162">
+        <v>85.74000000000001</v>
+      </c>
+      <c r="U162">
         <v>0.04250000000000398</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>9.351256575107492E-05</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>0.000233499377334967</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>85.73999999999999</v>
@@ -12961,21 +13450,24 @@
         <v>85.688</v>
       </c>
       <c r="T163">
+        <v>85.72666666666667</v>
+      </c>
+      <c r="U163">
         <v>0.03250000000001307</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>9.35038219687101E-05</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>0.0001711929032761628</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>0.0002333177788147456</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>85.76000000000001</v>
@@ -13032,21 +13524,24 @@
         <v>85.69466666666668</v>
       </c>
       <c r="T164">
+        <v>85.74000000000001</v>
+      </c>
+      <c r="U164">
         <v>0.02750000000000341</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>0.0001168688497770187</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>7.780163694648401E-05</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>0.0002332633543271623</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>85.78</v>
@@ -13103,21 +13598,24 @@
         <v>85.70399999999999</v>
       </c>
       <c r="T165">
+        <v>85.75999999999999</v>
+      </c>
+      <c r="U165">
         <v>0.03499999999999659</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>0.0001324358854508656</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>0.0001089138180514482</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>0.0002332089552239403</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>85.84</v>
@@ -13174,21 +13672,24 @@
         <v>85.71466666666666</v>
       </c>
       <c r="T166">
+        <v>85.79333333333334</v>
+      </c>
+      <c r="U166">
         <v>0.04749999999999943</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>0.0001635756069822136</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>0.0001244593795699522</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>0.0006994637444626139</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>85.81999999999999</v>
@@ -13245,21 +13746,24 @@
         <v>85.724</v>
       </c>
       <c r="T167">
+        <v>85.81333333333333</v>
+      </c>
+      <c r="U167">
         <v>0.04875000000001251</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>0.0001557608136946165</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>0.0001088884049404992</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>-0.0002329916123020581</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>85.92</v>
@@ -13316,21 +13820,24 @@
         <v>85.74266666666666</v>
       </c>
       <c r="T168">
+        <v>85.86</v>
+      </c>
+      <c r="U168">
         <v>0.05125000000001023</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>0.0001868838672502982</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>0.0002177530990932208</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>0.00116522955022158</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>85.90000000000001</v>
@@ -13387,21 +13894,24 @@
         <v>85.75733333333332</v>
       </c>
       <c r="T169">
+        <v>85.88</v>
+      </c>
+      <c r="U169">
         <v>0.05750000000000455</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>0.0001790635753546876</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>0.0001710544730744168</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>-0.0002327746741154213</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>85.86</v>
@@ -13458,21 +13968,24 @@
         <v>85.77066666666666</v>
       </c>
       <c r="T170">
+        <v>85.89333333333333</v>
+      </c>
+      <c r="U170">
         <v>0.06375000000001307</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>0.0001634635593021905</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>0.0001554774713143914</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>-0.0004656577415600438</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>85.86</v>
@@ -13529,21 +14042,24 @@
         <v>85.78266666666667</v>
       </c>
       <c r="T171">
+        <v>85.87333333333333</v>
+      </c>
+      <c r="U171">
         <v>0.06624999999999659</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>0.0001712195501597513</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>0.0001399079716455365</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>85.8</v>
@@ -13600,21 +14116,24 @@
         <v>85.79199999999999</v>
       </c>
       <c r="T172">
+        <v>85.83999999999999</v>
+      </c>
+      <c r="U172">
         <v>0.06374999999999886</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>0.0001400647410358946</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>0.000108802088999882</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>-0.0006988120195667857</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>85.8</v>
@@ -13671,21 +14190,24 @@
         <v>85.80266666666667</v>
       </c>
       <c r="T173">
+        <v>85.81999999999999</v>
+      </c>
+      <c r="U173">
         <v>0.05750000000001876</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>0.0001322648408930149</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>0.0001243317170211977</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>85.76000000000001</v>
@@ -13742,21 +14264,24 @@
         <v>85.804</v>
       </c>
       <c r="T174">
+        <v>85.78666666666668</v>
+      </c>
+      <c r="U174">
         <v>0.04000000000000625</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>0.0001244680933820685</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>1.553953257094065E-05</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>-0.0004662004662003838</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>85.86</v>
@@ -13813,21 +14338,24 @@
         <v>85.80933333333334</v>
       </c>
       <c r="T175">
+        <v>85.80666666666667</v>
+      </c>
+      <c r="U175">
         <v>0.03750000000000853</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>0.0001633440414425813</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>6.215716439017527E-05</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>0.001166044776119257</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>85.78</v>
@@ -13884,21 +14412,24 @@
         <v>85.81333333333333</v>
       </c>
       <c r="T176">
+        <v>85.8</v>
+      </c>
+      <c r="U176">
         <v>0.01999999999999602</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>0.0001244322777329554</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>4.661497583779983E-05</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>-0.000931749359422307</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>85.73999999999999</v>
@@ -13955,21 +14486,24 @@
         <v>85.81466666666667</v>
       </c>
       <c r="T177">
+        <v>85.79333333333334</v>
+      </c>
+      <c r="U177">
         <v>-0.001249999999998863</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>0.0001244167962672904</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>1.553760099448631E-05</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>-0.000466309162975076</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>85.73999999999999</v>
@@ -14026,21 +14560,24 @@
         <v>85.81466666666667</v>
       </c>
       <c r="T178">
+        <v>85.75333333333333</v>
+      </c>
+      <c r="U178">
         <v>-0.01749999999999829</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>8.552590657484593E-05</v>
-      </c>
-      <c r="V178">
-        <v>0</v>
       </c>
       <c r="W178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:23">
+      <c r="X178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>85.72</v>
@@ -14097,21 +14634,24 @@
         <v>85.812</v>
       </c>
       <c r="T179">
+        <v>85.73333333333333</v>
+      </c>
+      <c r="U179">
         <v>-0.03375000000001194</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>2.332325250531397E-05</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>-3.107471916230509E-05</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>-0.0002332633543269402</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>85.7</v>
@@ -14168,21 +14708,24 @@
         <v>85.80666666666666</v>
       </c>
       <c r="T180">
+        <v>85.71999999999998</v>
+      </c>
+      <c r="U180">
         <v>-0.04250000000000398</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>2.332270854399354E-05</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>-6.215136966092327E-05</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>-0.0002333177788147456</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>85.7</v>
@@ -14239,21 +14782,24 @@
         <v>85.79733333333333</v>
       </c>
       <c r="T181">
+        <v>85.70666666666666</v>
+      </c>
+      <c r="U181">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>7.774054869180702E-06</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>-0.0001087716572139019</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>85.72</v>
@@ -14310,21 +14856,24 @@
         <v>85.79066666666667</v>
       </c>
       <c r="T182">
+        <v>85.70666666666666</v>
+      </c>
+      <c r="U182">
         <v>-0.04750000000001364</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>1.554798886771458E-05</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>-7.770249269589691E-05</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>0.0002333722287046758</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>85.68000000000001</v>
@@ -14381,21 +14930,24 @@
         <v>85.77466666666668</v>
       </c>
       <c r="T183">
+        <v>85.7</v>
+      </c>
+      <c r="U183">
         <v>-0.06125000000000114</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>1.554774713152796E-05</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>-0.0001865004740219112</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>-0.0004666355576293801</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>85.66</v>
@@ -14452,21 +15004,24 @@
         <v>85.75866666666667</v>
       </c>
       <c r="T184">
+        <v>85.68666666666667</v>
+      </c>
+      <c r="U184">
         <v>-0.06000000000001648</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>-7.773752701445424E-06</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>-0.0001865352629371042</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>-0.0002334267040150495</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>85.68000000000001</v>
@@ -14523,21 +15078,24 @@
         <v>85.74666666666666</v>
       </c>
       <c r="T185">
+        <v>85.67333333333333</v>
+      </c>
+      <c r="U185">
         <v>-0.05374999999999375</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>7.773813133216123E-06</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>-0.0001399275486250184</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>0.0002334812047630752</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>85.66</v>
@@ -14594,21 +15152,24 @@
         <v>85.73333333333333</v>
       </c>
       <c r="T186">
+        <v>85.66666666666667</v>
+      </c>
+      <c r="U186">
         <v>-0.05124999999999602</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>-7.773752701445424E-06</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>-0.0001554968123151923</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>-0.0002334267040150495</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>85.66</v>
@@ -14665,21 +15226,24 @@
         <v>85.724</v>
       </c>
       <c r="T187">
+        <v>85.66666666666667</v>
+      </c>
+      <c r="U187">
         <v>-0.04625000000000057</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>0</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>-0.0001088646967339901</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>85.68000000000001</v>
@@ -14736,21 +15300,24 @@
         <v>85.71599999999999</v>
       </c>
       <c r="T188">
+        <v>85.66666666666667</v>
+      </c>
+      <c r="U188">
         <v>-0.04124999999999091</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>1.554762626643225E-05</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>-9.332275675433266E-05</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>0.0002334812047630752</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>85.66</v>
@@ -14807,21 +15374,24 @@
         <v>85.70933333333333</v>
       </c>
       <c r="T189">
+        <v>85.66666666666667</v>
+      </c>
+      <c r="U189">
         <v>-0.03750000000000853</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>-3.109476908269571E-05</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>-7.777622225324521E-05</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>-0.0002334267040150495</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>85.68000000000001</v>
@@ -14878,21 +15448,24 @@
         <v>85.69733333333333</v>
       </c>
       <c r="T190">
+        <v>85.67333333333335</v>
+      </c>
+      <c r="U190">
         <v>-0.03750000000000853</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>-3.886966999644414E-05</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>-0.0001400080893563249</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>0.0002334812047630752</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>85.64</v>
@@ -14949,21 +15522,24 @@
         <v>85.688</v>
       </c>
       <c r="T191">
+        <v>85.66000000000001</v>
+      </c>
+      <c r="U191">
         <v>-0.02875000000000227</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>-3.109694472525071E-05</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>-0.0001089104289514475</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>-0.000466853408029988</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>85.62</v>
@@ -15020,21 +15596,24 @@
         <v>85.68000000000001</v>
       </c>
       <c r="T192">
+        <v>85.64666666666666</v>
+      </c>
+      <c r="U192">
         <v>-0.02375000000000682</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>-3.887238971900242E-05</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>-9.336196433562538E-05</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>-0.0002335357309667385</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>85.58</v>
@@ -15091,21 +15670,24 @@
         <v>85.66933333333333</v>
       </c>
       <c r="T193">
+        <v>85.61333333333333</v>
+      </c>
+      <c r="U193">
         <v>-0.02625000000000455</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>-6.219824134467977E-05</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>-0.0001244942421414486</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>-0.0004671805652886052</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>85.58</v>
@@ -15162,21 +15744,24 @@
         <v>85.66</v>
       </c>
       <c r="T194">
+        <v>85.59333333333332</v>
+      </c>
+      <c r="U194">
         <v>-0.02624999999999034</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>-6.997737398239945E-05</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>-0.000108946025026424</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>85.54000000000001</v>
@@ -15233,21 +15818,24 @@
         <v>85.64933333333333</v>
       </c>
       <c r="T195">
+        <v>85.56666666666666</v>
+      </c>
+      <c r="U195">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>-9.330969487741925E-05</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>-0.0001245233092069808</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>-0.0004673989249823762</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>85.52</v>
@@ -15304,21 +15892,24 @@
         <v>85.63733333333334</v>
       </c>
       <c r="T196">
+        <v>85.54666666666667</v>
+      </c>
+      <c r="U196">
         <v>-0.0387500000000216</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>-0.0001244245365186192</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>-0.0001401061693414585</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>-0.0002338087444471171</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>85.56</v>
@@ -15375,21 +15966,24 @@
         <v>85.62666666666668</v>
       </c>
       <c r="T197">
+        <v>85.54000000000001</v>
+      </c>
+      <c r="U197">
         <v>-0.04250000000000398</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>-0.0001011075161772013</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>-0.0001245562682942181</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>0.000467726847521055</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>85.56</v>
@@ -15446,21 +16040,24 @@
         <v>85.61866666666667</v>
       </c>
       <c r="T198">
+        <v>85.54666666666667</v>
+      </c>
+      <c r="U198">
         <v>-0.04749999999999943</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>-0.0001400091783793078</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>-9.342883836827021E-05</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>85.56</v>
@@ -15517,21 +16114,24 @@
         <v>85.61199999999999</v>
       </c>
       <c r="T199">
+        <v>85.56</v>
+      </c>
+      <c r="U199">
         <v>-0.04999999999998295</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>-0.0001322494068225488</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>-7.786464010972605E-05</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>85.56</v>
@@ -15588,21 +16188,24 @@
         <v>85.60400000000001</v>
       </c>
       <c r="T200">
+        <v>85.56</v>
+      </c>
+      <c r="U200">
         <v>-0.05124999999999602</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>-0.000116706087389451</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>-9.344484418050136E-05</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>85.54000000000001</v>
@@ -15659,21 +16262,24 @@
         <v>85.596</v>
       </c>
       <c r="T201">
+        <v>85.55333333333334</v>
+      </c>
+      <c r="U201">
         <v>-0.04749999999999943</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>-0.0001245010232429067</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>-9.345357693579803E-05</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>-0.0002337540906965918</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>85.54000000000001</v>
@@ -15730,21 +16336,24 @@
         <v>85.58799999999999</v>
       </c>
       <c r="T202">
+        <v>85.54666666666667</v>
+      </c>
+      <c r="U202">
         <v>-0.04500000000000171</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>-0.0001011696771131554</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>-9.346231132312255E-05</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>85.54000000000001</v>
@@ -15801,21 +16410,24 @@
         <v>85.57866666666668</v>
       </c>
       <c r="T203">
+        <v>85.54000000000001</v>
+      </c>
+      <c r="U203">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>-0.000101179913452154</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>-0.000109049555233387</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>85.5</v>
@@ -15872,21 +16484,24 @@
         <v>85.568</v>
       </c>
       <c r="T204">
+        <v>85.52666666666666</v>
+      </c>
+      <c r="U204">
         <v>-0.02875000000000227</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>-0.0001011901518631619</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>-0.0001246416552412866</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>-0.0004676174888941231</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>85.44</v>
@@ -15943,21 +16558,24 @@
         <v>85.55199999999999</v>
       </c>
       <c r="T205">
+        <v>85.49333333333334</v>
+      </c>
+      <c r="U205">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>-0.0001634775568667424</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>-0.0001869857890800519</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>-0.0007017543859649811</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>85.45999999999999</v>
@@ -16014,21 +16632,24 @@
         <v>85.54000000000001</v>
       </c>
       <c r="T206">
+        <v>85.46666666666665</v>
+      </c>
+      <c r="U206">
         <v>-0.02874999999998806</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>-0.0001245746942080128</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>-0.0001402655694781041</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>0.000234082397003732</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>85.48</v>
@@ -16085,21 +16706,24 @@
         <v>85.53066666666668</v>
       </c>
       <c r="T207">
+        <v>85.45999999999999</v>
+      </c>
+      <c r="U207">
         <v>-0.02875000000001648</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>-0.0001012295496841675</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>-0.0001091107474086028</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>0.0002340276152588139</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>85.48</v>
@@ -16156,21 +16780,24 @@
         <v>85.52400000000002</v>
       </c>
       <c r="T208">
+        <v>85.47333333333331</v>
+      </c>
+      <c r="U208">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>-0.000101239798143582</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>-7.794475275912927E-05</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>85.45999999999999</v>
@@ -16227,21 +16854,24 @@
         <v>85.51600000000001</v>
       </c>
       <c r="T209">
+        <v>85.47333333333334</v>
+      </c>
+      <c r="U209">
         <v>-0.03249999999999886</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>-0.0001012500486777812</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>-9.354099434089047E-05</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>-0.0002339728591485013</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>85.44</v>
@@ -16298,21 +16928,24 @@
         <v>85.50933333333333</v>
       </c>
       <c r="T210">
+        <v>85.45999999999999</v>
+      </c>
+      <c r="U210">
         <v>-0.03625000000000966</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>-0.0001012603012884306</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>-7.795812089750331E-05</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>-0.0002340276152585918</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>85.48</v>
@@ -16369,21 +17002,24 @@
         <v>85.50666666666666</v>
       </c>
       <c r="T211">
+        <v>85.45999999999999</v>
+      </c>
+      <c r="U211">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>-8.56904704404915E-05</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>-3.118567953597218E-05</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>0.000468164794007464</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>85.48</v>
@@ -16440,21 +17076,24 @@
         <v>85.50133333333333</v>
       </c>
       <c r="T212">
+        <v>85.46666666666668</v>
+      </c>
+      <c r="U212">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>-9.348852428381349E-05</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>-6.237330422564913E-05</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>85.5</v>
@@ -16511,21 +17150,24 @@
         <v>85.49733333333333</v>
       </c>
       <c r="T213">
+        <v>85.48666666666668</v>
+      </c>
+      <c r="U213">
         <v>-0.02875000000000227</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>-7.012294890373916E-05</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>-4.678289617321418E-05</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>0.0002339728591482793</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>85.48</v>
@@ -16582,21 +17224,24 @@
         <v>85.492</v>
       </c>
       <c r="T214">
+        <v>85.48666666666668</v>
+      </c>
+      <c r="U214">
         <v>-0.02125000000000909</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>-7.012786647653257E-05</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>-6.238011321979542E-05</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>-0.0002339181286549197</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>85.48</v>
@@ -16653,21 +17298,24 @@
         <v>85.48666666666666</v>
       </c>
       <c r="T215">
+        <v>85.48666666666666</v>
+      </c>
+      <c r="U215">
         <v>-0.01624999999999943</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>-7.79253163770699E-05</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>-6.238400474123384E-05</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>85.48</v>
@@ -16724,21 +17372,24 @@
         <v>85.48266666666667</v>
       </c>
       <c r="T216">
+        <v>85.48</v>
+      </c>
+      <c r="U216">
         <v>-0.01124999999998977</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>-7.013825028423515E-05</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>-4.67909225608798E-05</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>85.48</v>
@@ -16795,21 +17446,24 @@
         <v>85.47866666666667</v>
       </c>
       <c r="T217">
+        <v>85.48</v>
+      </c>
+      <c r="U217">
         <v>-0.004999999999995453</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>-7.014317000364478E-05</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>-4.679311205391112E-05</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>85.48</v>
@@ -16866,21 +17520,24 @@
         <v>85.47466666666668</v>
       </c>
       <c r="T218">
+        <v>85.48</v>
+      </c>
+      <c r="U218">
         <v>0.0037500000000108</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>-7.794232268132362E-05</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>-4.679530175155655E-05</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>85.45999999999999</v>
@@ -16937,21 +17594,24 @@
         <v>85.47200000000001</v>
       </c>
       <c r="T219">
+        <v>85.47333333333334</v>
+      </c>
+      <c r="U219">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>-7.794839816033239E-05</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>-3.119832776965481E-05</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>-0.0002339728591485013</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>85.52</v>
@@ -17008,21 +17668,24 @@
         <v>85.47733333333333</v>
       </c>
       <c r="T220">
+        <v>85.48666666666666</v>
+      </c>
+      <c r="U220">
         <v>0.009999999999990905</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>-6.236357966937778E-05</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>6.239860227119642E-05</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>0.0007020828457757755</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>85.48</v>
@@ -17079,21 +17742,24 @@
         <v>85.47866666666667</v>
       </c>
       <c r="T221">
+        <v>85.48666666666666</v>
+      </c>
+      <c r="U221">
         <v>0.004999999999995453</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>-6.236746912813285E-05</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>1.559867723210928E-05</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>-0.000467726847520944</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>85.48</v>
@@ -17150,21 +17816,24 @@
         <v>85.47866666666665</v>
       </c>
       <c r="T222">
+        <v>85.49333333333334</v>
+      </c>
+      <c r="U222">
         <v>0.0037500000000108</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>-5.457493918792355E-05</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>85.48</v>
@@ -17221,21 +17890,24 @@
         <v>85.47866666666665</v>
       </c>
       <c r="T223">
+        <v>85.48</v>
+      </c>
+      <c r="U223">
         <v>0.0037500000000108</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>-3.898422698167536E-05</v>
-      </c>
-      <c r="V223">
-        <v>0</v>
       </c>
       <c r="W223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:23">
+      <c r="X223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>85.45999999999999</v>
@@ -17292,21 +17964,24 @@
         <v>85.47866666666667</v>
       </c>
       <c r="T224">
+        <v>85.47333333333331</v>
+      </c>
+      <c r="U224">
         <v>0.002499999999997726</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>-4.678289617321418E-05</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>-0.0002339728591485013</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>85.48</v>
@@ -17363,21 +18038,24 @@
         <v>85.48133333333334</v>
       </c>
       <c r="T225">
+        <v>85.47333333333334</v>
+      </c>
+      <c r="U225">
         <v>0.001249999999984652</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>-2.339254245742328E-05</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>3.119686783459308E-05</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>0.0002340276152588139</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>85.5</v>
@@ -17434,21 +18112,24 @@
         <v>85.48266666666667</v>
       </c>
       <c r="T226">
+        <v>85.48</v>
+      </c>
+      <c r="U226">
         <v>-1.4210854715202E-14</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>-7.797696560341016E-06</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>1.559794731020858E-05</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>0.0002339728591482793</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>85.5</v>
@@ -17505,21 +18186,24 @@
         <v>85.48399999999999</v>
       </c>
       <c r="T227">
+        <v>85.49333333333334</v>
+      </c>
+      <c r="U227">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>-2.339327209488484E-05</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>1.559770401771132E-05</v>
       </c>
-      <c r="W227">
+      <c r="X227">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>85.54000000000001</v>
@@ -17576,21 +18260,24 @@
         <v>85.48666666666666</v>
       </c>
       <c r="T228">
+        <v>85.51333333333332</v>
+      </c>
+      <c r="U228">
         <v>0.002500000000011937</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>-7.79793978455956E-06</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>3.119492146685943E-05</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>0.0004678362573100614</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>85.56</v>
@@ -17647,21 +18334,24 @@
         <v>85.492</v>
       </c>
       <c r="T229">
+        <v>85.53333333333335</v>
+      </c>
+      <c r="U229">
         <v>0.008749999999992042</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>0</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>6.238789674806178E-05</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>0.000233808744446895</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>85.56</v>
@@ -17718,21 +18408,24 @@
         <v>85.49733333333333</v>
       </c>
       <c r="T230">
+        <v>85.55333333333333</v>
+      </c>
+      <c r="U230">
         <v>0.01375000000000171</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>0</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>6.238400474112282E-05</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>85.54000000000001</v>
@@ -17789,21 +18482,24 @@
         <v>85.50133333333333</v>
       </c>
       <c r="T231">
+        <v>85.55333333333334</v>
+      </c>
+      <c r="U231">
         <v>0.01749999999999829</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>4.678508491506861E-05</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>-0.0002337540906965918</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>85.54000000000001</v>
@@ -17860,21 +18556,24 @@
         <v>85.50533333333333</v>
       </c>
       <c r="T232">
+        <v>85.54666666666667</v>
+      </c>
+      <c r="U232">
         <v>0.02375000000000682</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>0</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>4.678289617299214E-05</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>85.45999999999999</v>
@@ -17931,21 +18630,24 @@
         <v>85.50399999999999</v>
       </c>
       <c r="T233">
+        <v>85.51333333333334</v>
+      </c>
+      <c r="U233">
         <v>0.02250000000000796</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>-3.119200237045039E-05</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>-1.559356921210231E-05</v>
       </c>
-      <c r="W233">
+      <c r="X233">
         <v>-0.0009352349777883573</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>85.48</v>
@@ -18002,21 +18704,24 @@
         <v>85.50533333333333</v>
       </c>
       <c r="T234">
+        <v>85.49333333333334</v>
+      </c>
+      <c r="U234">
         <v>0.02000000000001023</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>-7.798243835788199E-06</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>1.559381237536961E-05</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>0.0002340276152588139</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>85.45999999999999</v>
@@ -18073,21 +18778,24 @@
         <v>85.50133333333333</v>
       </c>
       <c r="T235">
+        <v>85.46666666666665</v>
+      </c>
+      <c r="U235">
         <v>0.01500000000001478</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>7.798304648698462E-06</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>-4.678070763608488E-05</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>-0.0002339728591485013</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>85.45999999999999</v>
@@ -18144,21 +18852,24 @@
         <v>85.5</v>
       </c>
       <c r="T236">
+        <v>85.46666666666665</v>
+      </c>
+      <c r="U236">
         <v>0.008749999999992042</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>0</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>-1.559429872444174E-05</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>85.44</v>
@@ -18215,21 +18926,24 @@
         <v>85.49733333333332</v>
       </c>
       <c r="T237">
+        <v>85.45333333333333</v>
+      </c>
+      <c r="U237">
         <v>-0.003749999999982379</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>-1.559648767102129E-05</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>-3.118908382082619E-05</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>-0.0002340276152585918</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>85.44</v>
@@ -18286,21 +19000,24 @@
         <v>85.49466666666667</v>
       </c>
       <c r="T238">
+        <v>85.44666666666667</v>
+      </c>
+      <c r="U238">
         <v>-0.01625000000001364</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>-1.559673092521585E-05</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>-3.119005660967566E-05</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>85.42</v>
@@ -18357,21 +19074,24 @@
         <v>85.492</v>
       </c>
       <c r="T239">
+        <v>85.43333333333334</v>
+      </c>
+      <c r="U239">
         <v>-0.02750000000000341</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>-1.559697418707096E-05</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>-3.119102945992047E-05</v>
       </c>
-      <c r="W239">
+      <c r="X239">
         <v>-0.000234082397003732</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>85.36</v>
@@ -18428,21 +19148,24 @@
         <v>85.48399999999999</v>
       </c>
       <c r="T240">
+        <v>85.40666666666668</v>
+      </c>
+      <c r="U240">
         <v>-0.04375000000000284</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>-3.119443491272911E-05</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>-9.357600711190628E-05</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>-0.0007024116132053893</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>85.36</v>
@@ -18499,21 +19222,24 @@
         <v>85.47466666666668</v>
       </c>
       <c r="T241">
+        <v>85.38</v>
+      </c>
+      <c r="U241">
         <v>-0.04875000000001251</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>-4.679311205413317E-05</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>-0.0001091822251335639</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>85.3</v>
@@ -18570,21 +19296,24 @@
         <v>85.46133333333334</v>
       </c>
       <c r="T242">
+        <v>85.33999999999999</v>
+      </c>
+      <c r="U242">
         <v>-0.05875000000000341</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>-7.019295262755687E-05</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>-0.000155991638848163</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>-0.0007029053420806175</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>85.31999999999999</v>
@@ -18641,21 +19370,24 @@
         <v>85.44666666666667</v>
       </c>
       <c r="T243">
+        <v>85.32666666666667</v>
+      </c>
+      <c r="U243">
         <v>-0.06500000000001194</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>-7.019788002382565E-05</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>-0.0001716175736395931</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>0.0002344665885110064</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>85.28</v>
@@ -18712,21 +19444,24 @@
         <v>85.42799999999998</v>
       </c>
       <c r="T244">
+        <v>85.3</v>
+      </c>
+      <c r="U244">
         <v>-0.07124999999999204</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>-7.800312012473665E-05</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>-0.0002184598580013963</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>-0.0004688232536332881</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245">
         <v>85.3</v>
@@ -18783,21 +19518,24 @@
         <v>85.41066666666666</v>
       </c>
       <c r="T245">
+        <v>85.3</v>
+      </c>
+      <c r="U245">
         <v>-0.07249999999999091</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>-7.020828457759976E-05</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>-0.0002028999079145555</v>
       </c>
-      <c r="W245">
+      <c r="X245">
         <v>0.000234521575984914</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246">
         <v>85.31999999999999</v>
@@ -18854,21 +19592,24 @@
         <v>85.396</v>
       </c>
       <c r="T246">
+        <v>85.3</v>
+      </c>
+      <c r="U246">
         <v>-0.07250000000000512</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <v>-6.241174589061149E-05</v>
       </c>
-      <c r="V246">
+      <c r="W246">
         <v>-0.0001717193793123739</v>
       </c>
-      <c r="W246">
+      <c r="X246">
         <v>0.0002344665885110064</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247">
         <v>85.3</v>
@@ -18925,21 +19666,24 @@
         <v>85.38000000000001</v>
       </c>
       <c r="T247">
+        <v>85.30666666666666</v>
+      </c>
+      <c r="U247">
         <v>-0.07250000000000512</v>
       </c>
-      <c r="U247">
+      <c r="V247">
         <v>-7.021759652969806E-05</v>
       </c>
-      <c r="V247">
+      <c r="W247">
         <v>-0.000187362405733138</v>
       </c>
-      <c r="W247">
+      <c r="X247">
         <v>-0.0002344116268165886</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248">
         <v>85.3</v>
@@ -18996,21 +19740,24 @@
         <v>85.36933333333333</v>
       </c>
       <c r="T248">
+        <v>85.30666666666667</v>
+      </c>
+      <c r="U248">
         <v>-0.06499999999999773</v>
       </c>
-      <c r="U248">
+      <c r="V248">
         <v>-7.022252738664303E-05</v>
       </c>
-      <c r="V248">
+      <c r="W248">
         <v>-0.000124931677988771</v>
       </c>
-      <c r="W248">
+      <c r="X248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B249">
         <v>85.36</v>
@@ -19067,21 +19814,24 @@
         <v>85.36133333333333</v>
       </c>
       <c r="T249">
+        <v>85.32000000000001</v>
+      </c>
+      <c r="U249">
         <v>-0.05875000000000341</v>
       </c>
-      <c r="U249">
+      <c r="V249">
         <v>-3.901525496485814E-05</v>
       </c>
-      <c r="V249">
+      <c r="W249">
         <v>-9.371046589712329E-05</v>
       </c>
-      <c r="W249">
+      <c r="X249">
         <v>0.0007033997655334634</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250">
         <v>85.34</v>
@@ -19138,21 +19888,24 @@
         <v>85.35333333333332</v>
       </c>
       <c r="T250">
+        <v>85.33333333333333</v>
+      </c>
+      <c r="U250">
         <v>-0.04500000000000171</v>
       </c>
-      <c r="U250">
+      <c r="V250">
         <v>-7.023019898555471E-05</v>
       </c>
-      <c r="V250">
+      <c r="W250">
         <v>-9.371924837175971E-05</v>
       </c>
-      <c r="W250">
+      <c r="X250">
         <v>-0.0002343017806935022</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251">
         <v>85.31999999999999</v>
@@ -19209,21 +19962,24 @@
         <v>85.34399999999999</v>
       </c>
       <c r="T251">
+        <v>85.33999999999999</v>
+      </c>
+      <c r="U251">
         <v>-0.03624999999999545</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <v>-6.243122810023483E-05</v>
       </c>
-      <c r="V251">
+      <c r="W251">
         <v>-0.0001093493712410742</v>
       </c>
-      <c r="W251">
+      <c r="X251">
         <v>-0.0002343566908836747</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252">
         <v>85.31999999999999</v>
@@ -19280,21 +20036,24 @@
         <v>85.336</v>
       </c>
       <c r="T252">
+        <v>85.32666666666667</v>
+      </c>
+      <c r="U252">
         <v>-0.02249999999997954</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <v>-6.243512600201395E-05</v>
       </c>
-      <c r="V252">
+      <c r="W252">
         <v>-9.373828271463935E-05</v>
       </c>
-      <c r="W252">
+      <c r="X252">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B253">
         <v>85.40000000000001</v>
@@ -19351,21 +20110,24 @@
         <v>85.33333333333333</v>
       </c>
       <c r="T253">
+        <v>85.34666666666665</v>
+      </c>
+      <c r="U253">
         <v>-0.00750000000000739</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <v>-3.121951219520192E-05</v>
       </c>
-      <c r="V253">
+      <c r="W253">
         <v>-3.124902346807179E-05</v>
       </c>
-      <c r="W253">
+      <c r="X253">
         <v>0.0009376465072667983</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B254">
         <v>85.40000000000001</v>
@@ -19422,21 +20184,24 @@
         <v>85.33200000000001</v>
       </c>
       <c r="T254">
+        <v>85.37333333333333</v>
+      </c>
+      <c r="U254">
         <v>0.004999999999995453</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <v>-2.341536516259346E-05</v>
       </c>
-      <c r="V254">
+      <c r="W254">
         <v>-1.562499999985256E-05</v>
       </c>
-      <c r="W254">
+      <c r="X254">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B255">
         <v>85.38</v>
@@ -19493,21 +20258,24 @@
         <v>85.33333333333333</v>
       </c>
       <c r="T255">
+        <v>85.39333333333333</v>
+      </c>
+      <c r="U255">
         <v>0.01749999999999829</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <v>-3.902652242460114E-05</v>
       </c>
-      <c r="V255">
+      <c r="W255">
         <v>1.562524414433497E-05</v>
       </c>
-      <c r="W255">
+      <c r="X255">
         <v>-0.0002341920374708817</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B256">
         <v>85.36</v>
@@ -19564,21 +20332,24 @@
         <v>85.33333333333333</v>
       </c>
       <c r="T256">
+        <v>85.38</v>
+      </c>
+      <c r="U256">
         <v>0.02499999999999147</v>
       </c>
-      <c r="U256">
+      <c r="V256">
         <v>-5.463926377513584E-05</v>
       </c>
-      <c r="V256">
+      <c r="W256">
         <v>0</v>
       </c>
-      <c r="W256">
+      <c r="X256">
         <v>-0.0002342468962285293</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257">
         <v>85.34</v>
@@ -19635,21 +20406,24 @@
         <v>85.336</v>
       </c>
       <c r="T257">
+        <v>85.36</v>
+      </c>
+      <c r="U257">
         <v>0.02375000000000682</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <v>-6.24482850138941E-05</v>
       </c>
-      <c r="V257">
+      <c r="W257">
         <v>3.125000000014921E-05</v>
       </c>
-      <c r="W257">
+      <c r="X257">
         <v>-0.0002343017806935022</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>85.3</v>
@@ -19706,21 +20480,24 @@
         <v>85.33466666666666</v>
       </c>
       <c r="T258">
+        <v>85.33333333333333</v>
+      </c>
+      <c r="U258">
         <v>0.01874999999999716</v>
       </c>
-      <c r="U258">
+      <c r="V258">
         <v>-9.367827756867619E-05</v>
       </c>
-      <c r="V258">
+      <c r="W258">
         <v>-1.562451173398038E-05</v>
       </c>
-      <c r="W258">
+      <c r="X258">
         <v>-0.0004687133817671274</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B259">
         <v>85.31999999999999</v>
@@ -19777,21 +20554,24 @@
         <v>85.33733333333333</v>
       </c>
       <c r="T259">
+        <v>85.31999999999999</v>
+      </c>
+      <c r="U259">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <v>-9.368705401069377E-05</v>
       </c>
-      <c r="V259">
+      <c r="W259">
         <v>3.124951172650547E-05</v>
       </c>
-      <c r="W259">
+      <c r="X259">
         <v>0.0002344665885110064</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B260">
         <v>85.34</v>
@@ -19848,21 +20628,24 @@
         <v>85.34</v>
       </c>
       <c r="T260">
+        <v>85.32000000000001</v>
+      </c>
+      <c r="U260">
         <v>0.01749999999998408</v>
       </c>
-      <c r="U260">
+      <c r="V260">
         <v>-8.588784608887234E-05</v>
       </c>
-      <c r="V260">
+      <c r="W260">
         <v>3.124853522495918E-05</v>
       </c>
-      <c r="W260">
+      <c r="X260">
         <v>0.0002344116268166996</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B261">
         <v>85.36</v>
@@ -19919,21 +20702,24 @@
         <v>85.34266666666666</v>
       </c>
       <c r="T261">
+        <v>85.33999999999999</v>
+      </c>
+      <c r="U261">
         <v>0.008749999999992042</v>
       </c>
-      <c r="U261">
+      <c r="V261">
         <v>-7.027791009128759E-05</v>
       </c>
-      <c r="V261">
+      <c r="W261">
         <v>3.124755878425312E-05</v>
       </c>
-      <c r="W261">
+      <c r="X261">
         <v>0.0002343566908835637</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B262">
         <v>85.36</v>
@@ -19990,21 +20776,24 @@
         <v>85.34666666666666</v>
       </c>
       <c r="T262">
+        <v>85.35333333333334</v>
+      </c>
+      <c r="U262">
         <v>0.001249999999998863</v>
       </c>
-      <c r="U262">
+      <c r="V262">
         <v>-7.028284942312002E-05</v>
       </c>
-      <c r="V262">
+      <c r="W262">
         <v>4.68698736075801E-05</v>
       </c>
-      <c r="W262">
+      <c r="X262">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B263">
         <v>85.42</v>
@@ -20061,21 +20850,24 @@
         <v>85.35466666666666</v>
       </c>
       <c r="T263">
+        <v>85.38</v>
+      </c>
+      <c r="U263">
         <v>-0.001249999999984652</v>
       </c>
-      <c r="U263">
+      <c r="V263">
         <v>-1.56195087662736E-05</v>
       </c>
-      <c r="V263">
+      <c r="W263">
         <v>9.373535385082121E-05</v>
       </c>
-      <c r="W263">
+      <c r="X263">
         <v>0.0007029053420806175</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>85.40000000000001</v>
@@ -20132,21 +20924,24 @@
         <v>85.35733333333334</v>
       </c>
       <c r="T264">
+        <v>85.39333333333333</v>
+      </c>
+      <c r="U264">
         <v>-0.002499999999997726</v>
       </c>
-      <c r="U264">
+      <c r="V264">
         <v>-3.123950547845311E-05</v>
       </c>
-      <c r="V264">
+      <c r="W264">
         <v>3.124218945282919E-05</v>
       </c>
-      <c r="W264">
+      <c r="X264">
         <v>-0.0002341372044016854</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B265">
         <v>85.38</v>
@@ -20203,21 +20998,24 @@
         <v>85.35999999999999</v>
       </c>
       <c r="T265">
+        <v>85.39999999999999</v>
+      </c>
+      <c r="U265">
         <v>0.001249999999998863</v>
       </c>
-      <c r="U265">
+      <c r="V265">
         <v>-3.124048141589508E-05</v>
       </c>
-      <c r="V265">
+      <c r="W265">
         <v>3.124121340847275E-05</v>
       </c>
-      <c r="W265">
+      <c r="X265">
         <v>-0.0002341920374708817</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B266">
         <v>85.36</v>
@@ -20274,21 +21072,24 @@
         <v>85.36266666666667</v>
       </c>
       <c r="T266">
+        <v>85.38</v>
+      </c>
+      <c r="U266">
         <v>0.00750000000000739</v>
       </c>
-      <c r="U266">
+      <c r="V266">
         <v>-3.905182176766608E-05</v>
       </c>
-      <c r="V266">
+      <c r="W266">
         <v>3.124023742606674E-05</v>
       </c>
-      <c r="W266">
+      <c r="X266">
         <v>-0.0002342468962285293</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B267">
         <v>85.34</v>
@@ -20345,21 +21146,24 @@
         <v>85.364</v>
       </c>
       <c r="T267">
+        <v>85.36000000000001</v>
+      </c>
+      <c r="U267">
         <v>0.008750000000006253</v>
       </c>
-      <c r="U267">
+      <c r="V267">
         <v>-3.905334687182016E-05</v>
       </c>
-      <c r="V267">
+      <c r="W267">
         <v>1.561963075191741E-05</v>
       </c>
-      <c r="W267">
+      <c r="X267">
         <v>-0.0002343017806935022</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B268">
         <v>85.34</v>
@@ -20416,21 +21220,24 @@
         <v>85.36</v>
       </c>
       <c r="T268">
+        <v>85.34666666666668</v>
+      </c>
+      <c r="U268">
         <v>0.007499999999993179</v>
       </c>
-      <c r="U268">
+      <c r="V268">
         <v>-3.905487209521219E-05</v>
       </c>
-      <c r="V268">
+      <c r="W268">
         <v>-4.685816034866175E-05</v>
       </c>
-      <c r="W268">
+      <c r="X268">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269">
         <v>85.3</v>
@@ -20487,21 +21294,24 @@
         <v>85.35333333333332</v>
       </c>
       <c r="T269">
+        <v>85.32666666666667</v>
+      </c>
+      <c r="U269">
         <v>0.006250000000008527</v>
       </c>
-      <c r="U269">
+      <c r="V269">
         <v>-4.686767692552163E-05</v>
       </c>
-      <c r="V269">
+      <c r="W269">
         <v>-7.810059356461174E-05</v>
       </c>
-      <c r="W269">
+      <c r="X269">
         <v>-0.0004687133817671274</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B270">
         <v>85.3</v>
@@ -20558,21 +21368,24 @@
         <v>85.348</v>
       </c>
       <c r="T270">
+        <v>85.31333333333333</v>
+      </c>
+      <c r="U270">
         <v>0.005000000000009663</v>
       </c>
-      <c r="U270">
+      <c r="V270">
         <v>-2.343493680367903E-05</v>
       </c>
-      <c r="V270">
+      <c r="W270">
         <v>-6.248535499486785E-05</v>
       </c>
-      <c r="W270">
+      <c r="X270">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>85.28</v>
@@ -20629,21 +21442,24 @@
         <v>85.34266666666666</v>
       </c>
       <c r="T271">
+        <v>85.29333333333334</v>
+      </c>
+      <c r="U271">
         <v>-0.006250000000008527</v>
       </c>
-      <c r="U271">
+      <c r="V271">
         <v>-3.124731468373554E-05</v>
       </c>
-      <c r="V271">
+      <c r="W271">
         <v>-6.248925965857133E-05</v>
       </c>
-      <c r="W271">
+      <c r="X271">
         <v>-0.0002344665885111175</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B272">
         <v>85.23999999999999</v>
@@ -20700,21 +21516,24 @@
         <v>85.336</v>
       </c>
       <c r="T272">
+        <v>85.27333333333333</v>
+      </c>
+      <c r="U272">
         <v>-0.01874999999999716</v>
       </c>
-      <c r="U272">
+      <c r="V272">
         <v>-2.343621833189591E-05</v>
       </c>
-      <c r="V272">
+      <c r="W272">
         <v>-7.811645601252248E-05</v>
       </c>
-      <c r="W272">
+      <c r="X272">
         <v>-0.00046904315197005</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B273">
         <v>85.3</v>
@@ -20771,21 +21590,24 @@
         <v>85.336</v>
       </c>
       <c r="T273">
+        <v>85.27333333333333</v>
+      </c>
+      <c r="U273">
         <v>-0.02624999999999034</v>
       </c>
-      <c r="U273">
+      <c r="V273">
         <v>-7.81225586687917E-06</v>
       </c>
-      <c r="V273">
+      <c r="W273">
         <v>0</v>
       </c>
-      <c r="W273">
+      <c r="X273">
         <v>0.0007038948850304205</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274">
         <v>85.34</v>
@@ -20842,21 +21664,24 @@
         <v>85.33733333333335</v>
       </c>
       <c r="T274">
+        <v>85.29333333333334</v>
+      </c>
+      <c r="U274">
         <v>-0.03125000000001421</v>
       </c>
-      <c r="U274">
+      <c r="V274">
         <v>2.343695069639828E-05</v>
       </c>
-      <c r="V274">
+      <c r="W274">
         <v>1.562451173420243E-05</v>
       </c>
-      <c r="W274">
+      <c r="X274">
         <v>0.000468933177022457</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B275">
         <v>85.38</v>
@@ -20913,21 +21738,24 @@
         <v>85.33999999999999</v>
       </c>
       <c r="T275">
+        <v>85.33999999999999</v>
+      </c>
+      <c r="U275">
         <v>-0.03000000000001535</v>
       </c>
-      <c r="U275">
+      <c r="V275">
         <v>3.124853522473714E-05</v>
       </c>
-      <c r="V275">
+      <c r="W275">
         <v>3.124853522451509E-05</v>
       </c>
-      <c r="W275">
+      <c r="X275">
         <v>0.0004687133817669054</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B276">
         <v>85.54000000000001</v>
@@ -20984,21 +21812,24 @@
         <v>85.352</v>
       </c>
       <c r="T276">
+        <v>85.42</v>
+      </c>
+      <c r="U276">
         <v>-0.01749999999998408</v>
       </c>
-      <c r="U276">
+      <c r="V276">
         <v>8.593078665741771E-05</v>
       </c>
-      <c r="V276">
+      <c r="W276">
         <v>0.0001406140145303603</v>
       </c>
-      <c r="W276">
+      <c r="X276">
         <v>0.001873975169829123</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B277">
         <v>85.56</v>
@@ -21055,21 +21886,24 @@
         <v>85.36533333333334</v>
       </c>
       <c r="T277">
+        <v>85.49333333333334</v>
+      </c>
+      <c r="U277">
         <v>0.002499999999983515</v>
       </c>
-      <c r="U277">
+      <c r="V277">
         <v>0.0001015458401354419</v>
       </c>
-      <c r="V277">
+      <c r="W277">
         <v>0.0001562158277876868</v>
       </c>
-      <c r="W277">
+      <c r="X277">
         <v>0.000233808744446895</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B278">
         <v>85.62</v>
@@ -21126,21 +21960,24 @@
         <v>85.37866666666667</v>
       </c>
       <c r="T278">
+        <v>85.57333333333334</v>
+      </c>
+      <c r="U278">
         <v>0.02625000000000455</v>
       </c>
-      <c r="U278">
+      <c r="V278">
         <v>0.0001249668056921838</v>
       </c>
-      <c r="V278">
+      <c r="W278">
         <v>0.0001561914282144361</v>
       </c>
-      <c r="W278">
+      <c r="X278">
         <v>0.0007012622720898865</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B279">
         <v>85.62</v>
@@ -21197,21 +22034,24 @@
         <v>85.39333333333335</v>
       </c>
       <c r="T279">
+        <v>85.60000000000001</v>
+      </c>
+      <c r="U279">
         <v>0.05624999999999147</v>
       </c>
-      <c r="U279">
+      <c r="V279">
         <v>0.0001015228426397563</v>
       </c>
-      <c r="V279">
+      <c r="W279">
         <v>0.0001717837398882427</v>
       </c>
-      <c r="W279">
+      <c r="X279">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B280">
         <v>85.59999999999999</v>
@@ -21268,21 +22108,24 @@
         <v>85.408</v>
       </c>
       <c r="T280">
+        <v>85.61333333333333</v>
+      </c>
+      <c r="U280">
         <v>0.08875000000000455</v>
       </c>
-      <c r="U280">
+      <c r="V280">
         <v>0.0001015125367982428</v>
       </c>
-      <c r="V280">
+      <c r="W280">
         <v>0.0001717542353032453</v>
       </c>
-      <c r="W280">
+      <c r="X280">
         <v>-0.0002335902826443581</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B281">
         <v>85.58</v>
@@ -21339,21 +22182,24 @@
         <v>85.42266666666666</v>
       </c>
       <c r="T281">
+        <v>85.59999999999998</v>
+      </c>
+      <c r="U281">
         <v>0.1112499999999983</v>
       </c>
-      <c r="U281">
+      <c r="V281">
         <v>0.0001015022330490556</v>
       </c>
-      <c r="V281">
+      <c r="W281">
         <v>0.0001717247408516975</v>
       </c>
-      <c r="W281">
+      <c r="X281">
         <v>-0.0002336448598130314</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B282">
         <v>85.54000000000001</v>
@@ -21410,21 +22256,24 @@
         <v>85.43599999999999</v>
       </c>
       <c r="T282">
+        <v>85.57333333333332</v>
+      </c>
+      <c r="U282">
         <v>0.1250000000000142</v>
       </c>
-      <c r="U282">
+      <c r="V282">
         <v>8.587778810054125E-05</v>
       </c>
-      <c r="V282">
+      <c r="W282">
         <v>0.0001560865968439629</v>
       </c>
-      <c r="W282">
+      <c r="X282">
         <v>-0.0004673989249823762</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:24">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B283">
         <v>85.45999999999999</v>
@@ -21481,21 +22330,24 @@
         <v>85.44399999999999</v>
       </c>
       <c r="T283">
+        <v>85.52666666666669</v>
+      </c>
+      <c r="U283">
         <v>0.1274999999999977</v>
       </c>
-      <c r="U283">
+      <c r="V283">
         <v>2.341920374693274E-05</v>
       </c>
-      <c r="V283">
+      <c r="W283">
         <v>9.36373425721726E-05</v>
       </c>
-      <c r="W283">
+      <c r="X283">
         <v>-0.0009352349777883573</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:24">
       <c r="A284" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B284">
         <v>85.52</v>
@@ -21552,21 +22404,24 @@
         <v>85.45866666666666</v>
       </c>
       <c r="T284">
+        <v>85.50666666666666</v>
+      </c>
+      <c r="U284">
         <v>0.1137500000000102</v>
       </c>
-      <c r="U284">
+      <c r="V284">
         <v>4.683731060151075E-05</v>
       </c>
-      <c r="V284">
+      <c r="W284">
         <v>0.0001716523883088517</v>
       </c>
-      <c r="W284">
+      <c r="X284">
         <v>0.0007020828457757755</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:24">
       <c r="A285" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B285">
         <v>85.5</v>
@@ -21623,21 +22478,24 @@
         <v>85.47199999999999</v>
       </c>
       <c r="T285">
+        <v>85.49333333333333</v>
+      </c>
+      <c r="U285">
         <v>0.09375000000001421</v>
       </c>
-      <c r="U285">
+      <c r="V285">
         <v>4.683511697067821E-05</v>
       </c>
-      <c r="V285">
+      <c r="W285">
         <v>0.0001560208443849298</v>
       </c>
-      <c r="W285">
+      <c r="X285">
         <v>-0.0002338634237605275</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:24">
       <c r="A286" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B286">
         <v>85.48</v>
@@ -21694,21 +22552,24 @@
         <v>85.48533333333333</v>
       </c>
       <c r="T286">
+        <v>85.5</v>
+      </c>
+      <c r="U286">
         <v>0.06499999999999773</v>
       </c>
-      <c r="U286">
+      <c r="V286">
         <v>4.683292354523694E-05</v>
       </c>
-      <c r="V286">
+      <c r="W286">
         <v>0.0001559965056783241</v>
       </c>
-      <c r="W286">
+      <c r="X286">
         <v>-0.0002339181286549197</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:24">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B287">
         <v>85.5</v>
@@ -21765,21 +22626,24 @@
         <v>85.50266666666667</v>
       </c>
       <c r="T287">
+        <v>85.49333333333334</v>
+      </c>
+      <c r="U287">
         <v>0.03625000000000966</v>
       </c>
-      <c r="U287">
+      <c r="V287">
         <v>6.244097376684188E-05</v>
       </c>
-      <c r="V287">
+      <c r="W287">
         <v>0.0002027638269332943</v>
       </c>
-      <c r="W287">
+      <c r="X287">
         <v>0.0002339728591482793</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:24">
       <c r="A288" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B288">
         <v>85.54000000000001</v>
@@ -21836,21 +22700,24 @@
         <v>85.51866666666666</v>
       </c>
       <c r="T288">
+        <v>85.50666666666667</v>
+      </c>
+      <c r="U288">
         <v>0.01000000000000512</v>
       </c>
-      <c r="U288">
+      <c r="V288">
         <v>9.365561270269218E-05</v>
       </c>
-      <c r="V288">
+      <c r="W288">
         <v>0.0001871286665522387</v>
       </c>
-      <c r="W288">
+      <c r="X288">
         <v>0.0004678362573100614</v>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:24">
       <c r="A289" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B289">
         <v>85.5</v>
@@ -21907,21 +22774,24 @@
         <v>85.52933333333333</v>
       </c>
       <c r="T289">
+        <v>85.51333333333334</v>
+      </c>
+      <c r="U289">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U289">
+      <c r="V289">
         <v>7.023513161308337E-05</v>
       </c>
-      <c r="V289">
+      <c r="W289">
         <v>0.0001247291039772058</v>
       </c>
-      <c r="W289">
+      <c r="X289">
         <v>-0.0004676174888941231</v>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:24">
       <c r="A290" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B290">
         <v>85.52</v>
@@ -21978,21 +22848,24 @@
         <v>85.53866666666666</v>
       </c>
       <c r="T290">
+        <v>85.52</v>
+      </c>
+      <c r="U290">
         <v>-0.02625000000000455</v>
       </c>
-      <c r="U290">
+      <c r="V290">
         <v>7.023019898544369E-05</v>
       </c>
-      <c r="V290">
+      <c r="W290">
         <v>0.0001091243549971033</v>
       </c>
-      <c r="W290">
+      <c r="X290">
         <v>0.0002339181286550307</v>
       </c>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" spans="1:24">
       <c r="A291" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B291">
         <v>85.52</v>
@@ -22049,21 +22922,24 @@
         <v>85.53733333333335</v>
       </c>
       <c r="T291">
+        <v>85.51333333333332</v>
+      </c>
+      <c r="U291">
         <v>-0.02750000000001762</v>
       </c>
-      <c r="U291">
+      <c r="V291">
         <v>6.242245960108583E-05</v>
       </c>
-      <c r="V291">
+      <c r="W291">
         <v>-1.558749259567005E-05</v>
       </c>
-      <c r="W291">
+      <c r="X291">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" spans="1:24">
       <c r="A292" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B292">
         <v>85.45999999999999</v>
@@ -22120,21 +22996,24 @@
         <v>85.53066666666665</v>
       </c>
       <c r="T292">
+        <v>85.5</v>
+      </c>
+      <c r="U292">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="U292">
+      <c r="V292">
         <v>3.901160205055376E-05</v>
       </c>
-      <c r="V292">
+      <c r="W292">
         <v>-7.793867784866571E-05</v>
       </c>
-      <c r="W292">
+      <c r="X292">
         <v>-0.0007015902712815825</v>
       </c>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" spans="1:24">
       <c r="A293" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B293">
         <v>85.54000000000001</v>
@@ -22191,21 +23070,24 @@
         <v>85.52533333333334</v>
       </c>
       <c r="T293">
+        <v>85.50666666666666</v>
+      </c>
+      <c r="U293">
         <v>-0.02375000000000682</v>
       </c>
-      <c r="U293">
+      <c r="V293">
         <v>4.681209624557425E-05</v>
       </c>
-      <c r="V293">
+      <c r="W293">
         <v>-6.235580220714798E-05</v>
       </c>
-      <c r="W293">
+      <c r="X293">
         <v>0.0009361104610345894</v>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:24">
       <c r="A294" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B294">
         <v>85.48</v>
@@ -22262,21 +23144,24 @@
         <v>85.51599999999999</v>
       </c>
       <c r="T294">
+        <v>85.49333333333334</v>
+      </c>
+      <c r="U294">
         <v>-0.01500000000001478</v>
       </c>
-      <c r="U294">
+      <c r="V294">
         <v>3.120660331723535E-05</v>
       </c>
-      <c r="V294">
+      <c r="W294">
         <v>-0.0001091294587179936</v>
       </c>
-      <c r="W294">
+      <c r="X294">
         <v>-0.0007014262333411292</v>
       </c>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" spans="1:24">
       <c r="A295" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B295">
         <v>85.45999999999999</v>
@@ -22333,21 +23218,24 @@
         <v>85.50666666666666</v>
       </c>
       <c r="T295">
+        <v>85.49333333333334</v>
+      </c>
+      <c r="U295">
         <v>-0.009999999999990905</v>
       </c>
-      <c r="U295">
+      <c r="V295">
         <v>3.120562949532335E-05</v>
       </c>
-      <c r="V295">
+      <c r="W295">
         <v>-0.000109141369256438</v>
       </c>
-      <c r="W295">
+      <c r="X295">
         <v>-0.0002339728591485013</v>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:24">
       <c r="A296" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B296">
         <v>85.45999999999999</v>
@@ -22404,21 +23292,24 @@
         <v>85.49866666666667</v>
       </c>
       <c r="T296">
+        <v>85.46666666666665</v>
+      </c>
+      <c r="U296">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U296">
+      <c r="V296">
         <v>3.900581966842509E-05</v>
       </c>
-      <c r="V296">
+      <c r="W296">
         <v>-9.355995633864023E-05</v>
       </c>
-      <c r="W296">
+      <c r="X296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" spans="1:24">
       <c r="A297" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B297">
         <v>85.45999999999999</v>
@@ -22475,21 +23366,24 @@
         <v>85.49333333333334</v>
       </c>
       <c r="T297">
+        <v>85.45999999999999</v>
+      </c>
+      <c r="U297">
         <v>-0.008750000000006253</v>
       </c>
-      <c r="U297">
+      <c r="V297">
         <v>4.680515792854223E-05</v>
       </c>
-      <c r="V297">
+      <c r="W297">
         <v>-6.237914041540282E-05</v>
       </c>
-      <c r="W297">
+      <c r="X297">
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" spans="1:24">
       <c r="A298" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B298">
         <v>85.45999999999999</v>
@@ -22546,21 +23440,24 @@
         <v>85.49333333333334</v>
       </c>
       <c r="T298">
+        <v>85.45999999999999</v>
+      </c>
+      <c r="U298">
         <v>-0.01125000000001819</v>
       </c>
-      <c r="U298">
+      <c r="V298">
         <v>4.68029673079684E-05</v>
-      </c>
-      <c r="V298">
-        <v>0</v>
       </c>
       <c r="W298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:23">
+      <c r="X298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:24">
       <c r="A299" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B299">
         <v>85.48</v>
@@ -22617,21 +23514,24 @@
         <v>85.49066666666667</v>
       </c>
       <c r="T299">
+        <v>85.46666666666665</v>
+      </c>
+      <c r="U299">
         <v>-0.01750000000001251</v>
       </c>
-      <c r="U299">
+      <c r="V299">
         <v>7.020116533951182E-05</v>
       </c>
-      <c r="V299">
+      <c r="W299">
         <v>-3.119151590769143E-05</v>
       </c>
-      <c r="W299">
+      <c r="X299">
         <v>0.0002340276152588139</v>
       </c>
     </row>
-    <row r="300" spans="1:23">
+    <row r="300" spans="1:24">
       <c r="A300" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B300">
         <v>85.45999999999999</v>
@@ -22688,21 +23588,24 @@
         <v>85.48800000000001</v>
       </c>
       <c r="T300">
+        <v>85.46666666666665</v>
+      </c>
+      <c r="U300">
         <v>-0.01375000000001592</v>
       </c>
-      <c r="U300">
+      <c r="V300">
         <v>6.239665553908758E-05</v>
       </c>
-      <c r="V300">
+      <c r="W300">
         <v>-3.119248884853043E-05</v>
       </c>
-      <c r="W300">
+      <c r="X300">
         <v>-0.0002339728591485013</v>
       </c>
     </row>
-    <row r="301" spans="1:23">
+    <row r="301" spans="1:24">
       <c r="A301" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B301">
         <v>85.45999999999999</v>
@@ -22759,21 +23662,24 @@
         <v>85.48666666666666</v>
       </c>
       <c r="T301">
+        <v>85.46666666666665</v>
+      </c>
+      <c r="U301">
         <v>-0.02124999999999488</v>
       </c>
-      <c r="U301">
+      <c r="V301">
         <v>7.01918577445948E-05</v>
       </c>
-      <c r="V301">
+      <c r="W301">
         <v>-1.55967309254379E-05</v>
       </c>
-      <c r="W301">
+      <c r="X301">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:23">
+    <row r="302" spans="1:24">
       <c r="A302" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B302">
         <v>85.45999999999999</v>
@@ -22830,21 +23736,24 @@
         <v>85.48399999999999</v>
       </c>
       <c r="T302">
+        <v>85.45999999999999</v>
+      </c>
+      <c r="U302">
         <v>-0.02250000000000796</v>
       </c>
-      <c r="U302">
+      <c r="V302">
         <v>8.578402701409082E-05</v>
       </c>
-      <c r="V302">
+      <c r="W302">
         <v>-3.119394837403089E-05</v>
       </c>
-      <c r="W302">
+      <c r="X302">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:23">
+    <row r="303" spans="1:24">
       <c r="A303" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B303">
         <v>85.40000000000001</v>
@@ -22901,21 +23810,24 @@
         <v>85.47466666666668</v>
       </c>
       <c r="T303">
+        <v>85.44</v>
+      </c>
+      <c r="U303">
         <v>-0.02375000000002103</v>
       </c>
-      <c r="U303">
+      <c r="V303">
         <v>3.898939488444775E-05</v>
       </c>
-      <c r="V303">
+      <c r="W303">
         <v>-0.0001091822251335639</v>
       </c>
-      <c r="W303">
+      <c r="X303">
         <v>-0.0007020828457756645</v>
       </c>
     </row>
-    <row r="304" spans="1:23">
+    <row r="304" spans="1:24">
       <c r="A304" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B304">
         <v>85.40000000000001</v>
@@ -22972,21 +23884,24 @@
         <v>85.468</v>
       </c>
       <c r="T304">
+        <v>85.42</v>
+      </c>
+      <c r="U304">
         <v>-0.02249999999999375</v>
       </c>
-      <c r="U304">
+      <c r="V304">
         <v>2.339272486273636E-05</v>
       </c>
-      <c r="V304">
+      <c r="W304">
         <v>-7.799581942413703E-05</v>
       </c>
-      <c r="W304">
+      <c r="X304">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" spans="1:24">
       <c r="A305" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B305">
         <v>85.44</v>
@@ -23043,21 +23958,24 @@
         <v>85.46266666666666</v>
       </c>
       <c r="T305">
+        <v>85.41333333333334</v>
+      </c>
+      <c r="U305">
         <v>-0.02125000000000909</v>
       </c>
-      <c r="U305">
+      <c r="V305">
         <v>2.339217765578994E-05</v>
       </c>
-      <c r="V305">
+      <c r="W305">
         <v>-6.240152259717746E-05</v>
       </c>
-      <c r="W305">
+      <c r="X305">
         <v>0.0004683840749413193</v>
       </c>
     </row>
-    <row r="306" spans="1:23">
+    <row r="306" spans="1:24">
       <c r="A306" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B306">
         <v>85.45999999999999</v>
@@ -23114,21 +24032,24 @@
         <v>85.45866666666666</v>
       </c>
       <c r="T306">
+        <v>85.43333333333334</v>
+      </c>
+      <c r="U306">
         <v>-0.01750000000001251</v>
       </c>
-      <c r="U306">
+      <c r="V306">
         <v>-3.11888406326899E-05</v>
       </c>
-      <c r="V306">
+      <c r="W306">
         <v>-4.680406259272019E-05</v>
       </c>
-      <c r="W306">
+      <c r="X306">
         <v>0.000234082397003732</v>
       </c>
     </row>
-    <row r="307" spans="1:23">
+    <row r="307" spans="1:24">
       <c r="A307" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B307">
         <v>85.42</v>
@@ -23185,21 +24106,24 @@
         <v>85.456</v>
       </c>
       <c r="T307">
+        <v>85.44</v>
+      </c>
+      <c r="U307">
         <v>-0.01874999999999716</v>
       </c>
-      <c r="U307">
+      <c r="V307">
         <v>-5.458217346210326E-05</v>
       </c>
-      <c r="V307">
+      <c r="W307">
         <v>-3.120416887680832E-05</v>
       </c>
-      <c r="W307">
+      <c r="X307">
         <v>-0.0004680552305170727</v>
       </c>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" spans="1:24">
       <c r="A308" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B308">
         <v>85.44</v>
@@ -23256,21 +24180,24 @@
         <v>85.44933333333331</v>
       </c>
       <c r="T308">
+        <v>85.44</v>
+      </c>
+      <c r="U308">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="U308">
+      <c r="V308">
         <v>-7.018091079247224E-05</v>
       </c>
-      <c r="V308">
+      <c r="W308">
         <v>-7.801285651898304E-05</v>
       </c>
-      <c r="W308">
+      <c r="X308">
         <v>0.0002341372044016854</v>
       </c>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" spans="1:24">
       <c r="A309" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B309">
         <v>85.44</v>
@@ -23327,21 +24254,24 @@
         <v>85.44666666666666</v>
       </c>
       <c r="T309">
+        <v>85.43333333333334</v>
+      </c>
+      <c r="U309">
         <v>-0.01624999999999943</v>
       </c>
-      <c r="U309">
+      <c r="V309">
         <v>-7.018583649798238E-05</v>
       </c>
-      <c r="V309">
+      <c r="W309">
         <v>-3.12075771996545E-05</v>
       </c>
-      <c r="W309">
+      <c r="X309">
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" spans="1:24">
       <c r="A310" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B310">
         <v>85.45999999999999</v>
@@ -23398,21 +24328,24 @@
         <v>85.44666666666667</v>
       </c>
       <c r="T310">
+        <v>85.44666666666666</v>
+      </c>
+      <c r="U310">
         <v>-0.01499999999998636</v>
       </c>
-      <c r="U310">
+      <c r="V310">
         <v>-5.459281558561901E-05</v>
       </c>
-      <c r="V310">
+      <c r="W310">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W310">
+      <c r="X310">
         <v>0.000234082397003732</v>
       </c>
     </row>
-    <row r="311" spans="1:23">
+    <row r="311" spans="1:24">
       <c r="A311" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B311">
         <v>85.48</v>
@@ -23469,21 +24402,24 @@
         <v>85.44800000000001</v>
       </c>
       <c r="T311">
+        <v>85.45999999999999</v>
+      </c>
+      <c r="U311">
         <v>-0.006250000000008527</v>
       </c>
-      <c r="U311">
+      <c r="V311">
         <v>-3.899699723119987E-05</v>
       </c>
-      <c r="V311">
+      <c r="W311">
         <v>1.560427557145694E-05</v>
       </c>
-      <c r="W311">
+      <c r="X311">
         <v>0.0002340276152588139</v>
       </c>
     </row>
-    <row r="312" spans="1:23">
+    <row r="312" spans="1:24">
       <c r="A312" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B312">
         <v>85.45999999999999</v>
@@ -23540,21 +24476,24 @@
         <v>85.44800000000001</v>
       </c>
       <c r="T312">
+        <v>85.46666666666665</v>
+      </c>
+      <c r="U312">
         <v>0.001249999999984652</v>
       </c>
-      <c r="U312">
+      <c r="V312">
         <v>-3.119881444513251E-05</v>
       </c>
-      <c r="V312">
+      <c r="W312">
         <v>0</v>
       </c>
-      <c r="W312">
+      <c r="X312">
         <v>-0.0002339728591485013</v>
       </c>
     </row>
-    <row r="313" spans="1:23">
+    <row r="313" spans="1:24">
       <c r="A313" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B313">
         <v>85.42</v>
@@ -23611,21 +24550,24 @@
         <v>85.44533333333332</v>
       </c>
       <c r="T313">
+        <v>85.45333333333333</v>
+      </c>
+      <c r="U313">
         <v>0.001250000000013074</v>
       </c>
-      <c r="U313">
+      <c r="V313">
         <v>-1.559989392074801E-05</v>
       </c>
-      <c r="V313">
+      <c r="W313">
         <v>-3.120806416401223E-05</v>
       </c>
-      <c r="W313">
+      <c r="X313">
         <v>-0.0004680552305170727</v>
       </c>
     </row>
-    <row r="314" spans="1:23">
+    <row r="314" spans="1:24">
       <c r="A314" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B314">
         <v>85.44</v>
@@ -23682,21 +24624,24 @@
         <v>85.44266666666665</v>
       </c>
       <c r="T314">
+        <v>85.44</v>
+      </c>
+      <c r="U314">
         <v>0</v>
       </c>
-      <c r="U314">
+      <c r="V314">
         <v>-3.120027456227081E-05</v>
       </c>
-      <c r="V314">
+      <c r="W314">
         <v>-3.120903813746967E-05</v>
       </c>
-      <c r="W314">
+      <c r="X314">
         <v>0.0002341372044016854</v>
       </c>
     </row>
-    <row r="315" spans="1:23">
+    <row r="315" spans="1:24">
       <c r="A315" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B315">
         <v>85.42</v>
@@ -23753,21 +24698,24 @@
         <v>85.44</v>
       </c>
       <c r="T315">
+        <v>85.42666666666668</v>
+      </c>
+      <c r="U315">
         <v>0.0037500000000108</v>
       </c>
-      <c r="U315">
+      <c r="V315">
         <v>-3.120124805000568E-05</v>
       </c>
-      <c r="V315">
+      <c r="W315">
         <v>-3.121001217176733E-05</v>
       </c>
-      <c r="W315">
+      <c r="X315">
         <v>-0.000234082397003732</v>
       </c>
     </row>
-    <row r="316" spans="1:23">
+    <row r="316" spans="1:24">
       <c r="A316" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B316">
         <v>85.44</v>
@@ -23824,21 +24772,24 @@
         <v>85.43866666666668</v>
       </c>
       <c r="T316">
+        <v>85.43333333333334</v>
+      </c>
+      <c r="U316">
         <v>0.004999999999995453</v>
       </c>
-      <c r="U316">
+      <c r="V316">
         <v>-1.560111079912385E-05</v>
       </c>
-      <c r="V316">
+      <c r="W316">
         <v>-1.56054931333971E-05</v>
       </c>
-      <c r="W316">
+      <c r="X316">
         <v>0.0002341372044016854</v>
       </c>
     </row>
-    <row r="317" spans="1:23">
+    <row r="317" spans="1:24">
       <c r="A317" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B317">
         <v>85.45999999999999</v>
@@ -23895,21 +24846,24 @@
         <v>85.43866666666666</v>
       </c>
       <c r="T317">
+        <v>85.44</v>
+      </c>
+      <c r="U317">
         <v>0.00750000000000739</v>
       </c>
-      <c r="U317">
+      <c r="V317">
         <v>-1.560135419742537E-05</v>
       </c>
-      <c r="V317">
+      <c r="W317">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W317">
+      <c r="X317">
         <v>0.000234082397003732</v>
       </c>
     </row>
-    <row r="318" spans="1:23">
+    <row r="318" spans="1:24">
       <c r="A318" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B318">
         <v>85.54000000000001</v>
@@ -23966,21 +24920,24 @@
         <v>85.44800000000001</v>
       </c>
       <c r="T318">
+        <v>85.48</v>
+      </c>
+      <c r="U318">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U318">
+      <c r="V318">
         <v>0</v>
       </c>
-      <c r="V318">
+      <c r="W318">
         <v>0.0001092401566817891</v>
       </c>
-      <c r="W318">
+      <c r="X318">
         <v>0.0009361104610345894</v>
       </c>
     </row>
-    <row r="319" spans="1:23">
+    <row r="319" spans="1:24">
       <c r="A319" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B319">
         <v>85.54000000000001</v>
@@ -24037,15 +24994,18 @@
         <v>85.45733333333334</v>
       </c>
       <c r="T319">
+        <v>85.51333333333332</v>
+      </c>
+      <c r="U319">
         <v>0.01125000000000398</v>
       </c>
-      <c r="U319">
+      <c r="V319">
         <v>1.560159760338742E-05</v>
       </c>
-      <c r="V319">
+      <c r="W319">
         <v>0.0001092282245731546</v>
       </c>
-      <c r="W319">
+      <c r="X319">
         <v>0</v>
       </c>
     </row>
